--- a/DID_sheet.xlsx
+++ b/DID_sheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PNM3HC\Desktop\GithubRepo\Python_file_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E94CEBF-A4FB-40DE-9F56-B1AA4328C9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC19F45-6E17-4532-84E7-F55BD1FDFA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Info_sheet" sheetId="3" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -71,7 +71,6 @@
     <externalReference r:id="rId54"/>
     <externalReference r:id="rId55"/>
     <externalReference r:id="rId56"/>
-    <externalReference r:id="rId57"/>
   </externalReferences>
   <definedNames>
     <definedName name="\0">[1]yh5特装!$N$1</definedName>
@@ -99,556 +98,564 @@
     <definedName name="\y">'[3]002(4)'!#REF!</definedName>
     <definedName name="\Y0">[1]yh5特装!$U$1</definedName>
     <definedName name="\z">'[3]002(4)'!#REF!</definedName>
-    <definedName name="________dne１">[5]result!#REF!</definedName>
-    <definedName name="________inj1">[6]result!#REF!</definedName>
-    <definedName name="________inj2">[6]result!#REF!</definedName>
-    <definedName name="________inj3">[6]result!#REF!</definedName>
-    <definedName name="______DEL1">[7]総合B!$G$10:$I$13,[7]総合B!$G$15:$I$18,[7]総合B!$G$20:$I$22,[7]総合B!$G$25:$I$28,[7]総合B!$G$31:$I$32,[7]総合B!$G$34:$I$36,[7]総合B!$G$39:$I$40,[7]総合B!$G$43:$I$43,[7]総合B!$K$10:$M$13,[7]総合B!$K$15:$M$18,[7]総合B!$K$20:$M$22,[7]総合B!$K$25:$M$28,[7]総合B!$K$31:$M$32,[7]総合B!$K$34:$M$36,[7]総合B!$K$39:$M$40,[7]総合B!$K$43:$M$43</definedName>
-    <definedName name="______DEL2">[7]総合B!$O$10:$Q$13,[7]総合B!$O$15:$Q$18,[7]総合B!$O$20:$Q$22,[7]総合B!$O$25:$Q$28,[7]総合B!$O$31:$Q$32,[7]総合B!$O$34:$Q$36,[7]総合B!$O$39:$Q$40,[7]総合B!$O$43:$Q$43,[7]総合B!$S$10:$U$13,[7]総合B!$S$15:$U$18,[7]総合B!$S$20:$U$22,[7]総合B!$S$25:$U$28,[7]総合B!$S$31:$U$32,[7]総合B!$S$34:$U$36,[7]総合B!$S$39:$U$40,[7]総合B!$S$43:$U$43</definedName>
-    <definedName name="______DEL3">[7]総合B!$W$10:$Y$13,[7]総合B!$W$15:$Y$18,[7]総合B!$W$20:$Y$22,[7]総合B!$W$25:$Y$28,[7]総合B!$W$31:$Y$32,[7]総合B!$W$34:$Y$36,[7]総合B!$W$39:$Y$40,[7]総合B!$W$43:$Y$43,[7]総合B!$AA$10:$AC$13,[7]総合B!$AA$15:$AC$18,[7]総合B!$AA$20:$AC$22,[7]総合B!$AA$25:$AC$28,[7]総合B!$AA$31:$AC$32,[7]総合B!$AA$34:$AC$36,[7]総合B!$AA$39:$AC$40,[7]総合B!$AA$43:$AC$43</definedName>
-    <definedName name="______DEL4">[7]総合B!$AE$10:$AG$13,[7]総合B!$AE$15:$AG$18,[7]総合B!$AE$20:$AG$22,[7]総合B!$AE$25:$AG$28,[7]総合B!$AE$31:$AG$32,[7]総合B!$AE$34:$AG$36,[7]総合B!$AE$39:$AG$40,[7]総合B!$AE$43:$AG$43,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!</definedName>
-    <definedName name="______dne１">[5]result!#REF!</definedName>
-    <definedName name="______inj1">[6]result!#REF!</definedName>
-    <definedName name="______inj2">[6]result!#REF!</definedName>
-    <definedName name="______inj3">[6]result!#REF!</definedName>
-    <definedName name="_____DEL1">[7]総合B!$G$10:$I$13,[7]総合B!$G$15:$I$18,[7]総合B!$G$20:$I$22,[7]総合B!$G$25:$I$28,[7]総合B!$G$31:$I$32,[7]総合B!$G$34:$I$36,[7]総合B!$G$39:$I$40,[7]総合B!$G$43:$I$43,[7]総合B!$K$10:$M$13,[7]総合B!$K$15:$M$18,[7]総合B!$K$20:$M$22,[7]総合B!$K$25:$M$28,[7]総合B!$K$31:$M$32,[7]総合B!$K$34:$M$36,[7]総合B!$K$39:$M$40,[7]総合B!$K$43:$M$43</definedName>
-    <definedName name="_____DEL2">[7]総合B!$O$10:$Q$13,[7]総合B!$O$15:$Q$18,[7]総合B!$O$20:$Q$22,[7]総合B!$O$25:$Q$28,[7]総合B!$O$31:$Q$32,[7]総合B!$O$34:$Q$36,[7]総合B!$O$39:$Q$40,[7]総合B!$O$43:$Q$43,[7]総合B!$S$10:$U$13,[7]総合B!$S$15:$U$18,[7]総合B!$S$20:$U$22,[7]総合B!$S$25:$U$28,[7]総合B!$S$31:$U$32,[7]総合B!$S$34:$U$36,[7]総合B!$S$39:$U$40,[7]総合B!$S$43:$U$43</definedName>
-    <definedName name="_____DEL3">[7]総合B!$W$10:$Y$13,[7]総合B!$W$15:$Y$18,[7]総合B!$W$20:$Y$22,[7]総合B!$W$25:$Y$28,[7]総合B!$W$31:$Y$32,[7]総合B!$W$34:$Y$36,[7]総合B!$W$39:$Y$40,[7]総合B!$W$43:$Y$43,[7]総合B!$AA$10:$AC$13,[7]総合B!$AA$15:$AC$18,[7]総合B!$AA$20:$AC$22,[7]総合B!$AA$25:$AC$28,[7]総合B!$AA$31:$AC$32,[7]総合B!$AA$34:$AC$36,[7]総合B!$AA$39:$AC$40,[7]総合B!$AA$43:$AC$43</definedName>
-    <definedName name="_____DEL4">[7]総合B!$AE$10:$AG$13,[7]総合B!$AE$15:$AG$18,[7]総合B!$AE$20:$AG$22,[7]総合B!$AE$25:$AG$28,[7]総合B!$AE$31:$AG$32,[7]総合B!$AE$34:$AG$36,[7]総合B!$AE$39:$AG$40,[7]総合B!$AE$43:$AG$43,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!</definedName>
-    <definedName name="_____dne１">[5]result!#REF!</definedName>
-    <definedName name="_____inj1">[6]result!#REF!</definedName>
-    <definedName name="_____inj2">[6]result!#REF!</definedName>
-    <definedName name="_____inj3">[6]result!#REF!</definedName>
+    <definedName name="________dne１">[4]result!#REF!</definedName>
+    <definedName name="________inj1">[5]result!#REF!</definedName>
+    <definedName name="________inj2">[5]result!#REF!</definedName>
+    <definedName name="________inj3">[5]result!#REF!</definedName>
+    <definedName name="______DEL1">[6]総合B!$G$10:$I$13,[6]総合B!$G$15:$I$18,[6]総合B!$G$20:$I$22,[6]総合B!$G$25:$I$28,[6]総合B!$G$31:$I$32,[6]総合B!$G$34:$I$36,[6]総合B!$G$39:$I$40,[6]総合B!$G$43:$I$43,[6]総合B!$K$10:$M$13,[6]総合B!$K$15:$M$18,[6]総合B!$K$20:$M$22,[6]総合B!$K$25:$M$28,[6]総合B!$K$31:$M$32,[6]総合B!$K$34:$M$36,[6]総合B!$K$39:$M$40,[6]総合B!$K$43:$M$43</definedName>
+    <definedName name="______DEL2">[6]総合B!$O$10:$Q$13,[6]総合B!$O$15:$Q$18,[6]総合B!$O$20:$Q$22,[6]総合B!$O$25:$Q$28,[6]総合B!$O$31:$Q$32,[6]総合B!$O$34:$Q$36,[6]総合B!$O$39:$Q$40,[6]総合B!$O$43:$Q$43,[6]総合B!$S$10:$U$13,[6]総合B!$S$15:$U$18,[6]総合B!$S$20:$U$22,[6]総合B!$S$25:$U$28,[6]総合B!$S$31:$U$32,[6]総合B!$S$34:$U$36,[6]総合B!$S$39:$U$40,[6]総合B!$S$43:$U$43</definedName>
+    <definedName name="______DEL3">[6]総合B!$W$10:$Y$13,[6]総合B!$W$15:$Y$18,[6]総合B!$W$20:$Y$22,[6]総合B!$W$25:$Y$28,[6]総合B!$W$31:$Y$32,[6]総合B!$W$34:$Y$36,[6]総合B!$W$39:$Y$40,[6]総合B!$W$43:$Y$43,[6]総合B!$AA$10:$AC$13,[6]総合B!$AA$15:$AC$18,[6]総合B!$AA$20:$AC$22,[6]総合B!$AA$25:$AC$28,[6]総合B!$AA$31:$AC$32,[6]総合B!$AA$34:$AC$36,[6]総合B!$AA$39:$AC$40,[6]総合B!$AA$43:$AC$43</definedName>
+    <definedName name="______DEL4">[6]総合B!$AE$10:$AG$13,[6]総合B!$AE$15:$AG$18,[6]総合B!$AE$20:$AG$22,[6]総合B!$AE$25:$AG$28,[6]総合B!$AE$31:$AG$32,[6]総合B!$AE$34:$AG$36,[6]総合B!$AE$39:$AG$40,[6]総合B!$AE$43:$AG$43,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!</definedName>
+    <definedName name="______dne１">[4]result!#REF!</definedName>
+    <definedName name="______inj1">[5]result!#REF!</definedName>
+    <definedName name="______inj2">[5]result!#REF!</definedName>
+    <definedName name="______inj3">[5]result!#REF!</definedName>
+    <definedName name="_____DEL1">[6]総合B!$G$10:$I$13,[6]総合B!$G$15:$I$18,[6]総合B!$G$20:$I$22,[6]総合B!$G$25:$I$28,[6]総合B!$G$31:$I$32,[6]総合B!$G$34:$I$36,[6]総合B!$G$39:$I$40,[6]総合B!$G$43:$I$43,[6]総合B!$K$10:$M$13,[6]総合B!$K$15:$M$18,[6]総合B!$K$20:$M$22,[6]総合B!$K$25:$M$28,[6]総合B!$K$31:$M$32,[6]総合B!$K$34:$M$36,[6]総合B!$K$39:$M$40,[6]総合B!$K$43:$M$43</definedName>
+    <definedName name="_____DEL2">[6]総合B!$O$10:$Q$13,[6]総合B!$O$15:$Q$18,[6]総合B!$O$20:$Q$22,[6]総合B!$O$25:$Q$28,[6]総合B!$O$31:$Q$32,[6]総合B!$O$34:$Q$36,[6]総合B!$O$39:$Q$40,[6]総合B!$O$43:$Q$43,[6]総合B!$S$10:$U$13,[6]総合B!$S$15:$U$18,[6]総合B!$S$20:$U$22,[6]総合B!$S$25:$U$28,[6]総合B!$S$31:$U$32,[6]総合B!$S$34:$U$36,[6]総合B!$S$39:$U$40,[6]総合B!$S$43:$U$43</definedName>
+    <definedName name="_____DEL3">[6]総合B!$W$10:$Y$13,[6]総合B!$W$15:$Y$18,[6]総合B!$W$20:$Y$22,[6]総合B!$W$25:$Y$28,[6]総合B!$W$31:$Y$32,[6]総合B!$W$34:$Y$36,[6]総合B!$W$39:$Y$40,[6]総合B!$W$43:$Y$43,[6]総合B!$AA$10:$AC$13,[6]総合B!$AA$15:$AC$18,[6]総合B!$AA$20:$AC$22,[6]総合B!$AA$25:$AC$28,[6]総合B!$AA$31:$AC$32,[6]総合B!$AA$34:$AC$36,[6]総合B!$AA$39:$AC$40,[6]総合B!$AA$43:$AC$43</definedName>
+    <definedName name="_____DEL4">[6]総合B!$AE$10:$AG$13,[6]総合B!$AE$15:$AG$18,[6]総合B!$AE$20:$AG$22,[6]総合B!$AE$25:$AG$28,[6]総合B!$AE$31:$AG$32,[6]総合B!$AE$34:$AG$36,[6]総合B!$AE$39:$AG$40,[6]総合B!$AE$43:$AG$43,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!</definedName>
+    <definedName name="_____dne１">[4]result!#REF!</definedName>
+    <definedName name="_____inj1">[5]result!#REF!</definedName>
+    <definedName name="_____inj2">[5]result!#REF!</definedName>
+    <definedName name="_____inj3">[5]result!#REF!</definedName>
     <definedName name="_____q1">#REF!</definedName>
     <definedName name="____A2">#REF!</definedName>
     <definedName name="____B1">#REF!</definedName>
-    <definedName name="____DEL1">[7]総合B!$G$10:$I$13,[7]総合B!$G$15:$I$18,[7]総合B!$G$20:$I$22,[7]総合B!$G$25:$I$28,[7]総合B!$G$31:$I$32,[7]総合B!$G$34:$I$36,[7]総合B!$G$39:$I$40,[7]総合B!$G$43:$I$43,[7]総合B!$K$10:$M$13,[7]総合B!$K$15:$M$18,[7]総合B!$K$20:$M$22,[7]総合B!$K$25:$M$28,[7]総合B!$K$31:$M$32,[7]総合B!$K$34:$M$36,[7]総合B!$K$39:$M$40,[7]総合B!$K$43:$M$43</definedName>
-    <definedName name="____DEL2">[7]総合B!$O$10:$Q$13,[7]総合B!$O$15:$Q$18,[7]総合B!$O$20:$Q$22,[7]総合B!$O$25:$Q$28,[7]総合B!$O$31:$Q$32,[7]総合B!$O$34:$Q$36,[7]総合B!$O$39:$Q$40,[7]総合B!$O$43:$Q$43,[7]総合B!$S$10:$U$13,[7]総合B!$S$15:$U$18,[7]総合B!$S$20:$U$22,[7]総合B!$S$25:$U$28,[7]総合B!$S$31:$U$32,[7]総合B!$S$34:$U$36,[7]総合B!$S$39:$U$40,[7]総合B!$S$43:$U$43</definedName>
-    <definedName name="____DEL3">[7]総合B!$W$10:$Y$13,[7]総合B!$W$15:$Y$18,[7]総合B!$W$20:$Y$22,[7]総合B!$W$25:$Y$28,[7]総合B!$W$31:$Y$32,[7]総合B!$W$34:$Y$36,[7]総合B!$W$39:$Y$40,[7]総合B!$W$43:$Y$43,[7]総合B!$AA$10:$AC$13,[7]総合B!$AA$15:$AC$18,[7]総合B!$AA$20:$AC$22,[7]総合B!$AA$25:$AC$28,[7]総合B!$AA$31:$AC$32,[7]総合B!$AA$34:$AC$36,[7]総合B!$AA$39:$AC$40,[7]総合B!$AA$43:$AC$43</definedName>
-    <definedName name="____DEL4">[8]総合B!$AE$10:$AG$13,[8]総合B!$AE$15:$AG$18,[8]総合B!$AE$20:$AG$22,[8]総合B!$AE$25:$AG$28,[8]総合B!$AE$31:$AG$32,[8]総合B!$AE$34:$AG$36,[8]総合B!$AE$39:$AG$40,[8]総合B!$AE$43:$AG$43,[8]総合B!#REF!,[8]総合B!#REF!,[8]総合B!#REF!,[8]総合B!#REF!,[8]総合B!#REF!,[8]総合B!#REF!,[8]総合B!#REF!,[8]総合B!#REF!</definedName>
-    <definedName name="____dne１">[5]result!#REF!</definedName>
-    <definedName name="____inj1">[6]result!#REF!</definedName>
-    <definedName name="____inj2">[6]result!#REF!</definedName>
-    <definedName name="____inj3">[6]result!#REF!</definedName>
+    <definedName name="____DEL1">[6]総合B!$G$10:$I$13,[6]総合B!$G$15:$I$18,[6]総合B!$G$20:$I$22,[6]総合B!$G$25:$I$28,[6]総合B!$G$31:$I$32,[6]総合B!$G$34:$I$36,[6]総合B!$G$39:$I$40,[6]総合B!$G$43:$I$43,[6]総合B!$K$10:$M$13,[6]総合B!$K$15:$M$18,[6]総合B!$K$20:$M$22,[6]総合B!$K$25:$M$28,[6]総合B!$K$31:$M$32,[6]総合B!$K$34:$M$36,[6]総合B!$K$39:$M$40,[6]総合B!$K$43:$M$43</definedName>
+    <definedName name="____DEL2">[6]総合B!$O$10:$Q$13,[6]総合B!$O$15:$Q$18,[6]総合B!$O$20:$Q$22,[6]総合B!$O$25:$Q$28,[6]総合B!$O$31:$Q$32,[6]総合B!$O$34:$Q$36,[6]総合B!$O$39:$Q$40,[6]総合B!$O$43:$Q$43,[6]総合B!$S$10:$U$13,[6]総合B!$S$15:$U$18,[6]総合B!$S$20:$U$22,[6]総合B!$S$25:$U$28,[6]総合B!$S$31:$U$32,[6]総合B!$S$34:$U$36,[6]総合B!$S$39:$U$40,[6]総合B!$S$43:$U$43</definedName>
+    <definedName name="____DEL3">[6]総合B!$W$10:$Y$13,[6]総合B!$W$15:$Y$18,[6]総合B!$W$20:$Y$22,[6]総合B!$W$25:$Y$28,[6]総合B!$W$31:$Y$32,[6]総合B!$W$34:$Y$36,[6]総合B!$W$39:$Y$40,[6]総合B!$W$43:$Y$43,[6]総合B!$AA$10:$AC$13,[6]総合B!$AA$15:$AC$18,[6]総合B!$AA$20:$AC$22,[6]総合B!$AA$25:$AC$28,[6]総合B!$AA$31:$AC$32,[6]総合B!$AA$34:$AC$36,[6]総合B!$AA$39:$AC$40,[6]総合B!$AA$43:$AC$43</definedName>
+    <definedName name="____DEL4">[7]総合B!$AE$10:$AG$13,[7]総合B!$AE$15:$AG$18,[7]総合B!$AE$20:$AG$22,[7]総合B!$AE$25:$AG$28,[7]総合B!$AE$31:$AG$32,[7]総合B!$AE$34:$AG$36,[7]総合B!$AE$39:$AG$40,[7]総合B!$AE$43:$AG$43,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!</definedName>
+    <definedName name="____dne１">[4]result!#REF!</definedName>
+    <definedName name="____inj1">[5]result!#REF!</definedName>
+    <definedName name="____inj2">[5]result!#REF!</definedName>
+    <definedName name="____inj3">[5]result!#REF!</definedName>
     <definedName name="____q1">#REF!</definedName>
     <definedName name="___A2">#REF!</definedName>
     <definedName name="___B1">#REF!</definedName>
-    <definedName name="___D315">[9]DataList!#REF!</definedName>
-    <definedName name="___DEL1">[8]総合B!$G$10:$I$13,[8]総合B!$G$15:$I$18,[8]総合B!$G$20:$I$22,[8]総合B!$G$25:$I$28,[8]総合B!$G$31:$I$32,[8]総合B!$G$34:$I$36,[8]総合B!$G$39:$I$40,[8]総合B!$G$43:$I$43,[8]総合B!$K$10:$M$13,[8]総合B!$K$15:$M$18,[8]総合B!$K$20:$M$22,[8]総合B!$K$25:$M$28,[8]総合B!$K$31:$M$32,[8]総合B!$K$34:$M$36,[8]総合B!$K$39:$M$40,[8]総合B!$K$43:$M$43</definedName>
-    <definedName name="___DEL2">[8]総合B!$O$10:$Q$13,[8]総合B!$O$15:$Q$18,[8]総合B!$O$20:$Q$22,[8]総合B!$O$25:$Q$28,[8]総合B!$O$31:$Q$32,[8]総合B!$O$34:$Q$36,[8]総合B!$O$39:$Q$40,[8]総合B!$O$43:$Q$43,[8]総合B!$S$10:$U$13,[8]総合B!$S$15:$U$18,[8]総合B!$S$20:$U$22,[8]総合B!$S$25:$U$28,[8]総合B!$S$31:$U$32,[8]総合B!$S$34:$U$36,[8]総合B!$S$39:$U$40,[8]総合B!$S$43:$U$43</definedName>
-    <definedName name="___DEL3">[8]総合B!$W$10:$Y$13,[8]総合B!$W$15:$Y$18,[8]総合B!$W$20:$Y$22,[8]総合B!$W$25:$Y$28,[8]総合B!$W$31:$Y$32,[8]総合B!$W$34:$Y$36,[8]総合B!$W$39:$Y$40,[8]総合B!$W$43:$Y$43,[8]総合B!$AA$10:$AC$13,[8]総合B!$AA$15:$AC$18,[8]総合B!$AA$20:$AC$22,[8]総合B!$AA$25:$AC$28,[8]総合B!$AA$31:$AC$32,[8]総合B!$AA$34:$AC$36,[8]総合B!$AA$39:$AC$40,[8]総合B!$AA$43:$AC$43</definedName>
-    <definedName name="___DEL4">[7]総合B!$AE$10:$AG$13,[7]総合B!$AE$15:$AG$18,[7]総合B!$AE$20:$AG$22,[7]総合B!$AE$25:$AG$28,[7]総合B!$AE$31:$AG$32,[7]総合B!$AE$34:$AG$36,[7]総合B!$AE$39:$AG$40,[7]総合B!$AE$43:$AG$43,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!</definedName>
-    <definedName name="___dne１">[5]result!#REF!</definedName>
-    <definedName name="___inj1">[6]result!#REF!</definedName>
-    <definedName name="___inj2">[6]result!#REF!</definedName>
-    <definedName name="___inj3">[6]result!#REF!</definedName>
+    <definedName name="___D315">[8]DataList!#REF!</definedName>
+    <definedName name="___DEL1">[7]総合B!$G$10:$I$13,[7]総合B!$G$15:$I$18,[7]総合B!$G$20:$I$22,[7]総合B!$G$25:$I$28,[7]総合B!$G$31:$I$32,[7]総合B!$G$34:$I$36,[7]総合B!$G$39:$I$40,[7]総合B!$G$43:$I$43,[7]総合B!$K$10:$M$13,[7]総合B!$K$15:$M$18,[7]総合B!$K$20:$M$22,[7]総合B!$K$25:$M$28,[7]総合B!$K$31:$M$32,[7]総合B!$K$34:$M$36,[7]総合B!$K$39:$M$40,[7]総合B!$K$43:$M$43</definedName>
+    <definedName name="___DEL2">[7]総合B!$O$10:$Q$13,[7]総合B!$O$15:$Q$18,[7]総合B!$O$20:$Q$22,[7]総合B!$O$25:$Q$28,[7]総合B!$O$31:$Q$32,[7]総合B!$O$34:$Q$36,[7]総合B!$O$39:$Q$40,[7]総合B!$O$43:$Q$43,[7]総合B!$S$10:$U$13,[7]総合B!$S$15:$U$18,[7]総合B!$S$20:$U$22,[7]総合B!$S$25:$U$28,[7]総合B!$S$31:$U$32,[7]総合B!$S$34:$U$36,[7]総合B!$S$39:$U$40,[7]総合B!$S$43:$U$43</definedName>
+    <definedName name="___DEL3">[7]総合B!$W$10:$Y$13,[7]総合B!$W$15:$Y$18,[7]総合B!$W$20:$Y$22,[7]総合B!$W$25:$Y$28,[7]総合B!$W$31:$Y$32,[7]総合B!$W$34:$Y$36,[7]総合B!$W$39:$Y$40,[7]総合B!$W$43:$Y$43,[7]総合B!$AA$10:$AC$13,[7]総合B!$AA$15:$AC$18,[7]総合B!$AA$20:$AC$22,[7]総合B!$AA$25:$AC$28,[7]総合B!$AA$31:$AC$32,[7]総合B!$AA$34:$AC$36,[7]総合B!$AA$39:$AC$40,[7]総合B!$AA$43:$AC$43</definedName>
+    <definedName name="___DEL4">[6]総合B!$AE$10:$AG$13,[6]総合B!$AE$15:$AG$18,[6]総合B!$AE$20:$AG$22,[6]総合B!$AE$25:$AG$28,[6]総合B!$AE$31:$AG$32,[6]総合B!$AE$34:$AG$36,[6]総合B!$AE$39:$AG$40,[6]総合B!$AE$43:$AG$43,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!</definedName>
+    <definedName name="___dne１">[4]result!#REF!</definedName>
+    <definedName name="___inj1">[5]result!#REF!</definedName>
+    <definedName name="___inj2">[5]result!#REF!</definedName>
+    <definedName name="___inj3">[5]result!#REF!</definedName>
     <definedName name="___q1">#REF!</definedName>
-    <definedName name="__123Graph_A" hidden="1">[10]LA4TIME!$D$5:$D$1376</definedName>
-    <definedName name="__123Graph_A1_5ｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$5:$D$509</definedName>
-    <definedName name="__123Graph_A10ｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$732:$D$770</definedName>
-    <definedName name="__123Graph_A11ｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$771:$D$961</definedName>
-    <definedName name="__123Graph_A12ｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$962:$D$1027</definedName>
-    <definedName name="__123Graph_A13ｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$1028:$D$1104</definedName>
-    <definedName name="__123Graph_A14ｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$1105:$D$1157</definedName>
-    <definedName name="__123Graph_A15ｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$1158:$D$1191</definedName>
-    <definedName name="__123Graph_A16ｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$1192:$D$1248</definedName>
-    <definedName name="__123Graph_A17ｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$1249:$D$1317</definedName>
-    <definedName name="__123Graph_A18ｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$1317:$D$1376</definedName>
-    <definedName name="__123Graph_A1ｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$5:$D$129</definedName>
-    <definedName name="__123Graph_A2ｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$130:$D$337</definedName>
-    <definedName name="__123Graph_A3ｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$338:$D$401</definedName>
-    <definedName name="__123Graph_A4ｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$402:$D$433</definedName>
-    <definedName name="__123Graph_A5ｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$434:$D$509</definedName>
-    <definedName name="__123Graph_A6ｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$510:$D$556</definedName>
-    <definedName name="__123Graph_A7ｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$557:$D$624</definedName>
-    <definedName name="__123Graph_A8ｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$625:$D$684</definedName>
-    <definedName name="__123Graph_A9ｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$685:$D$731</definedName>
-    <definedName name="__123Graph_AB57" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_AB57A" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_AFULLｻｲｸﾙ" hidden="1">[10]LA4TIME!$D$5:$D$1376</definedName>
-    <definedName name="__123Graph_AG00A" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_AGOO" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_ARR0" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_ARR0A" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_ART2" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_ART2A" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_AT23" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_AT23A" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_A入力電圧105" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="__123Graph_A状況" hidden="1">[12]ENG油洩れ!#REF!</definedName>
-    <definedName name="__123Graph_A電圧入力" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="__123Graph_A高従比較" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="__123Graph_B" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="__123Graph_BB57" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_BGOO" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_BRR0" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_BRT2" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_BT23" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_B入力電圧105" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="__123Graph_B電圧入力" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="__123Graph_B高従比較" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="__123Graph_C" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="__123Graph_CB57" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_CGOO" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_CRR0" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_CRT2" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_CT23" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_C入力電圧105" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="__123Graph_C電圧入力" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="__123Graph_D" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_DB57" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_DGOO" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_DRR0" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_DRT2" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_DT23" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_E" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_EB57" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_EGOO" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_ERR0" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_ERT2" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_ET23" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_A" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_AB57" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_AB57A" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_AG00A" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_AGOO" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_ARR0" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_ARR0A" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_ART2" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_ART2A" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_AT23" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_AT23A" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_B" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_BB57" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_BGOO" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_BRR0" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_BRT2" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_BT23" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_C" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_CB57" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_CGOO" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_CRR0" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_CRT2" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_CT23" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_D" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_DB57" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_DGOO" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_DRR0" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_DRT2" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_DT23" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_E" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_EB57" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_EGOO" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_ERR0" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_ERT2" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_LBL_ET23" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_X" hidden="1">[10]LA4TIME!$C$5:$C$1376</definedName>
-    <definedName name="__123Graph_X1_5ｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$5:$C$509</definedName>
-    <definedName name="__123Graph_X10ｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$732:$C$770</definedName>
-    <definedName name="__123Graph_X11ｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$771:$C$961</definedName>
-    <definedName name="__123Graph_X12ｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$962:$C$1027</definedName>
-    <definedName name="__123Graph_X13ｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$1028:$C$1104</definedName>
-    <definedName name="__123Graph_X14ｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$1105:$C$1157</definedName>
-    <definedName name="__123Graph_X15ｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$1158:$C$1191</definedName>
-    <definedName name="__123Graph_X16ｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$1192:$C$1248</definedName>
-    <definedName name="__123Graph_X17ｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$1249:$C$1317</definedName>
-    <definedName name="__123Graph_X18ｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$1317:$C$1376</definedName>
-    <definedName name="__123Graph_X1ｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$5:$C$129</definedName>
-    <definedName name="__123Graph_X2ｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$130:$C$337</definedName>
-    <definedName name="__123Graph_X3ｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$338:$C$401</definedName>
-    <definedName name="__123Graph_X4ｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$402:$C$433</definedName>
-    <definedName name="__123Graph_X5ｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$434:$C$509</definedName>
-    <definedName name="__123Graph_X6ｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$510:$C$556</definedName>
-    <definedName name="__123Graph_X7ｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$557:$C$624</definedName>
-    <definedName name="__123Graph_X8ｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$625:$C$684</definedName>
-    <definedName name="__123Graph_X9ｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$685:$C$731</definedName>
-    <definedName name="__123Graph_XB57" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_XB57A" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_XFULLｻｲｸﾙ" hidden="1">[10]LA4TIME!$C$5:$C$1376</definedName>
-    <definedName name="__123Graph_XG00A" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_XGOO" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_XRR0" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_XRR0A" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_XRT2" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_XRT2A" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_XT23" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_XT23A" hidden="1">[11]班部番別!#REF!</definedName>
-    <definedName name="__123Graph_X状況" hidden="1">[12]ENG油洩れ!#REF!</definedName>
-    <definedName name="__123Graph_X高従比較" hidden="1">[10]VCCWT!#REF!</definedName>
+    <definedName name="__123Graph_A" hidden="1">[9]LA4TIME!$D$5:$D$1376</definedName>
+    <definedName name="__123Graph_A1_5ｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$5:$D$509</definedName>
+    <definedName name="__123Graph_A10ｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$732:$D$770</definedName>
+    <definedName name="__123Graph_A11ｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$771:$D$961</definedName>
+    <definedName name="__123Graph_A12ｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$962:$D$1027</definedName>
+    <definedName name="__123Graph_A13ｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$1028:$D$1104</definedName>
+    <definedName name="__123Graph_A14ｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$1105:$D$1157</definedName>
+    <definedName name="__123Graph_A15ｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$1158:$D$1191</definedName>
+    <definedName name="__123Graph_A16ｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$1192:$D$1248</definedName>
+    <definedName name="__123Graph_A17ｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$1249:$D$1317</definedName>
+    <definedName name="__123Graph_A18ｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$1317:$D$1376</definedName>
+    <definedName name="__123Graph_A1ｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$5:$D$129</definedName>
+    <definedName name="__123Graph_A2ｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$130:$D$337</definedName>
+    <definedName name="__123Graph_A3ｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$338:$D$401</definedName>
+    <definedName name="__123Graph_A4ｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$402:$D$433</definedName>
+    <definedName name="__123Graph_A5ｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$434:$D$509</definedName>
+    <definedName name="__123Graph_A6ｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$510:$D$556</definedName>
+    <definedName name="__123Graph_A7ｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$557:$D$624</definedName>
+    <definedName name="__123Graph_A8ｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$625:$D$684</definedName>
+    <definedName name="__123Graph_A9ｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$685:$D$731</definedName>
+    <definedName name="__123Graph_AB57" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_AB57A" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_AFULLｻｲｸﾙ" hidden="1">[9]LA4TIME!$D$5:$D$1376</definedName>
+    <definedName name="__123Graph_AG00A" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_AGOO" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_ARR0" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_ARR0A" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_ART2" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_ART2A" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_AT23" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_AT23A" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_A入力電圧105" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="__123Graph_A状況" hidden="1">[11]ENG油洩れ!#REF!</definedName>
+    <definedName name="__123Graph_A電圧入力" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="__123Graph_A高従比較" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="__123Graph_B" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="__123Graph_BB57" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_BGOO" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_BRR0" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_BRT2" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_BT23" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_B入力電圧105" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="__123Graph_B電圧入力" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="__123Graph_B高従比較" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="__123Graph_C" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="__123Graph_CB57" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_CGOO" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_CRR0" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_CRT2" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_CT23" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_C入力電圧105" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="__123Graph_C電圧入力" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="__123Graph_D" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_DB57" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_DGOO" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_DRR0" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_DRT2" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_DT23" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_E" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_EB57" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_EGOO" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_ERR0" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_ERT2" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_ET23" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_A" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_AB57" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_AB57A" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_AG00A" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_AGOO" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_ARR0" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_ARR0A" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_ART2" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_ART2A" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_AT23" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_AT23A" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_B" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_BB57" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_BGOO" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_BRR0" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_BRT2" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_BT23" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_C" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_CB57" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_CGOO" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_CRR0" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_CRT2" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_CT23" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_D" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_DB57" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_DGOO" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_DRR0" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_DRT2" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_DT23" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_E" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_EB57" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_EGOO" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_ERR0" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_ERT2" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_LBL_ET23" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_X" hidden="1">[9]LA4TIME!$C$5:$C$1376</definedName>
+    <definedName name="__123Graph_X1_5ｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$5:$C$509</definedName>
+    <definedName name="__123Graph_X10ｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$732:$C$770</definedName>
+    <definedName name="__123Graph_X11ｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$771:$C$961</definedName>
+    <definedName name="__123Graph_X12ｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$962:$C$1027</definedName>
+    <definedName name="__123Graph_X13ｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$1028:$C$1104</definedName>
+    <definedName name="__123Graph_X14ｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$1105:$C$1157</definedName>
+    <definedName name="__123Graph_X15ｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$1158:$C$1191</definedName>
+    <definedName name="__123Graph_X16ｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$1192:$C$1248</definedName>
+    <definedName name="__123Graph_X17ｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$1249:$C$1317</definedName>
+    <definedName name="__123Graph_X18ｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$1317:$C$1376</definedName>
+    <definedName name="__123Graph_X1ｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$5:$C$129</definedName>
+    <definedName name="__123Graph_X2ｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$130:$C$337</definedName>
+    <definedName name="__123Graph_X3ｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$338:$C$401</definedName>
+    <definedName name="__123Graph_X4ｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$402:$C$433</definedName>
+    <definedName name="__123Graph_X5ｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$434:$C$509</definedName>
+    <definedName name="__123Graph_X6ｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$510:$C$556</definedName>
+    <definedName name="__123Graph_X7ｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$557:$C$624</definedName>
+    <definedName name="__123Graph_X8ｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$625:$C$684</definedName>
+    <definedName name="__123Graph_X9ｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$685:$C$731</definedName>
+    <definedName name="__123Graph_XB57" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_XB57A" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_XFULLｻｲｸﾙ" hidden="1">[9]LA4TIME!$C$5:$C$1376</definedName>
+    <definedName name="__123Graph_XG00A" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_XGOO" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_XRR0" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_XRR0A" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_XRT2" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_XRT2A" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_XT23" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_XT23A" hidden="1">[10]班部番別!#REF!</definedName>
+    <definedName name="__123Graph_X状況" hidden="1">[11]ENG油洩れ!#REF!</definedName>
+    <definedName name="__123Graph_X高従比較" hidden="1">[9]VCCWT!#REF!</definedName>
     <definedName name="__1A2_">#REF!</definedName>
     <definedName name="__2B1_">#REF!</definedName>
     <definedName name="__A2">#REF!</definedName>
     <definedName name="__A3">#REF!</definedName>
     <definedName name="__B1">#REF!</definedName>
     <definedName name="__B4">#REF!</definedName>
-    <definedName name="__D315">[9]DataList!#REF!</definedName>
-    <definedName name="__DEL1">[13]総合B!$G$10:$I$13,[13]総合B!$G$15:$I$18,[13]総合B!$G$20:$I$22,[13]総合B!$G$25:$I$28,[13]総合B!$G$31:$I$32,[13]総合B!$G$34:$I$36,[13]総合B!$G$39:$I$40,[13]総合B!$G$43:$I$43,[13]総合B!$K$10:$M$13,[13]総合B!$K$15:$M$18,[13]総合B!$K$20:$M$22,[13]総合B!$K$25:$M$28,[13]総合B!$K$31:$M$32,[13]総合B!$K$34:$M$36,[13]総合B!$K$39:$M$40,[13]総合B!$K$43:$M$43</definedName>
-    <definedName name="__DEL2">[13]総合B!$O$10:$Q$13,[13]総合B!$O$15:$Q$18,[13]総合B!$O$20:$Q$22,[13]総合B!$O$25:$Q$28,[13]総合B!$O$31:$Q$32,[13]総合B!$O$34:$Q$36,[13]総合B!$O$39:$Q$40,[13]総合B!$O$43:$Q$43,[13]総合B!$S$10:$U$13,[13]総合B!$S$15:$U$18,[13]総合B!$S$20:$U$22,[13]総合B!$S$25:$U$28,[13]総合B!$S$31:$U$32,[13]総合B!$S$34:$U$36,[13]総合B!$S$39:$U$40,[13]総合B!$S$43:$U$43</definedName>
-    <definedName name="__DEL3">[13]総合B!$W$10:$Y$13,[13]総合B!$W$15:$Y$18,[13]総合B!$W$20:$Y$22,[13]総合B!$W$25:$Y$28,[13]総合B!$W$31:$Y$32,[13]総合B!$W$34:$Y$36,[13]総合B!$W$39:$Y$40,[13]総合B!$W$43:$Y$43,[13]総合B!$AA$10:$AC$13,[13]総合B!$AA$15:$AC$18,[13]総合B!$AA$20:$AC$22,[13]総合B!$AA$25:$AC$28,[13]総合B!$AA$31:$AC$32,[13]総合B!$AA$34:$AC$36,[13]総合B!$AA$39:$AC$40,[13]総合B!$AA$43:$AC$43</definedName>
-    <definedName name="__DEL4">[13]総合B!$AE$10:$AG$13,[13]総合B!$AE$15:$AG$18,[13]総合B!$AE$20:$AG$22,[13]総合B!$AE$25:$AG$28,[13]総合B!$AE$31:$AG$32,[13]総合B!$AE$34:$AG$36,[13]総合B!$AE$39:$AG$40,[13]総合B!$AE$43:$AG$43,[13]総合B!#REF!,[13]総合B!#REF!,[13]総合B!#REF!,[13]総合B!#REF!,[13]総合B!#REF!,[13]総合B!#REF!,[13]総合B!#REF!,[13]総合B!#REF!</definedName>
-    <definedName name="__dne１">[5]result!#REF!</definedName>
-    <definedName name="__inj1">[6]result!#REF!</definedName>
-    <definedName name="__inj2">[6]result!#REF!</definedName>
-    <definedName name="__inj3">[6]result!#REF!</definedName>
+    <definedName name="__D315">[8]DataList!#REF!</definedName>
+    <definedName name="__DEL1">[12]総合B!$G$10:$I$13,[12]総合B!$G$15:$I$18,[12]総合B!$G$20:$I$22,[12]総合B!$G$25:$I$28,[12]総合B!$G$31:$I$32,[12]総合B!$G$34:$I$36,[12]総合B!$G$39:$I$40,[12]総合B!$G$43:$I$43,[12]総合B!$K$10:$M$13,[12]総合B!$K$15:$M$18,[12]総合B!$K$20:$M$22,[12]総合B!$K$25:$M$28,[12]総合B!$K$31:$M$32,[12]総合B!$K$34:$M$36,[12]総合B!$K$39:$M$40,[12]総合B!$K$43:$M$43</definedName>
+    <definedName name="__DEL2">[12]総合B!$O$10:$Q$13,[12]総合B!$O$15:$Q$18,[12]総合B!$O$20:$Q$22,[12]総合B!$O$25:$Q$28,[12]総合B!$O$31:$Q$32,[12]総合B!$O$34:$Q$36,[12]総合B!$O$39:$Q$40,[12]総合B!$O$43:$Q$43,[12]総合B!$S$10:$U$13,[12]総合B!$S$15:$U$18,[12]総合B!$S$20:$U$22,[12]総合B!$S$25:$U$28,[12]総合B!$S$31:$U$32,[12]総合B!$S$34:$U$36,[12]総合B!$S$39:$U$40,[12]総合B!$S$43:$U$43</definedName>
+    <definedName name="__DEL3">[12]総合B!$W$10:$Y$13,[12]総合B!$W$15:$Y$18,[12]総合B!$W$20:$Y$22,[12]総合B!$W$25:$Y$28,[12]総合B!$W$31:$Y$32,[12]総合B!$W$34:$Y$36,[12]総合B!$W$39:$Y$40,[12]総合B!$W$43:$Y$43,[12]総合B!$AA$10:$AC$13,[12]総合B!$AA$15:$AC$18,[12]総合B!$AA$20:$AC$22,[12]総合B!$AA$25:$AC$28,[12]総合B!$AA$31:$AC$32,[12]総合B!$AA$34:$AC$36,[12]総合B!$AA$39:$AC$40,[12]総合B!$AA$43:$AC$43</definedName>
+    <definedName name="__DEL4">[12]総合B!$AE$10:$AG$13,[12]総合B!$AE$15:$AG$18,[12]総合B!$AE$20:$AG$22,[12]総合B!$AE$25:$AG$28,[12]総合B!$AE$31:$AG$32,[12]総合B!$AE$34:$AG$36,[12]総合B!$AE$39:$AG$40,[12]総合B!$AE$43:$AG$43,[12]総合B!#REF!,[12]総合B!#REF!,[12]総合B!#REF!,[12]総合B!#REF!,[12]総合B!#REF!,[12]総合B!#REF!,[12]総合B!#REF!,[12]総合B!#REF!</definedName>
+    <definedName name="__dne１">[4]result!#REF!</definedName>
+    <definedName name="__inj1">[5]result!#REF!</definedName>
+    <definedName name="__inj2">[5]result!#REF!</definedName>
+    <definedName name="__inj3">[5]result!#REF!</definedName>
     <definedName name="__q1">#REF!</definedName>
     <definedName name="_1">#N/A</definedName>
     <definedName name="_1._Zeile">#REF!</definedName>
     <definedName name="_1._一般要件">#REF!</definedName>
     <definedName name="_1.4.ECU_Supplier_Controlled__ID620_62F">#REF!</definedName>
-    <definedName name="_1_0PRINT_AREA">'[10]76極'!#REF!</definedName>
-    <definedName name="_1_10tﾏｸﾛ__2__.truck10t登録実績">[14]P1_cover!_1_10tﾏｸﾛ__2__.truck10t登録実績</definedName>
+    <definedName name="_1_0PRINT_AREA">'[9]76極'!#REF!</definedName>
+    <definedName name="_1_10tﾏｸﾛ__2__.truck10t登録実績">[13]P1_cover!_1_10tﾏｸﾛ__2__.truck10t登録実績</definedName>
     <definedName name="_1_5">#N/A</definedName>
     <definedName name="_10__123Graph_Aｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
     <definedName name="_10_10tﾏｸﾛ__2__.truck10t登録実績">#N/A</definedName>
-    <definedName name="_10_123Graph_A高従" hidden="1">[10]VCCWT!#REF!</definedName>
+    <definedName name="_10_123Graph_A高従" hidden="1">[9]VCCWT!#REF!</definedName>
     <definedName name="_100UBSﾏｸﾛ__.truckUBS登録実績">#N/A</definedName>
     <definedName name="_101UBSﾏｸﾛ__.truckUBS登録実績">#N/A</definedName>
-    <definedName name="_102UBSﾏｸﾛ__.truckUBS登録実績">[14]P1_cover!_102UBSﾏｸﾛ__.truckUBS登録実績</definedName>
+    <definedName name="_102UBSﾏｸﾛ__.truckUBS登録実績">[13]P1_cover!_102UBSﾏｸﾛ__.truckUBS登録実績</definedName>
     <definedName name="_103UBSﾏｸﾛ__.truckUBS登録実績">#N/A</definedName>
     <definedName name="_104B1_">#REF!</definedName>
-    <definedName name="_104UBSﾏｸﾛ__.truckUBS登録実績">[14]!_104UBSﾏｸﾛ__.truckUBS登録実績</definedName>
+    <definedName name="_104UBSﾏｸﾛ__.truckUBS登録実績">[13]!_104UBSﾏｸﾛ__.truckUBS登録実績</definedName>
     <definedName name="_105UBSﾏｸﾛ__.truckUBS登録実績">#N/A</definedName>
-    <definedName name="_106UBSﾏｸﾛ__.truckUBS登録実績">'[15]P2_Revision '!_106UBSﾏｸﾛ__.truckUBS登録実績</definedName>
+    <definedName name="_106UBSﾏｸﾛ__.truckUBS登録実績">'[14]P2_Revision '!_106UBSﾏｸﾛ__.truckUBS登録実績</definedName>
     <definedName name="_107UBSﾏｸﾛ__.truckUBS登録実績">#N/A</definedName>
     <definedName name="_108UBSﾏｸﾛ__.truckUBS登録実績">#N/A</definedName>
-    <definedName name="_109UBSﾏｸﾛ__.truckUBS登録実績">[14]P1_cover!_109UBSﾏｸﾛ__.truckUBS登録実績</definedName>
-    <definedName name="_11__123Graph_Aｸﾞﾗﾌ_3" hidden="1">[16]A!$C$68:$C$75</definedName>
-    <definedName name="_11_10tﾏｸﾛ__2__.truck10t登録実績">[14]P1_cover!_11_10tﾏｸﾛ__2__.truck10t登録実績</definedName>
-    <definedName name="_11_123Graph_A電圧" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_110UBSﾏｸﾛ__.truckUBS登録実績">[14]P1_cover!_110UBSﾏｸﾛ__.truckUBS登録実績</definedName>
-    <definedName name="_111UBSﾏｸﾛ__.truckUBS登録実績">[14]P1_cover!_111UBSﾏｸﾛ__.truckUBS登録実績</definedName>
-    <definedName name="_112UBSﾏｸﾛ__.truckUBS登録実績">[14]P1_cover!_112UBSﾏｸﾛ__.truckUBS登録実績</definedName>
-    <definedName name="_113UBSﾏｸﾛ_2__.truckUBS登録実績">[14]P1_cover!_113UBSﾏｸﾛ_2__.truckUBS登録実績</definedName>
+    <definedName name="_109UBSﾏｸﾛ__.truckUBS登録実績">[13]P1_cover!_109UBSﾏｸﾛ__.truckUBS登録実績</definedName>
+    <definedName name="_11__123Graph_Aｸﾞﾗﾌ_3" hidden="1">[15]A!$C$68:$C$75</definedName>
+    <definedName name="_11_10tﾏｸﾛ__2__.truck10t登録実績">[13]P1_cover!_11_10tﾏｸﾛ__2__.truck10t登録実績</definedName>
+    <definedName name="_11_123Graph_A電圧" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_110UBSﾏｸﾛ__.truckUBS登録実績">[13]P1_cover!_110UBSﾏｸﾛ__.truckUBS登録実績</definedName>
+    <definedName name="_111UBSﾏｸﾛ__.truckUBS登録実績">[13]P1_cover!_111UBSﾏｸﾛ__.truckUBS登録実績</definedName>
+    <definedName name="_112UBSﾏｸﾛ__.truckUBS登録実績">[13]P1_cover!_112UBSﾏｸﾛ__.truckUBS登録実績</definedName>
+    <definedName name="_113UBSﾏｸﾛ_2__.truckUBS登録実績">[13]P1_cover!_113UBSﾏｸﾛ_2__.truckUBS登録実績</definedName>
     <definedName name="_114UBSﾏｸﾛ_2__.truckUBS登録実績">#N/A</definedName>
     <definedName name="_115UBSﾏｸﾛ_2__.truckUBS登録実績">#N/A</definedName>
-    <definedName name="_116UBSﾏｸﾛ_2__.truckUBS登録実績">[14]P1_cover!_116UBSﾏｸﾛ_2__.truckUBS登録実績</definedName>
+    <definedName name="_116UBSﾏｸﾛ_2__.truckUBS登録実績">[13]P1_cover!_116UBSﾏｸﾛ_2__.truckUBS登録実績</definedName>
     <definedName name="_117UBSﾏｸﾛ_2__.truckUBS登録実績">#N/A</definedName>
-    <definedName name="_118UBSﾏｸﾛ_2__.truckUBS登録実績">[14]!_118UBSﾏｸﾛ_2__.truckUBS登録実績</definedName>
+    <definedName name="_118UBSﾏｸﾛ_2__.truckUBS登録実績">[13]!_118UBSﾏｸﾛ_2__.truckUBS登録実績</definedName>
     <definedName name="_119UBSﾏｸﾛ_2__.truckUBS登録実績">#N/A</definedName>
-    <definedName name="_12_10tﾏｸﾛ__2__.truck10t登録実績">[14]P1_cover!_12_10tﾏｸﾛ__2__.truck10t登録実績</definedName>
-    <definedName name="_12_123Graph_A入力電圧" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_12_123Graph_A高従" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_120UBSﾏｸﾛ_2__.truckUBS登録実績">'[15]P2_Revision '!_120UBSﾏｸﾛ_2__.truckUBS登録実績</definedName>
+    <definedName name="_12_10tﾏｸﾛ__2__.truck10t登録実績">[13]P1_cover!_12_10tﾏｸﾛ__2__.truck10t登録実績</definedName>
+    <definedName name="_12_123Graph_A入力電圧" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_12_123Graph_A高従" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_120UBSﾏｸﾛ_2__.truckUBS登録実績">'[14]P2_Revision '!_120UBSﾏｸﾛ_2__.truckUBS登録実績</definedName>
     <definedName name="_121UBSﾏｸﾛ_2__.truckUBS登録実績">#N/A</definedName>
     <definedName name="_122UBSﾏｸﾛ_2__.truckUBS登録実績">#N/A</definedName>
-    <definedName name="_123UBSﾏｸﾛ_2__.truckUBS登録実績">[14]P1_cover!_123UBSﾏｸﾛ_2__.truckUBS登録実績</definedName>
-    <definedName name="_124UBSﾏｸﾛ_2__.truckUBS登録実績">[14]P1_cover!_124UBSﾏｸﾛ_2__.truckUBS登録実績</definedName>
-    <definedName name="_125UBSﾏｸﾛ_2__.truckUBS登録実績">[14]P1_cover!_125UBSﾏｸﾛ_2__.truckUBS登録実績</definedName>
-    <definedName name="_126UBSﾏｸﾛ_2__.truckUBS登録実績">[14]P1_cover!_126UBSﾏｸﾛ_2__.truckUBS登録実績</definedName>
-    <definedName name="_127UCSﾏｸﾛ_2__.truckUCS登録実績">[14]P1_cover!_127UCSﾏｸﾛ_2__.truckUCS登録実績</definedName>
+    <definedName name="_123UBSﾏｸﾛ_2__.truckUBS登録実績">[13]P1_cover!_123UBSﾏｸﾛ_2__.truckUBS登録実績</definedName>
+    <definedName name="_124UBSﾏｸﾛ_2__.truckUBS登録実績">[13]P1_cover!_124UBSﾏｸﾛ_2__.truckUBS登録実績</definedName>
+    <definedName name="_125UBSﾏｸﾛ_2__.truckUBS登録実績">[13]P1_cover!_125UBSﾏｸﾛ_2__.truckUBS登録実績</definedName>
+    <definedName name="_126UBSﾏｸﾛ_2__.truckUBS登録実績">[13]P1_cover!_126UBSﾏｸﾛ_2__.truckUBS登録実績</definedName>
+    <definedName name="_127UCSﾏｸﾛ_2__.truckUCS登録実績">[13]P1_cover!_127UCSﾏｸﾛ_2__.truckUCS登録実績</definedName>
     <definedName name="_128UCSﾏｸﾛ_2__.truckUCS登録実績">#N/A</definedName>
     <definedName name="_129UCSﾏｸﾛ_2__.truckUCS登録実績">#N/A</definedName>
     <definedName name="_13__123Graph_Bｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
-    <definedName name="_13_10tﾏｸﾛ__2__.truck10t登録実績">[14]P1_cover!_13_10tﾏｸﾛ__2__.truck10t登録実績</definedName>
-    <definedName name="_13_123Graph_A電圧" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_130UCSﾏｸﾛ_2__.truckUCS登録実績">[14]P1_cover!_130UCSﾏｸﾛ_2__.truckUCS登録実績</definedName>
+    <definedName name="_13_10tﾏｸﾛ__2__.truck10t登録実績">[13]P1_cover!_13_10tﾏｸﾛ__2__.truck10t登録実績</definedName>
+    <definedName name="_13_123Graph_A電圧" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_130UCSﾏｸﾛ_2__.truckUCS登録実績">[13]P1_cover!_130UCSﾏｸﾛ_2__.truckUCS登録実績</definedName>
     <definedName name="_131UCSﾏｸﾛ_2__.truckUCS登録実績">#N/A</definedName>
-    <definedName name="_132UCSﾏｸﾛ_2__.truckUCS登録実績">[14]!_132UCSﾏｸﾛ_2__.truckUCS登録実績</definedName>
+    <definedName name="_132UCSﾏｸﾛ_2__.truckUCS登録実績">[13]!_132UCSﾏｸﾛ_2__.truckUCS登録実績</definedName>
     <definedName name="_133UCSﾏｸﾛ_2__.truckUCS登録実績">#N/A</definedName>
-    <definedName name="_134UCSﾏｸﾛ_2__.truckUCS登録実績">'[15]P2_Revision '!_134UCSﾏｸﾛ_2__.truckUCS登録実績</definedName>
+    <definedName name="_134UCSﾏｸﾛ_2__.truckUCS登録実績">'[14]P2_Revision '!_134UCSﾏｸﾛ_2__.truckUCS登録実績</definedName>
     <definedName name="_135UCSﾏｸﾛ_2__.truckUCS登録実績">#N/A</definedName>
     <definedName name="_136UCSﾏｸﾛ_2__.truckUCS登録実績">#N/A</definedName>
-    <definedName name="_137UCSﾏｸﾛ_2__.truckUCS登録実績">[14]P1_cover!_137UCSﾏｸﾛ_2__.truckUCS登録実績</definedName>
-    <definedName name="_138UCSﾏｸﾛ_2__.truckUCS登録実績">[14]P1_cover!_138UCSﾏｸﾛ_2__.truckUCS登録実績</definedName>
-    <definedName name="_139UCSﾏｸﾛ_2__.truckUCS登録実績">[14]P1_cover!_139UCSﾏｸﾛ_2__.truckUCS登録実績</definedName>
-    <definedName name="_14__123Graph_Bｸﾞﾗﾌ_3" hidden="1">[16]A!$D$68:$D$75</definedName>
-    <definedName name="_14_10tﾏｸﾛ__2__.truck10t登録実績">[14]P1_cover!_14_10tﾏｸﾛ__2__.truck10t登録実績</definedName>
-    <definedName name="_14_123Graph_A入力電圧" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_140UCSﾏｸﾛ_2__.truckUCS登録実績">[14]P1_cover!_140UCSﾏｸﾛ_2__.truckUCS登録実績</definedName>
-    <definedName name="_141ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">[14]P1_cover!_141ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績</definedName>
+    <definedName name="_137UCSﾏｸﾛ_2__.truckUCS登録実績">[13]P1_cover!_137UCSﾏｸﾛ_2__.truckUCS登録実績</definedName>
+    <definedName name="_138UCSﾏｸﾛ_2__.truckUCS登録実績">[13]P1_cover!_138UCSﾏｸﾛ_2__.truckUCS登録実績</definedName>
+    <definedName name="_139UCSﾏｸﾛ_2__.truckUCS登録実績">[13]P1_cover!_139UCSﾏｸﾛ_2__.truckUCS登録実績</definedName>
+    <definedName name="_14__123Graph_Bｸﾞﾗﾌ_3" hidden="1">[15]A!$D$68:$D$75</definedName>
+    <definedName name="_14_10tﾏｸﾛ__2__.truck10t登録実績">[13]P1_cover!_14_10tﾏｸﾛ__2__.truck10t登録実績</definedName>
+    <definedName name="_14_123Graph_A入力電圧" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_140UCSﾏｸﾛ_2__.truckUCS登録実績">[13]P1_cover!_140UCSﾏｸﾛ_2__.truckUCS登録実績</definedName>
+    <definedName name="_141ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">[13]P1_cover!_141ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績</definedName>
     <definedName name="_142ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">#N/A</definedName>
     <definedName name="_143ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">#N/A</definedName>
-    <definedName name="_144ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">[14]P1_cover!_144ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績</definedName>
+    <definedName name="_144ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">[13]P1_cover!_144ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績</definedName>
     <definedName name="_145ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">#N/A</definedName>
-    <definedName name="_146ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">[14]!_146ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績</definedName>
+    <definedName name="_146ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">[13]!_146ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績</definedName>
     <definedName name="_147ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">#N/A</definedName>
-    <definedName name="_148ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">'[15]P2_Revision '!_148ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績</definedName>
+    <definedName name="_148ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">'[14]P2_Revision '!_148ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績</definedName>
     <definedName name="_149ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">#N/A</definedName>
     <definedName name="_14B1_">#REF!</definedName>
     <definedName name="_15__123Graph_Bｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
-    <definedName name="_15_123Graph_B高従" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_15_12tﾏｸﾛ__2__.truck12T登録実績">[14]P1_cover!_15_12tﾏｸﾛ__2__.truck12T登録実績</definedName>
+    <definedName name="_15_123Graph_B高従" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_15_12tﾏｸﾛ__2__.truck12T登録実績">[13]P1_cover!_15_12tﾏｸﾛ__2__.truck12T登録実績</definedName>
     <definedName name="_150ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">#N/A</definedName>
-    <definedName name="_151ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">[14]P1_cover!_151ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績</definedName>
-    <definedName name="_152ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">[14]P1_cover!_152ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績</definedName>
-    <definedName name="_153ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">[14]P1_cover!_153ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績</definedName>
-    <definedName name="_154ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">[14]P1_cover!_154ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績</definedName>
+    <definedName name="_151ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">[13]P1_cover!_151ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績</definedName>
+    <definedName name="_152ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">[13]P1_cover!_152ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績</definedName>
+    <definedName name="_153ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">[13]P1_cover!_153ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績</definedName>
+    <definedName name="_154ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績">[13]P1_cover!_154ﾄﾗｸﾀﾏｸﾛ__2__.TRACTOR登録実績</definedName>
     <definedName name="_155__123Graph_A????_3" hidden="1">#REF!</definedName>
     <definedName name="_158__123Graph_AV_CRANK" hidden="1">#REF!</definedName>
-    <definedName name="_16__123Graph_Bｸﾞﾗﾌ_3" hidden="1">[16]A!$D$68:$D$75</definedName>
-    <definedName name="_16_123Graph_B電圧" hidden="1">[10]VCCWT!#REF!</definedName>
+    <definedName name="_16__123Graph_Bｸﾞﾗﾌ_3" hidden="1">[15]A!$D$68:$D$75</definedName>
+    <definedName name="_16_123Graph_B電圧" hidden="1">[9]VCCWT!#REF!</definedName>
     <definedName name="_16_12tﾏｸﾛ__2__.truck12T登録実績">#N/A</definedName>
     <definedName name="_161__123Graph_Aｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
     <definedName name="_164__123Graph_Aｸﾞﾗﾌ_2" hidden="1">#REF!</definedName>
-    <definedName name="_17_123Graph_B入力電圧" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_17_123Graph_B高従" hidden="1">[10]VCCWT!#REF!</definedName>
+    <definedName name="_17_123Graph_B入力電圧" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_17_123Graph_B高従" hidden="1">[9]VCCWT!#REF!</definedName>
     <definedName name="_17_12tﾏｸﾛ__2__.truck12T登録実績">#N/A</definedName>
     <definedName name="_170__123Graph_Aｸﾞﾗﾌ_3" hidden="1">#REF!</definedName>
     <definedName name="_171__123Graph_B????_3" hidden="1">#REF!</definedName>
     <definedName name="_174__123Graph_BV_CRANK" hidden="1">#REF!</definedName>
     <definedName name="_177__123Graph_Bｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
-    <definedName name="_18_123Graph_B電圧" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_18_123Graph_C電圧" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_18_12tﾏｸﾛ__2__.truck12T登録実績">[14]P1_cover!_18_12tﾏｸﾛ__2__.truck12T登録実績</definedName>
+    <definedName name="_18_123Graph_B電圧" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_18_123Graph_C電圧" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_18_12tﾏｸﾛ__2__.truck12T登録実績">[13]P1_cover!_18_12tﾏｸﾛ__2__.truck12T登録実績</definedName>
     <definedName name="_180__123Graph_Bｸﾞﾗﾌ_2" hidden="1">#REF!</definedName>
     <definedName name="_186__123Graph_Bｸﾞﾗﾌ_3" hidden="1">#REF!</definedName>
     <definedName name="_187__123Graph_C????_3" hidden="1">#REF!</definedName>
-    <definedName name="_19_123Graph_B入力電圧" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_19_123Graph_C入力電圧" hidden="1">[10]VCCWT!#REF!</definedName>
+    <definedName name="_19_123Graph_B入力電圧" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_19_123Graph_C入力電圧" hidden="1">[9]VCCWT!#REF!</definedName>
     <definedName name="_19_12tﾏｸﾛ__2__.truck12T登録実績">#N/A</definedName>
     <definedName name="_190__123Graph_Cｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
     <definedName name="_193__123Graph_Cｸﾞﾗﾌ_2" hidden="1">#REF!</definedName>
     <definedName name="_199__123Graph_Cｸﾞﾗﾌ_3" hidden="1">#REF!</definedName>
     <definedName name="_1A2_">#REF!</definedName>
-    <definedName name="_1Datab">[17]目次!#REF!</definedName>
+    <definedName name="_1Datab">[16]目次!#REF!</definedName>
     <definedName name="_1段階">#N/A</definedName>
-    <definedName name="_2">'[18]#REF'!#REF!</definedName>
+    <definedName name="_2">'[17]#REF'!#REF!</definedName>
     <definedName name="_2._Zeile">#REF!</definedName>
-    <definedName name="_2_0PRINT_AREA">'[10]76極'!#REF!</definedName>
+    <definedName name="_2_0PRINT_AREA">'[9]76極'!#REF!</definedName>
     <definedName name="_2_10tﾏｸﾛ__2__.truck10t登録実績">#N/A</definedName>
     <definedName name="_20__123Graph_Xｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
-    <definedName name="_20_123Graph_C電圧" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_20_12tﾏｸﾛ__2__.truck12T登録実績">[14]!_20_12tﾏｸﾛ__2__.truck12T登録実績</definedName>
+    <definedName name="_20_123Graph_C電圧" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_20_12tﾏｸﾛ__2__.truck12T登録実績">[13]!_20_12tﾏｸﾛ__2__.truck12T登録実績</definedName>
     <definedName name="_200__123Graph_D????_3" hidden="1">#REF!</definedName>
     <definedName name="_203__123Graph_Dｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
     <definedName name="_206__123Graph_Dｸﾞﾗﾌ_2" hidden="1">#REF!</definedName>
-    <definedName name="_21__123Graph_Xｸﾞﾗﾌ_3" hidden="1">[16]A!$B$68:$B$75</definedName>
-    <definedName name="_21_123Graph_C入力電圧" hidden="1">[10]VCCWT!#REF!</definedName>
+    <definedName name="_21__123Graph_Xｸﾞﾗﾌ_3" hidden="1">[15]A!$B$68:$B$75</definedName>
+    <definedName name="_21_123Graph_C入力電圧" hidden="1">[9]VCCWT!#REF!</definedName>
     <definedName name="_21_12tﾏｸﾛ__2__.truck12T登録実績">#N/A</definedName>
     <definedName name="_212__123Graph_Dｸﾞﾗﾌ_3" hidden="1">#REF!</definedName>
     <definedName name="_213__123Graph_E????_3" hidden="1">#REF!</definedName>
     <definedName name="_216__123Graph_Eｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
     <definedName name="_219__123Graph_Eｸﾞﾗﾌ_2" hidden="1">#REF!</definedName>
     <definedName name="_22__123Graph_Xｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
-    <definedName name="_22_0__123Grap" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_22_12tﾏｸﾛ__2__.truck12T登録実績">'[15]P2_Revision '!_22_12tﾏｸﾛ__2__.truck12T登録実績</definedName>
+    <definedName name="_22_0__123Grap" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_22_12tﾏｸﾛ__2__.truck12T登録実績">'[14]P2_Revision '!_22_12tﾏｸﾛ__2__.truck12T登録実績</definedName>
     <definedName name="_225__123Graph_Eｸﾞﾗﾌ_3" hidden="1">#REF!</definedName>
     <definedName name="_226__123Graph_F????_3" hidden="1">#REF!</definedName>
     <definedName name="_229__123Graph_Fｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
-    <definedName name="_23__123Graph_Xｸﾞﾗﾌ_3" hidden="1">[16]A!$B$68:$B$75</definedName>
-    <definedName name="_23_0__123Grap" hidden="1">[10]VCCWT!#REF!</definedName>
+    <definedName name="_23__123Graph_Xｸﾞﾗﾌ_3" hidden="1">[15]A!$B$68:$B$75</definedName>
+    <definedName name="_23_0__123Grap" hidden="1">[9]VCCWT!#REF!</definedName>
     <definedName name="_23_12tﾏｸﾛ__2__.truck12T登録実績">#N/A</definedName>
     <definedName name="_232__123Graph_Fｸﾞﾗﾌ_2" hidden="1">#REF!</definedName>
     <definedName name="_238__123Graph_Fｸﾞﾗﾌ_3" hidden="1">#REF!</definedName>
-    <definedName name="_24_0__123Grap" hidden="1">[10]VCCWT!#REF!</definedName>
+    <definedName name="_24_0__123Grap" hidden="1">[9]VCCWT!#REF!</definedName>
     <definedName name="_24_12tﾏｸﾛ__2__.truck12T登録実績">#N/A</definedName>
     <definedName name="_241__123Graph_LBL_AV_CRANK" hidden="1">#REF!</definedName>
     <definedName name="_244__123Graph_LBL_Aｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
     <definedName name="_247__123Graph_LBL_BV_CRANK" hidden="1">#REF!</definedName>
-    <definedName name="_25_0__123Grap" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_25_0__123Graph_A高従" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_25_12tﾏｸﾛ__2__.truck12T登録実績">[14]P1_cover!_25_12tﾏｸﾛ__2__.truck12T登録実績</definedName>
+    <definedName name="_25_0__123Grap" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_25_0__123Graph_A高従" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_25_12tﾏｸﾛ__2__.truck12T登録実績">[13]P1_cover!_25_12tﾏｸﾛ__2__.truck12T登録実績</definedName>
     <definedName name="_250__123Graph_LBL_Bｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
     <definedName name="_253__123Graph_LBL_Cｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
     <definedName name="_256__123Graph_LBL_Dｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
     <definedName name="_259__123Graph_LBL_Eｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
-    <definedName name="_26_0__123Graph_A電圧" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_26_12tﾏｸﾛ__2__.truck12T登録実績">[14]P1_cover!_26_12tﾏｸﾛ__2__.truck12T登録実績</definedName>
+    <definedName name="_26_0__123Graph_A電圧" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_26_12tﾏｸﾛ__2__.truck12T登録実績">[13]P1_cover!_26_12tﾏｸﾛ__2__.truck12T登録実績</definedName>
     <definedName name="_262__123Graph_LBL_Fｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
     <definedName name="_265__123Graph_LBL_Fｸﾞﾗﾌ_2" hidden="1">#REF!</definedName>
     <definedName name="_268__123Graph_XV_CRANK" hidden="1">#REF!</definedName>
-    <definedName name="_27_0__123Grap" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_27_0__123Graph_A入力電圧" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_27_12tﾏｸﾛ__2__.truck12T登録実績">[14]P1_cover!_27_12tﾏｸﾛ__2__.truck12T登録実績</definedName>
+    <definedName name="_27_0__123Grap" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_27_0__123Graph_A入力電圧" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_27_12tﾏｸﾛ__2__.truck12T登録実績">[13]P1_cover!_27_12tﾏｸﾛ__2__.truck12T登録実績</definedName>
     <definedName name="_271__123Graph_Xｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
     <definedName name="_274__123Graph_Xｸﾞﾗﾌ_2" hidden="1">#REF!</definedName>
-    <definedName name="_28_0__123Graph_B高従" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_28_12tﾏｸﾛ__2__.truck12T登録実績">[14]P1_cover!_28_12tﾏｸﾛ__2__.truck12T登録実績</definedName>
-    <definedName name="_29_0__123Grap" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_29_0__123Graph_B電圧" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_29_4tﾏｸﾛ__2__.truck4t登録実績">[14]P1_cover!_29_4tﾏｸﾛ__2__.truck4t登録実績</definedName>
+    <definedName name="_28_0__123Graph_B高従" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_28_12tﾏｸﾛ__2__.truck12T登録実績">[13]P1_cover!_28_12tﾏｸﾛ__2__.truck12T登録実績</definedName>
+    <definedName name="_29_0__123Grap" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_29_0__123Graph_B電圧" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_29_4tﾏｸﾛ__2__.truck4t登録実績">[13]P1_cover!_29_4tﾏｸﾛ__2__.truck4t登録実績</definedName>
     <definedName name="_2A2_">#REF!</definedName>
     <definedName name="_2B1_">#REF!</definedName>
-    <definedName name="_2PRINT_AREA">'[10]76極'!#REF!</definedName>
-    <definedName name="_3">'[18]#REF'!#REF!</definedName>
+    <definedName name="_2PRINT_AREA">'[9]76極'!#REF!</definedName>
+    <definedName name="_3">'[17]#REF'!#REF!</definedName>
     <definedName name="_3._Zeile">#REF!</definedName>
     <definedName name="_3_10tﾏｸﾛ__2__.truck10t登録実績">#N/A</definedName>
-    <definedName name="_3_123Graph_X高従" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_30_0__123Graph_B入力電圧" hidden="1">[10]VCCWT!#REF!</definedName>
+    <definedName name="_3_123Graph_X高従" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_30_0__123Graph_B入力電圧" hidden="1">[9]VCCWT!#REF!</definedName>
     <definedName name="_30_4tﾏｸﾛ__2__.truck4t登録実績">#N/A</definedName>
-    <definedName name="_31_0__123Graph_A高従" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_31_0__123Graph_C電圧" hidden="1">[10]VCCWT!#REF!</definedName>
+    <definedName name="_31_0__123Graph_A高従" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_31_0__123Graph_C電圧" hidden="1">[9]VCCWT!#REF!</definedName>
     <definedName name="_31_4tﾏｸﾛ__2__.truck4t登録実績">#N/A</definedName>
-    <definedName name="_32_0__123Graph_C入力電圧" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_32_4tﾏｸﾛ__2__.truck4t登録実績">[14]P1_cover!_32_4tﾏｸﾛ__2__.truck4t登録実績</definedName>
-    <definedName name="_33_0__123Graph_A電圧" hidden="1">[10]VCCWT!#REF!</definedName>
+    <definedName name="_32_0__123Graph_C入力電圧" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_32_4tﾏｸﾛ__2__.truck4t登録実績">[13]P1_cover!_32_4tﾏｸﾛ__2__.truck4t登録実績</definedName>
+    <definedName name="_33_0__123Graph_A電圧" hidden="1">[9]VCCWT!#REF!</definedName>
     <definedName name="_33_4tﾏｸﾛ__2__.truck4t登録実績">#N/A</definedName>
     <definedName name="_33A2_">#REF!</definedName>
     <definedName name="_33q1_">#REF!</definedName>
-    <definedName name="_34_4tﾏｸﾛ__2__.truck4t登録実績">[14]!_34_4tﾏｸﾛ__2__.truck4t登録実績</definedName>
+    <definedName name="_34_4tﾏｸﾛ__2__.truck4t登録実績">[13]!_34_4tﾏｸﾛ__2__.truck4t登録実績</definedName>
     <definedName name="_34A3_">#REF!</definedName>
-    <definedName name="_35_0__123Graph_A入力電圧" hidden="1">[10]VCCWT!#REF!</definedName>
+    <definedName name="_35_0__123Graph_A入力電圧" hidden="1">[9]VCCWT!#REF!</definedName>
     <definedName name="_35_4tﾏｸﾛ__2__.truck4t登録実績">#N/A</definedName>
     <definedName name="_35B1_">#REF!</definedName>
-    <definedName name="_36_4tﾏｸﾛ__2__.truck4t登録実績">'[15]P2_Revision '!_36_4tﾏｸﾛ__2__.truck4t登録実績</definedName>
+    <definedName name="_36_4tﾏｸﾛ__2__.truck4t登録実績">'[14]P2_Revision '!_36_4tﾏｸﾛ__2__.truck4t登録実績</definedName>
     <definedName name="_36B4_">#REF!</definedName>
-    <definedName name="_37_0__123Graph_B高従" hidden="1">[10]VCCWT!#REF!</definedName>
+    <definedName name="_37_0__123Graph_B高従" hidden="1">[9]VCCWT!#REF!</definedName>
     <definedName name="_37_4tﾏｸﾛ__2__.truck4t登録実績">#N/A</definedName>
     <definedName name="_37q1_">#REF!</definedName>
     <definedName name="_38_4tﾏｸﾛ__2__.truck4t登録実績">#N/A</definedName>
-    <definedName name="_39_0__123Graph_B電圧" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_39_4tﾏｸﾛ__2__.truck4t登録実績">[14]P1_cover!_39_4tﾏｸﾛ__2__.truck4t登録実績</definedName>
+    <definedName name="_39_0__123Graph_B電圧" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_39_4tﾏｸﾛ__2__.truck4t登録実績">[13]P1_cover!_39_4tﾏｸﾛ__2__.truck4t登録実績</definedName>
     <definedName name="_3A2_">#REF!</definedName>
+    <definedName name="_3ei1_" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
     <definedName name="_3ei1_" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
-    <definedName name="_3PRINT_AREA">'[10]76極'!#REF!</definedName>
+    <definedName name="_3PRINT_AREA">'[9]76極'!#REF!</definedName>
     <definedName name="_4">#N/A</definedName>
-    <definedName name="_4_0__123Graph_X高従" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_4_10tﾏｸﾛ__2__.truck10t登録実績">[14]P1_cover!_4_10tﾏｸﾛ__2__.truck10t登録実績</definedName>
-    <definedName name="_4_123Graph_X高従" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_40_4tﾏｸﾛ__2__.truck4t登録実績">[14]P1_cover!_40_4tﾏｸﾛ__2__.truck4t登録実績</definedName>
-    <definedName name="_41_0__123Graph_B入力電圧" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_41_4tﾏｸﾛ__2__.truck4t登録実績">[14]P1_cover!_41_4tﾏｸﾛ__2__.truck4t登録実績</definedName>
-    <definedName name="_42_4tﾏｸﾛ__2__.truck4t登録実績">[14]P1_cover!_42_4tﾏｸﾛ__2__.truck4t登録実績</definedName>
-    <definedName name="_43_0__123Graph_C電圧" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_43_6tﾏｸﾛ__2__.truck6t登録実績">[14]P1_cover!_43_6tﾏｸﾛ__2__.truck6t登録実績</definedName>
+    <definedName name="_4_0__123Graph_X高従" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_4_10tﾏｸﾛ__2__.truck10t登録実績">[13]P1_cover!_4_10tﾏｸﾛ__2__.truck10t登録実績</definedName>
+    <definedName name="_4_123Graph_X高従" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_40_4tﾏｸﾛ__2__.truck4t登録実績">[13]P1_cover!_40_4tﾏｸﾛ__2__.truck4t登録実績</definedName>
+    <definedName name="_41_0__123Graph_B入力電圧" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_41_4tﾏｸﾛ__2__.truck4t登録実績">[13]P1_cover!_41_4tﾏｸﾛ__2__.truck4t登録実績</definedName>
+    <definedName name="_42_4tﾏｸﾛ__2__.truck4t登録実績">[13]P1_cover!_42_4tﾏｸﾛ__2__.truck4t登録実績</definedName>
+    <definedName name="_43_0__123Graph_C電圧" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_43_6tﾏｸﾛ__2__.truck6t登録実績">[13]P1_cover!_43_6tﾏｸﾛ__2__.truck6t登録実績</definedName>
     <definedName name="_44_6tﾏｸﾛ__2__.truck6t登録実績">#N/A</definedName>
-    <definedName name="_45_0__123Graph_C入力電圧" hidden="1">[10]VCCWT!#REF!</definedName>
+    <definedName name="_45_0__123Graph_C入力電圧" hidden="1">[9]VCCWT!#REF!</definedName>
     <definedName name="_45_6tﾏｸﾛ__2__.truck6t登録実績">#N/A</definedName>
-    <definedName name="_46_6tﾏｸﾛ__2__.truck6t登録実績">[14]P1_cover!_46_6tﾏｸﾛ__2__.truck6t登録実績</definedName>
+    <definedName name="_46_6tﾏｸﾛ__2__.truck6t登録実績">[13]P1_cover!_46_6tﾏｸﾛ__2__.truck6t登録実績</definedName>
     <definedName name="_46q1_">#REF!</definedName>
     <definedName name="_47_6tﾏｸﾛ__2__.truck6t登録実績">#N/A</definedName>
-    <definedName name="_48_6tﾏｸﾛ__2__.truck6t登録実績">[14]!_48_6tﾏｸﾛ__2__.truck6t登録実績</definedName>
+    <definedName name="_48_6tﾏｸﾛ__2__.truck6t登録実績">[13]!_48_6tﾏｸﾛ__2__.truck6t登録実績</definedName>
     <definedName name="_49_6tﾏｸﾛ__2__.truck6t登録実績">#N/A</definedName>
     <definedName name="_4B1_">#REF!</definedName>
     <definedName name="_5">#N/A</definedName>
     <definedName name="_5_10tﾏｸﾛ__2__.truck10t登録実績">#N/A</definedName>
-    <definedName name="_5_123Grap" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_50_6tﾏｸﾛ__2__.truck6t登録実績">'[15]P2_Revision '!_50_6tﾏｸﾛ__2__.truck6t登録実績</definedName>
+    <definedName name="_5_123Grap" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_50_6tﾏｸﾛ__2__.truck6t登録実績">'[14]P2_Revision '!_50_6tﾏｸﾛ__2__.truck6t登録実績</definedName>
     <definedName name="_51_6tﾏｸﾛ__2__.truck6t登録実績">#N/A</definedName>
     <definedName name="_52_6tﾏｸﾛ__2__.truck6t登録実績">#N/A</definedName>
     <definedName name="_52A2_">#REF!</definedName>
-    <definedName name="_53_6tﾏｸﾛ__2__.truck6t登録実績">[14]P1_cover!_53_6tﾏｸﾛ__2__.truck6t登録実績</definedName>
-    <definedName name="_54_6tﾏｸﾛ__2__.truck6t登録実績">[14]P1_cover!_54_6tﾏｸﾛ__2__.truck6t登録実績</definedName>
-    <definedName name="_55_6tﾏｸﾛ__2__.truck6t登録実績">[14]P1_cover!_55_6tﾏｸﾛ__2__.truck6t登録実績</definedName>
-    <definedName name="_56_6tﾏｸﾛ__2__.truck6t登録実績">[14]P1_cover!_56_6tﾏｸﾛ__2__.truck6t登録実績</definedName>
-    <definedName name="_57DUMPﾏｸﾛ__2__.truckDUMP登録実績">[14]P1_cover!_57DUMPﾏｸﾛ__2__.truckDUMP登録実績</definedName>
+    <definedName name="_53_6tﾏｸﾛ__2__.truck6t登録実績">[13]P1_cover!_53_6tﾏｸﾛ__2__.truck6t登録実績</definedName>
+    <definedName name="_54_6tﾏｸﾛ__2__.truck6t登録実績">[13]P1_cover!_54_6tﾏｸﾛ__2__.truck6t登録実績</definedName>
+    <definedName name="_55_6tﾏｸﾛ__2__.truck6t登録実績">[13]P1_cover!_55_6tﾏｸﾛ__2__.truck6t登録実績</definedName>
+    <definedName name="_56_6tﾏｸﾛ__2__.truck6t登録実績">[13]P1_cover!_56_6tﾏｸﾛ__2__.truck6t登録実績</definedName>
+    <definedName name="_57DUMPﾏｸﾛ__2__.truckDUMP登録実績">[13]P1_cover!_57DUMPﾏｸﾛ__2__.truckDUMP登録実績</definedName>
     <definedName name="_58DUMPﾏｸﾛ__2__.truckDUMP登録実績">#N/A</definedName>
     <definedName name="_59DUMPﾏｸﾛ__2__.truckDUMP登録実績">#N/A</definedName>
     <definedName name="_6">#N/A</definedName>
-    <definedName name="_6_0__123Graph_X高従" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_6_10tﾏｸﾛ__2__.truck10t登録実績">[14]!_6_10tﾏｸﾛ__2__.truck10t登録実績</definedName>
-    <definedName name="_6_123Grap" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_60DUMPﾏｸﾛ__2__.truckDUMP登録実績">[14]P1_cover!_60DUMPﾏｸﾛ__2__.truckDUMP登録実績</definedName>
+    <definedName name="_6_0__123Graph_X高従" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_6_10tﾏｸﾛ__2__.truck10t登録実績">[13]!_6_10tﾏｸﾛ__2__.truck10t登録実績</definedName>
+    <definedName name="_6_123Grap" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_60DUMPﾏｸﾛ__2__.truckDUMP登録実績">[13]P1_cover!_60DUMPﾏｸﾛ__2__.truckDUMP登録実績</definedName>
     <definedName name="_61DUMPﾏｸﾛ__2__.truckDUMP登録実績">#N/A</definedName>
-    <definedName name="_62DUMPﾏｸﾛ__2__.truckDUMP登録実績">[14]!_62DUMPﾏｸﾛ__2__.truckDUMP登録実績</definedName>
+    <definedName name="_62DUMPﾏｸﾛ__2__.truckDUMP登録実績">[13]!_62DUMPﾏｸﾛ__2__.truckDUMP登録実績</definedName>
     <definedName name="_63DUMPﾏｸﾛ__2__.truckDUMP登録実績">#N/A</definedName>
-    <definedName name="_64DUMPﾏｸﾛ__2__.truckDUMP登録実績">'[15]P2_Revision '!_64DUMPﾏｸﾛ__2__.truckDUMP登録実績</definedName>
+    <definedName name="_64DUMPﾏｸﾛ__2__.truckDUMP登録実績">'[14]P2_Revision '!_64DUMPﾏｸﾛ__2__.truckDUMP登録実績</definedName>
     <definedName name="_65DUMPﾏｸﾛ__2__.truckDUMP登録実績">#N/A</definedName>
     <definedName name="_66DUMPﾏｸﾛ__2__.truckDUMP登録実績">#N/A</definedName>
-    <definedName name="_67DUMPﾏｸﾛ__2__.truckDUMP登録実績">[14]P1_cover!_67DUMPﾏｸﾛ__2__.truckDUMP登録実績</definedName>
-    <definedName name="_68DUMPﾏｸﾛ__2__.truckDUMP登録実績">[14]P1_cover!_68DUMPﾏｸﾛ__2__.truckDUMP登録実績</definedName>
-    <definedName name="_69DUMPﾏｸﾛ__2__.truckDUMP登録実績">[14]P1_cover!_69DUMPﾏｸﾛ__2__.truckDUMP登録実績</definedName>
+    <definedName name="_67DUMPﾏｸﾛ__2__.truckDUMP登録実績">[13]P1_cover!_67DUMPﾏｸﾛ__2__.truckDUMP登録実績</definedName>
+    <definedName name="_68DUMPﾏｸﾛ__2__.truckDUMP登録実績">[13]P1_cover!_68DUMPﾏｸﾛ__2__.truckDUMP登録実績</definedName>
+    <definedName name="_69DUMPﾏｸﾛ__2__.truckDUMP登録実績">[13]P1_cover!_69DUMPﾏｸﾛ__2__.truckDUMP登録実績</definedName>
     <definedName name="_6B1_">#REF!</definedName>
     <definedName name="_7_10tﾏｸﾛ__2__.truck10t登録実績">#N/A</definedName>
-    <definedName name="_7_123Grap" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_70DUMPﾏｸﾛ__2__.truckDUMP登録実績">[14]P1_cover!_70DUMPﾏｸﾛ__2__.truckDUMP登録実績</definedName>
-    <definedName name="_71ELFﾏｸﾛ_2__.truckELF登録実績">[14]P1_cover!_71ELFﾏｸﾛ_2__.truckELF登録実績</definedName>
+    <definedName name="_7_123Grap" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_70DUMPﾏｸﾛ__2__.truckDUMP登録実績">[13]P1_cover!_70DUMPﾏｸﾛ__2__.truckDUMP登録実績</definedName>
+    <definedName name="_71ELFﾏｸﾛ_2__.truckELF登録実績">[13]P1_cover!_71ELFﾏｸﾛ_2__.truckELF登録実績</definedName>
     <definedName name="_72ELFﾏｸﾛ_2__.truckELF登録実績">#N/A</definedName>
     <definedName name="_73ELFﾏｸﾛ_2__.truckELF登録実績">#N/A</definedName>
-    <definedName name="_74ELFﾏｸﾛ_2__.truckELF登録実績">[14]P1_cover!_74ELFﾏｸﾛ_2__.truckELF登録実績</definedName>
+    <definedName name="_74ELFﾏｸﾛ_2__.truckELF登録実績">[13]P1_cover!_74ELFﾏｸﾛ_2__.truckELF登録実績</definedName>
     <definedName name="_75ELFﾏｸﾛ_2__.truckELF登録実績">#N/A</definedName>
-    <definedName name="_76ELFﾏｸﾛ_2__.truckELF登録実績">[14]!_76ELFﾏｸﾛ_2__.truckELF登録実績</definedName>
+    <definedName name="_76ELFﾏｸﾛ_2__.truckELF登録実績">[13]!_76ELFﾏｸﾛ_2__.truckELF登録実績</definedName>
     <definedName name="_77ELFﾏｸﾛ_2__.truckELF登録実績">#N/A</definedName>
-    <definedName name="_78ELFﾏｸﾛ_2__.truckELF登録実績">'[15]P2_Revision '!_78ELFﾏｸﾛ_2__.truckELF登録実績</definedName>
+    <definedName name="_78ELFﾏｸﾛ_2__.truckELF登録実績">'[14]P2_Revision '!_78ELFﾏｸﾛ_2__.truckELF登録実績</definedName>
     <definedName name="_79ELFﾏｸﾛ_2__.truckELF登録実績">#N/A</definedName>
     <definedName name="_7A2_">#REF!</definedName>
     <definedName name="_8__123Graph_Aｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
-    <definedName name="_8_10tﾏｸﾛ__2__.truck10t登録実績">'[15]P2_Revision '!_8_10tﾏｸﾛ__2__.truck10t登録実績</definedName>
-    <definedName name="_8_123Grap" hidden="1">[10]VCCWT!#REF!</definedName>
+    <definedName name="_8_10tﾏｸﾛ__2__.truck10t登録実績">'[14]P2_Revision '!_8_10tﾏｸﾛ__2__.truck10t登録実績</definedName>
+    <definedName name="_8_123Grap" hidden="1">[9]VCCWT!#REF!</definedName>
     <definedName name="_80ELFﾏｸﾛ_2__.truckELF登録実績">#N/A</definedName>
-    <definedName name="_81ELFﾏｸﾛ_2__.truckELF登録実績">[14]P1_cover!_81ELFﾏｸﾛ_2__.truckELF登録実績</definedName>
-    <definedName name="_82ELFﾏｸﾛ_2__.truckELF登録実績">[14]P1_cover!_82ELFﾏｸﾛ_2__.truckELF登録実績</definedName>
-    <definedName name="_83ELFﾏｸﾛ_2__.truckELF登録実績">[14]P1_cover!_83ELFﾏｸﾛ_2__.truckELF登録実績</definedName>
-    <definedName name="_84ELFﾏｸﾛ_2__.truckELF登録実績">[14]P1_cover!_84ELFﾏｸﾛ_2__.truckELF登録実績</definedName>
-    <definedName name="_85HDVﾏｸﾛ__2__.HDV登録実績">[14]P1_cover!_85HDVﾏｸﾛ__2__.HDV登録実績</definedName>
+    <definedName name="_81ELFﾏｸﾛ_2__.truckELF登録実績">[13]P1_cover!_81ELFﾏｸﾛ_2__.truckELF登録実績</definedName>
+    <definedName name="_82ELFﾏｸﾛ_2__.truckELF登録実績">[13]P1_cover!_82ELFﾏｸﾛ_2__.truckELF登録実績</definedName>
+    <definedName name="_83ELFﾏｸﾛ_2__.truckELF登録実績">[13]P1_cover!_83ELFﾏｸﾛ_2__.truckELF登録実績</definedName>
+    <definedName name="_84ELFﾏｸﾛ_2__.truckELF登録実績">[13]P1_cover!_84ELFﾏｸﾛ_2__.truckELF登録実績</definedName>
+    <definedName name="_85HDVﾏｸﾛ__2__.HDV登録実績">[13]P1_cover!_85HDVﾏｸﾛ__2__.HDV登録実績</definedName>
     <definedName name="_86HDVﾏｸﾛ__2__.HDV登録実績">#N/A</definedName>
     <definedName name="_87HDVﾏｸﾛ__2__.HDV登録実績">#N/A</definedName>
-    <definedName name="_88HDVﾏｸﾛ__2__.HDV登録実績">[14]P1_cover!_88HDVﾏｸﾛ__2__.HDV登録実績</definedName>
+    <definedName name="_88HDVﾏｸﾛ__2__.HDV登録実績">[13]P1_cover!_88HDVﾏｸﾛ__2__.HDV登録実績</definedName>
     <definedName name="_89HDVﾏｸﾛ__2__.HDV登録実績">#N/A</definedName>
-    <definedName name="_9__123Graph_Aｸﾞﾗﾌ_3" hidden="1">[16]A!$C$68:$C$75</definedName>
+    <definedName name="_9__123Graph_Aｸﾞﾗﾌ_3" hidden="1">[15]A!$C$68:$C$75</definedName>
     <definedName name="_9_10tﾏｸﾛ__2__.truck10t登録実績">#N/A</definedName>
-    <definedName name="_9_123Grap" hidden="1">[10]VCCWT!#REF!</definedName>
-    <definedName name="_90HDVﾏｸﾛ__2__.HDV登録実績">[14]!_90HDVﾏｸﾛ__2__.HDV登録実績</definedName>
+    <definedName name="_9_123Grap" hidden="1">[9]VCCWT!#REF!</definedName>
+    <definedName name="_90HDVﾏｸﾛ__2__.HDV登録実績">[13]!_90HDVﾏｸﾛ__2__.HDV登録実績</definedName>
     <definedName name="_91HDVﾏｸﾛ__2__.HDV登録実績">#N/A</definedName>
-    <definedName name="_92HDVﾏｸﾛ__2__.HDV登録実績">'[15]P2_Revision '!_92HDVﾏｸﾛ__2__.HDV登録実績</definedName>
+    <definedName name="_92HDVﾏｸﾛ__2__.HDV登録実績">'[14]P2_Revision '!_92HDVﾏｸﾛ__2__.HDV登録実績</definedName>
     <definedName name="_93HDVﾏｸﾛ__2__.HDV登録実績">#N/A</definedName>
     <definedName name="_94HDVﾏｸﾛ__2__.HDV登録実績">#N/A</definedName>
-    <definedName name="_95HDVﾏｸﾛ__2__.HDV登録実績">[14]P1_cover!_95HDVﾏｸﾛ__2__.HDV登録実績</definedName>
-    <definedName name="_96HDVﾏｸﾛ__2__.HDV登録実績">[14]P1_cover!_96HDVﾏｸﾛ__2__.HDV登録実績</definedName>
-    <definedName name="_97HDVﾏｸﾛ__2__.HDV登録実績">[14]P1_cover!_97HDVﾏｸﾛ__2__.HDV登録実績</definedName>
-    <definedName name="_98HDVﾏｸﾛ__2__.HDV登録実績">[14]P1_cover!_98HDVﾏｸﾛ__2__.HDV登録実績</definedName>
-    <definedName name="_99UBSﾏｸﾛ__.truckUBS登録実績">[14]P1_cover!_99UBSﾏｸﾛ__.truckUBS登録実績</definedName>
+    <definedName name="_95HDVﾏｸﾛ__2__.HDV登録実績">[13]P1_cover!_95HDVﾏｸﾛ__2__.HDV登録実績</definedName>
+    <definedName name="_96HDVﾏｸﾛ__2__.HDV登録実績">[13]P1_cover!_96HDVﾏｸﾛ__2__.HDV登録実績</definedName>
+    <definedName name="_97HDVﾏｸﾛ__2__.HDV登録実績">[13]P1_cover!_97HDVﾏｸﾛ__2__.HDV登録実績</definedName>
+    <definedName name="_98HDVﾏｸﾛ__2__.HDV登録実績">[13]P1_cover!_98HDVﾏｸﾛ__2__.HDV登録実績</definedName>
+    <definedName name="_99UBSﾏｸﾛ__.truckUBS登録実績">[13]P1_cover!_99UBSﾏｸﾛ__.truckUBS登録実績</definedName>
     <definedName name="_A2">#REF!</definedName>
     <definedName name="_B1">#REF!</definedName>
-    <definedName name="_D315">[9]DataList!#REF!</definedName>
-    <definedName name="_DEL1">[19]総合B!$G$10:$I$13,[19]総合B!$G$15:$I$18,[19]総合B!$G$20:$I$22,[19]総合B!$G$25:$I$28,[19]総合B!$G$31:$I$32,[19]総合B!$G$34:$I$36,[19]総合B!$G$39:$I$40,[19]総合B!$G$43:$I$43,[19]総合B!$K$10:$M$13,[19]総合B!$K$15:$M$18,[19]総合B!$K$20:$M$22,[19]総合B!$K$25:$M$28,[19]総合B!$K$31:$M$32,[19]総合B!$K$34:$M$36,[19]総合B!$K$39:$M$40,[19]総合B!$K$43:$M$43</definedName>
-    <definedName name="_DEL2">[19]総合B!$O$10:$Q$13,[19]総合B!$O$15:$Q$18,[19]総合B!$O$20:$Q$22,[19]総合B!$O$25:$Q$28,[19]総合B!$O$31:$Q$32,[19]総合B!$O$34:$Q$36,[19]総合B!$O$39:$Q$40,[19]総合B!$O$43:$Q$43,[19]総合B!$S$10:$U$13,[19]総合B!$S$15:$U$18,[19]総合B!$S$20:$U$22,[19]総合B!$S$25:$U$28,[19]総合B!$S$31:$U$32,[19]総合B!$S$34:$U$36,[19]総合B!$S$39:$U$40,[19]総合B!$S$43:$U$43</definedName>
-    <definedName name="_DEL3">[19]総合B!$W$10:$Y$13,[19]総合B!$W$15:$Y$18,[19]総合B!$W$20:$Y$22,[19]総合B!$W$25:$Y$28,[19]総合B!$W$31:$Y$32,[19]総合B!$W$34:$Y$36,[19]総合B!$W$39:$Y$40,[19]総合B!$W$43:$Y$43,[19]総合B!$AA$10:$AC$13,[19]総合B!$AA$15:$AC$18,[19]総合B!$AA$20:$AC$22,[19]総合B!$AA$25:$AC$28,[19]総合B!$AA$31:$AC$32,[19]総合B!$AA$34:$AC$36,[19]総合B!$AA$39:$AC$40,[19]総合B!$AA$43:$AC$43</definedName>
-    <definedName name="_DEL4">[19]総合B!$AE$10:$AG$13,[19]総合B!$AE$15:$AG$18,[19]総合B!$AE$20:$AG$22,[19]総合B!$AE$25:$AG$28,[19]総合B!$AE$31:$AG$32,[19]総合B!$AE$34:$AG$36,[19]総合B!$AE$39:$AG$40,[19]総合B!$AE$43:$AG$43,[19]総合B!#REF!,[19]総合B!#REF!,[19]総合B!#REF!,[19]総合B!#REF!,[19]総合B!#REF!,[19]総合B!#REF!,[19]総合B!#REF!,[19]総合B!#REF!</definedName>
-    <definedName name="_Dist_Bin" hidden="1">[12]ENG油洩れ!#REF!</definedName>
-    <definedName name="_dne１">[5]result!#REF!</definedName>
+    <definedName name="_D315">[8]DataList!#REF!</definedName>
+    <definedName name="_DEL1">[18]総合B!$G$10:$I$13,[18]総合B!$G$15:$I$18,[18]総合B!$G$20:$I$22,[18]総合B!$G$25:$I$28,[18]総合B!$G$31:$I$32,[18]総合B!$G$34:$I$36,[18]総合B!$G$39:$I$40,[18]総合B!$G$43:$I$43,[18]総合B!$K$10:$M$13,[18]総合B!$K$15:$M$18,[18]総合B!$K$20:$M$22,[18]総合B!$K$25:$M$28,[18]総合B!$K$31:$M$32,[18]総合B!$K$34:$M$36,[18]総合B!$K$39:$M$40,[18]総合B!$K$43:$M$43</definedName>
+    <definedName name="_DEL2">[18]総合B!$O$10:$Q$13,[18]総合B!$O$15:$Q$18,[18]総合B!$O$20:$Q$22,[18]総合B!$O$25:$Q$28,[18]総合B!$O$31:$Q$32,[18]総合B!$O$34:$Q$36,[18]総合B!$O$39:$Q$40,[18]総合B!$O$43:$Q$43,[18]総合B!$S$10:$U$13,[18]総合B!$S$15:$U$18,[18]総合B!$S$20:$U$22,[18]総合B!$S$25:$U$28,[18]総合B!$S$31:$U$32,[18]総合B!$S$34:$U$36,[18]総合B!$S$39:$U$40,[18]総合B!$S$43:$U$43</definedName>
+    <definedName name="_DEL3">[18]総合B!$W$10:$Y$13,[18]総合B!$W$15:$Y$18,[18]総合B!$W$20:$Y$22,[18]総合B!$W$25:$Y$28,[18]総合B!$W$31:$Y$32,[18]総合B!$W$34:$Y$36,[18]総合B!$W$39:$Y$40,[18]総合B!$W$43:$Y$43,[18]総合B!$AA$10:$AC$13,[18]総合B!$AA$15:$AC$18,[18]総合B!$AA$20:$AC$22,[18]総合B!$AA$25:$AC$28,[18]総合B!$AA$31:$AC$32,[18]総合B!$AA$34:$AC$36,[18]総合B!$AA$39:$AC$40,[18]総合B!$AA$43:$AC$43</definedName>
+    <definedName name="_DEL4">[18]総合B!$AE$10:$AG$13,[18]総合B!$AE$15:$AG$18,[18]総合B!$AE$20:$AG$22,[18]総合B!$AE$25:$AG$28,[18]総合B!$AE$31:$AG$32,[18]総合B!$AE$34:$AG$36,[18]総合B!$AE$39:$AG$40,[18]総合B!$AE$43:$AG$43,[18]総合B!#REF!,[18]総合B!#REF!,[18]総合B!#REF!,[18]総合B!#REF!,[18]総合B!#REF!,[18]総合B!#REF!,[18]総合B!#REF!,[18]総合B!#REF!</definedName>
+    <definedName name="_Dist_Bin" hidden="1">[11]ENG油洩れ!#REF!</definedName>
+    <definedName name="_dne１">[4]result!#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_Fill2" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" hidden="1">[20]MessageList!$A$3:$BG$762</definedName>
-    <definedName name="_ftnref5">[21]TTM11_Menu!#REF!</definedName>
-    <definedName name="_ftnref7">[21]TTM11_Menu!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Info_sheet!$A$1:$AC$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1">[19]MessageList!$A$3:$BG$762</definedName>
+    <definedName name="_ftnref5">[20]TTM11_Menu!#REF!</definedName>
+    <definedName name="_ftnref7">[20]TTM11_Menu!#REF!</definedName>
     <definedName name="_GOTO_A01_">[1]yh5特装!$V$1</definedName>
-    <definedName name="_Hlt24522200_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt24522257_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt24522463_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt24522628_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt24785160_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt24786068_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt24786298_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt24786349_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt25470316_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt25470320_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt25470341_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt25470776_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt25471075_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt25471384_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt25988474_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt25998240_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35143858_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35147568_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35147841_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35147982_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35148040_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35152715_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35153746_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35155136_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35155220_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35155318_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35155368_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35332169_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35332178_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35332187_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35332656_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35333920_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35334205_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35334417_9">[22]DID!#REF!</definedName>
+    <definedName name="_Hlt24522200_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt24522257_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt24522463_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt24522628_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt24785160_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt24786068_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt24786298_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt24786349_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt25470316_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt25470320_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt25470341_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt25470776_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt25471075_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt25471384_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt25988474_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt25998240_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35143858_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35147568_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35147841_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35147982_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35148040_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35152715_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35153746_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35155136_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35155220_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35155318_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35155368_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35332169_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35332178_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35332187_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35332656_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35333920_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35334205_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35334417_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35338418_9" localSheetId="0">#REF!</definedName>
     <definedName name="_Hlt35338418_9">#REF!</definedName>
-    <definedName name="_Hlt35341135_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35341141_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35341189_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35341219_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt35341223_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt36633658_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt38262143_9">[22]DID!#REF!</definedName>
+    <definedName name="_Hlt35341135_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35341141_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35341189_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35341219_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt35341223_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt36633658_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt38262143_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt38262291_9" localSheetId="0">#REF!</definedName>
     <definedName name="_Hlt38262291_9">#REF!</definedName>
-    <definedName name="_Hlt38262536_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt38263440_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt38266292_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt38271025_9">[22]DID!#REF!</definedName>
-    <definedName name="_Hlt38337237_9">[22]DID!#REF!</definedName>
+    <definedName name="_Hlt38262536_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt38263440_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt38266292_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt38271025_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt38337237_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt50273513_9" localSheetId="0">#REF!</definedName>
     <definedName name="_Hlt50273513_9">#REF!</definedName>
-    <definedName name="_Hlt72048621_9">[22]DID!#REF!</definedName>
+    <definedName name="_Hlt72048621_9">[21]DID!#REF!</definedName>
+    <definedName name="_Hlt77489986_9" localSheetId="0">#REF!</definedName>
     <definedName name="_Hlt77489986_9">#REF!</definedName>
+    <definedName name="_Hlt77489989_9" localSheetId="0">#REF!</definedName>
     <definedName name="_Hlt77489989_9">#REF!</definedName>
-    <definedName name="_inj1">[6]result!#REF!</definedName>
-    <definedName name="_inj2">[6]result!#REF!</definedName>
-    <definedName name="_inj3">[6]result!#REF!</definedName>
+    <definedName name="_inj1" localSheetId="0">[5]result!#REF!</definedName>
+    <definedName name="_inj1">[5]result!#REF!</definedName>
+    <definedName name="_inj2" localSheetId="0">[5]result!#REF!</definedName>
+    <definedName name="_inj2">[5]result!#REF!</definedName>
+    <definedName name="_inj3">[5]result!#REF!</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Key2" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
@@ -658,203 +665,270 @@
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
     <definedName name="_SEV1">#REF!</definedName>
-    <definedName name="_SEV10">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV11">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV12">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV13">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV14">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV15">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV16">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV17">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV18">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV19">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV2">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV20">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV21">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV22">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV23">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV24">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV25">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV3">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV4">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV5">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV6">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV7">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV8">'[23]SEV Sets'!#REF!</definedName>
-    <definedName name="_SEV9">'[23]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV10">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV11">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV12">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV13">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV14">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV15">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV16">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV17">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV18">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV19">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV2">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV20">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV21">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV22">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV23">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV24">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV25">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV3">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV4">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV5">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV6">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV7">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV8">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_SEV9">'[22]SEV Sets'!#REF!</definedName>
+    <definedName name="_Sort" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
+    <definedName name="_Sort2" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Sort2" hidden="1">#REF!</definedName>
+    <definedName name="_SUB01" localSheetId="0">#REF!</definedName>
     <definedName name="_SUB01">#REF!</definedName>
     <definedName name="_SUB02">#REF!</definedName>
     <definedName name="_SUB03">#REF!</definedName>
     <definedName name="_SUB04">#REF!</definedName>
-    <definedName name="_TMP1">[24]駆動系1!$J$110:$BD$169</definedName>
-    <definedName name="_Toc130691147_2">'[22]General ECU Information'!#REF!</definedName>
-    <definedName name="_Toc130691148_2">'[22]General ECU Information'!#REF!</definedName>
-    <definedName name="_Toc132613404_11">[22]CPID!#REF!</definedName>
+    <definedName name="_TMP1">[23]駆動系1!$J$110:$BD$169</definedName>
+    <definedName name="_Toc130691147_2">'[21]General ECU Information'!#REF!</definedName>
+    <definedName name="_Toc130691148_2">'[21]General ECU Information'!#REF!</definedName>
+    <definedName name="_Toc132613404_11">[21]CPID!#REF!</definedName>
+    <definedName name="_Toc134518478_9" localSheetId="0">#REF!</definedName>
     <definedName name="_Toc134518478_9">#REF!</definedName>
+    <definedName name="_Toc134518479_9" localSheetId="0">#REF!</definedName>
     <definedName name="_Toc134518479_9">#REF!</definedName>
+    <definedName name="_Toc134518480_9" localSheetId="0">#REF!</definedName>
     <definedName name="_Toc134518480_9">#REF!</definedName>
-    <definedName name="_Toc25120236_2">'[22]General ECU Information'!#REF!</definedName>
+    <definedName name="_Toc25120236_2" localSheetId="0">'[21]General ECU Information'!#REF!</definedName>
+    <definedName name="_Toc25120236_2">'[21]General ECU Information'!#REF!</definedName>
+    <definedName name="_TQ1" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"smooth ride";#N/A,#N/A,TRUE,"rough ride";#N/A,#N/A,TRUE,"parking";#N/A,#N/A,TRUE,"straight Control";#N/A,#N/A,TRUE,"corn control";#N/A,#N/A,TRUE,"Steer disturbance";#N/A,#N/A,TRUE,"Straight stab.";#N/A,#N/A,TRUE,"cornering stab.";#N/A,#N/A,TRUE,"braking";#N/A,#N/A,TRUE,"braking dist"}</definedName>
     <definedName name="_TQ1" hidden="1">{#N/A,#N/A,TRUE,"smooth ride";#N/A,#N/A,TRUE,"rough ride";#N/A,#N/A,TRUE,"parking";#N/A,#N/A,TRUE,"straight Control";#N/A,#N/A,TRUE,"corn control";#N/A,#N/A,TRUE,"Steer disturbance";#N/A,#N/A,TRUE,"Straight stab.";#N/A,#N/A,TRUE,"cornering stab.";#N/A,#N/A,TRUE,"braking";#N/A,#N/A,TRUE,"braking dist"}</definedName>
+    <definedName name="_WR1" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"smooth ride";#N/A,#N/A,TRUE,"rough ride";#N/A,#N/A,TRUE,"parking";#N/A,#N/A,TRUE,"straight Control";#N/A,#N/A,TRUE,"corn control";#N/A,#N/A,TRUE,"Steer disturbance";#N/A,#N/A,TRUE,"Straight stab.";#N/A,#N/A,TRUE,"cornering stab.";#N/A,#N/A,TRUE,"braking";#N/A,#N/A,TRUE,"braking dist"}</definedName>
     <definedName name="_WR1" hidden="1">{#N/A,#N/A,TRUE,"smooth ride";#N/A,#N/A,TRUE,"rough ride";#N/A,#N/A,TRUE,"parking";#N/A,#N/A,TRUE,"straight Control";#N/A,#N/A,TRUE,"corn control";#N/A,#N/A,TRUE,"Steer disturbance";#N/A,#N/A,TRUE,"Straight stab.";#N/A,#N/A,TRUE,"cornering stab.";#N/A,#N/A,TRUE,"braking";#N/A,#N/A,TRUE,"braking dist"}</definedName>
+    <definedName name="_WRT1" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
     <definedName name="_WRT1" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
-    <definedName name="｣">'[10]76極'!#REF!</definedName>
+    <definedName name="｣">'[9]76極'!#REF!</definedName>
     <definedName name="A" hidden="1">#REF!</definedName>
     <definedName name="A.11.">#REF!</definedName>
     <definedName name="A1.">#REF!</definedName>
     <definedName name="AA" hidden="1">#REF!</definedName>
     <definedName name="aaa">#REF!</definedName>
     <definedName name="AAAA" hidden="1">#REF!</definedName>
+    <definedName name="aaaaa" localSheetId="0">Info_sheet!aaaaa</definedName>
     <definedName name="aaaaa">[0]!aaaaa</definedName>
-    <definedName name="aaaaas">[9]DataList!#REF!</definedName>
+    <definedName name="aaaaas" localSheetId="0">[8]DataList!#REF!</definedName>
+    <definedName name="aaaaas">[8]DataList!#REF!</definedName>
+    <definedName name="abc" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
     <definedName name="abc" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
+    <definedName name="ABS" localSheetId="0">Info_sheet!ABS</definedName>
     <definedName name="ABS">[0]!ABS</definedName>
-    <definedName name="acs">[6]result!#REF!</definedName>
-    <definedName name="ALL">[25]OPL!#REF!</definedName>
-    <definedName name="Anteil_Idee">[26]Parameterlist_1!$B$11</definedName>
-    <definedName name="Anteil_Konzeptdoku">[26]Parameterlist_1!$B$12</definedName>
+    <definedName name="acs" localSheetId="0">[5]result!#REF!</definedName>
+    <definedName name="acs">[5]result!#REF!</definedName>
+    <definedName name="ALL" localSheetId="0">[24]OPL!#REF!</definedName>
+    <definedName name="ALL">[24]OPL!#REF!</definedName>
+    <definedName name="Anteil_Idee">[25]Parameterlist_1!$B$11</definedName>
+    <definedName name="Anteil_Konzeptdoku">[25]Parameterlist_1!$B$12</definedName>
+    <definedName name="AnzahlBlattZeilen" localSheetId="0">#REF!</definedName>
     <definedName name="AnzahlBlattZeilen">#REF!</definedName>
+    <definedName name="APPLICATIONS" localSheetId="0">#REF!</definedName>
     <definedName name="APPLICATIONS">#REF!</definedName>
+    <definedName name="AS" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="AS" hidden="1">#REF!</definedName>
-    <definedName name="ASAASSA">[9]DataList!#REF!</definedName>
-    <definedName name="Aufwand_CSC_formal">[26]Parameterlist_1!$B$83</definedName>
+    <definedName name="ASAASSA" localSheetId="0">[8]DataList!#REF!</definedName>
+    <definedName name="ASAASSA">[8]DataList!#REF!</definedName>
+    <definedName name="Aufwand_CSC_formal">[25]Parameterlist_1!$B$83</definedName>
+    <definedName name="AW" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="AW" hidden="1">#REF!</definedName>
+    <definedName name="AX" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="AX" hidden="1">#REF!</definedName>
-    <definedName name="b">[27]ヨⅥ!$B$1</definedName>
+    <definedName name="b">[26]ヨⅥ!$B$1</definedName>
+    <definedName name="B10000000" localSheetId="0">#REF!</definedName>
     <definedName name="B10000000">#REF!</definedName>
+    <definedName name="B1000000000" localSheetId="0">#REF!</definedName>
     <definedName name="B1000000000">#REF!</definedName>
-    <definedName name="Back_to_Menu_R14_3">'[22]Special ECU Information'!#REF!</definedName>
-    <definedName name="Back_to_Menu_R16_3">'[22]Special ECU Information'!#REF!</definedName>
-    <definedName name="Back_to_Menu_R2_4">'[22]Tech 2 Menu'!#REF!</definedName>
+    <definedName name="Back_to_Menu_R14_3" localSheetId="0">'[21]Special ECU Information'!#REF!</definedName>
+    <definedName name="Back_to_Menu_R14_3">'[21]Special ECU Information'!#REF!</definedName>
+    <definedName name="Back_to_Menu_R16_3" localSheetId="0">'[21]Special ECU Information'!#REF!</definedName>
+    <definedName name="Back_to_Menu_R16_3">'[21]Special ECU Information'!#REF!</definedName>
+    <definedName name="Back_to_Menu_R2_4">'[21]Tech 2 Menu'!#REF!</definedName>
+    <definedName name="BAP_Anzeige" localSheetId="0">#REF!</definedName>
     <definedName name="BAP_Anzeige">#REF!</definedName>
-    <definedName name="Basis_Offset_SW">[26]Parameterlist_1!$B$54</definedName>
-    <definedName name="Basisaufwand_FMEA">[26]Parameterlist_1!$B$33</definedName>
-    <definedName name="BB">'[28]3.5 Srv$09'!#REF!</definedName>
+    <definedName name="Basis_Offset_SW">[25]Parameterlist_1!$B$54</definedName>
+    <definedName name="Basisaufwand_FMEA">[25]Parameterlist_1!$B$33</definedName>
+    <definedName name="BB">'[27]3.5 Srv$09'!#REF!</definedName>
+    <definedName name="bbb" localSheetId="0">Info_sheet!bbb</definedName>
     <definedName name="bbb">[0]!bbb</definedName>
+    <definedName name="BBBB" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="BBBB" hidden="1">#REF!</definedName>
+    <definedName name="ＢＣＥＡＭＵＱＩＺＡＫＺＢＩＧＹＥＲＲＩＯＣＭＢＯＫＸＤＡＪＡＭＥＪＭＫＱＹＧＫＫＰＢ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＢＣＥＡＭＵＱＩＺＡＫＺＢＩＧＹＥＲＲＩＯＣＭＢＯＫＸＤＡＪＡＭＥＪＭＫＱＹＧＫＫＰＢ" hidden="1">#REF!</definedName>
-    <definedName name="ＢＣＹＬＺＰＨＥＺＪＢＩＮＦＥＹＲＦＱＷＤＵＤＷＰＪＩＦＯＭＹＪＶＹＷＣＤＬＶＷＢＧＤＳＡＢＫＨＣＳＷＸＷＹＲＮＲＧＮＭＵＷＸＴＧＩＡＲＴＤＲＴＡＧＱＸＱＫＸＩＩＷＮＶＯＱＹＤＡＪＩＴＥＱＮＬＱＺＧＲＬＱＢＺＯＯＨＫＯＩＹＤＤＣＦＱＵＸＴＴＢＤＥＡＮＵＲＪＳＣＱＴＡＹＰＷＪＪＭＳＧＱＦＵＨＵＡＷＧＸＪＡＱＯＵＣＫＯＯＴＦＣＲＳＩＬＶＺＵＫＨＩＨＪＣＩＱＤＤＬＧＨＵＩＸＷＮＩＳＮＩＰＶＭＮＮＡＦＡＫＺＭＵＢＵＲＡＹＫＣＨＫＩＯＷＸＩＩＮＺＰＥＭＣＦＫＦＶＳＳＳＵＮＪＮＣＰＩＱＳＴＰＷＬＤＢＳＮＪＱＶＭＭＧＺ">[14]P1_cover!ＢＣＹＬＺＰＨＥＺＪＢＩＮＦＥＹＲＦＱＷＤＵＤＷＰＪＩＦＯＭＹＪＶＹＷＣＤＬＶＷＢＧＤＳＡＢＫＨＣＳＷＸＷＹＲＮＲＧＮＭＵＷＸＴＧＩＡＲＴＤＲＴＡＧＱＸＱＫＸＩＩＷＮＶＯＱＹＤＡＪＩＴＥＱＮＬＱＺＧＲＬＱＢＺＯＯＨＫＯＩＹＤＤＣＦＱＵＸＴＴＢＤＥＡＮＵＲＪＳＣＱＴＡＹＰＷＪＪＭＳＧＱＦＵＨＵＡＷＧＸＪＡＱＯＵＣＫＯＯＴＦＣＲＳＩＬＶＺＵＫＨＩＨＪＣＩＱＤＤＬＧＨＵＩＸＷＮＩＳＮＩＰＶＭＮＮＡＦＡＫＺＭＵＢＵＲＡＹＫＣＨＫＩＯＷＸＩＩＮＺＰＥＭＣＦＫＦＶＳＳＳＵＮＪＮＣＰＩＱＳＴＰＷＬＤＢＳＮＪＱＶＭＭＧＺ</definedName>
+    <definedName name="ＢＣＹＬＺＰＨＥＺＪＢＩＮＦＥＹＲＦＱＷＤＵＤＷＰＪＩＦＯＭＹＪＶＹＷＣＤＬＶＷＢＧＤＳＡＢＫＨＣＳＷＸＷＹＲＮＲＧＮＭＵＷＸＴＧＩＡＲＴＤＲＴＡＧＱＸＱＫＸＩＩＷＮＶＯＱＹＤＡＪＩＴＥＱＮＬＱＺＧＲＬＱＢＺＯＯＨＫＯＩＹＤＤＣＦＱＵＸＴＴＢＤＥＡＮＵＲＪＳＣＱＴＡＹＰＷＪＪＭＳＧＱＦＵＨＵＡＷＧＸＪＡＱＯＵＣＫＯＯＴＦＣＲＳＩＬＶＺＵＫＨＩＨＪＣＩＱＤＤＬＧＨＵＩＸＷＮＩＳＮＩＰＶＭＮＮＡＦＡＫＺＭＵＢＵＲＡＹＫＣＨＫＩＯＷＸＩＩＮＺＰＥＭＣＦＫＦＶＳＳＳＵＮＪＮＣＰＩＱＳＴＰＷＬＤＢＳＮＪＱＶＭＭＧＺ">[13]P1_cover!ＢＣＹＬＺＰＨＥＺＪＢＩＮＦＥＹＲＦＱＷＤＵＤＷＰＪＩＦＯＭＹＪＶＹＷＣＤＬＶＷＢＧＤＳＡＢＫＨＣＳＷＸＷＹＲＮＲＧＮＭＵＷＸＴＧＩＡＲＴＤＲＴＡＧＱＸＱＫＸＩＩＷＮＶＯＱＹＤＡＪＩＴＥＱＮＬＱＺＧＲＬＱＢＺＯＯＨＫＯＩＹＤＤＣＦＱＵＸＴＴＢＤＥＡＮＵＲＪＳＣＱＴＡＹＰＷＪＪＭＳＧＱＦＵＨＵＡＷＧＸＪＡＱＯＵＣＫＯＯＴＦＣＲＳＩＬＶＺＵＫＨＩＨＪＣＩＱＤＤＬＧＨＵＩＸＷＮＩＳＮＩＰＶＭＮＮＡＦＡＫＺＭＵＢＵＲＡＹＫＣＨＫＩＯＷＸＩＩＮＺＰＥＭＣＦＫＦＶＳＳＳＵＮＪＮＣＰＩＱＳＴＰＷＬＤＢＳＮＪＱＶＭＭＧＺ</definedName>
     <definedName name="BEANall">#REF!</definedName>
-    <definedName name="Bild_groß">[26]Parameterlist_1!$B$43</definedName>
-    <definedName name="Bild_klein">[26]Parameterlist_1!$B$41</definedName>
-    <definedName name="Bild_mittel">[26]Parameterlist_1!$B$42</definedName>
-    <definedName name="binDec">[29]PID!$A$305:$A$312</definedName>
-    <definedName name="binDec_wo1">'[30]&lt;sample&gt; DID_base_Sheet'!$A$301:$A$307</definedName>
+    <definedName name="Bild_groß">[25]Parameterlist_1!$B$43</definedName>
+    <definedName name="Bild_klein">[25]Parameterlist_1!$B$41</definedName>
+    <definedName name="Bild_mittel">[25]Parameterlist_1!$B$42</definedName>
+    <definedName name="binDec">[28]PID!$A$305:$A$312</definedName>
+    <definedName name="binDec_wo1">'[29]&lt;sample&gt; DID_base_Sheet'!$A$301:$A$307</definedName>
+    <definedName name="ＢＩＶＶＪＮＴＨＲＨＴＣＰＣＨＥＮＶＮＴＶＵＺＩＰＴＵＺＫＩＸＸＯＲＡＦＺＰＮＮＰＩＬＰＸＫＫＳＮＯＫＸＬＡＺ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＢＩＶＶＪＮＴＨＲＨＴＣＰＣＨＥＮＶＮＴＶＵＺＩＰＴＵＺＫＩＸＸＯＲＡＦＺＰＮＮＰＩＬＰＸＫＫＳＮＯＫＸＬＡＺ" hidden="1">#REF!</definedName>
-    <definedName name="ＢＮＣＲＶＱＡＶＱＸＤＵＵＮＨＵＦＭＯＸＱＳＦＺＯＸＷＨＳＳＱＷＹＢＣＧＬＪＸＦＰＺＩＦＡＱＶＶＵＷＰＬＰＥＥＭＯＰＬＹＦＢＴＴＤＳＵＢＧＲＸＲＫＹＪＩＷＮＷＰＲＥＲＷＴＴＥＰＣＹＷＣＫＲＣＷＢＮＫＫＡＫＮＫＡＦＦＥＨＳＷＺＸＷＦＧＩＵＣＹＱＨＩＳＨＪＱＯＧＲＲＦＪＰＤＮＤＰＹＬＹＤＡＫＢＭＲＵＳＹＧＯＳＳＸＪＧＶＷＭＰＺＤＹＯＬＰＲＫＮＲＺＭＭＵＰＱＭＺＮＤＣＳＮＸＳＯＶＳＳＬＬＺＤＪＸＨＸＪＳＹＳＲＣＡＭＤＪＭＫＱＹＺＪＫＰＬＺＨＹＢＫＯＪＺＥＤＧＹＶＳＦＹＧＩＪＦＲＧＶＮＬＦＱＬＧＮＳＫＫＤＷＣＪＱ">[14]P1_cover!ＢＮＣＲＶＱＡＶＱＸＤＵＵＮＨＵＦＭＯＸＱＳＦＺＯＸＷＨＳＳＱＷＹＢＣＧＬＪＸＦＰＺＩＦＡＱＶＶＵＷＰＬＰＥＥＭＯＰＬＹＦＢＴＴＤＳＵＢＧＲＸＲＫＹＪＩＷＮＷＰＲＥＲＷＴＴＥＰＣＹＷＣＫＲＣＷＢＮＫＫＡＫＮＫＡＦＦＥＨＳＷＺＸＷＦＧＩＵＣＹＱＨＩＳＨＪＱＯＧＲＲＦＪＰＤＮＤＰＹＬＹＤＡＫＢＭＲＵＳＹＧＯＳＳＸＪＧＶＷＭＰＺＤＹＯＬＰＲＫＮＲＺＭＭＵＰＱＭＺＮＤＣＳＮＸＳＯＶＳＳＬＬＺＤＪＸＨＸＪＳＹＳＲＣＡＭＤＪＭＫＱＹＺＪＫＰＬＺＨＹＢＫＯＪＺＥＤＧＹＶＳＦＹＧＩＪＦＲＧＶＮＬＦＱＬＧＮＳＫＫＤＷＣＪＱ</definedName>
+    <definedName name="ＢＮＣＲＶＱＡＶＱＸＤＵＵＮＨＵＦＭＯＸＱＳＦＺＯＸＷＨＳＳＱＷＹＢＣＧＬＪＸＦＰＺＩＦＡＱＶＶＵＷＰＬＰＥＥＭＯＰＬＹＦＢＴＴＤＳＵＢＧＲＸＲＫＹＪＩＷＮＷＰＲＥＲＷＴＴＥＰＣＹＷＣＫＲＣＷＢＮＫＫＡＫＮＫＡＦＦＥＨＳＷＺＸＷＦＧＩＵＣＹＱＨＩＳＨＪＱＯＧＲＲＦＪＰＤＮＤＰＹＬＹＤＡＫＢＭＲＵＳＹＧＯＳＳＸＪＧＶＷＭＰＺＤＹＯＬＰＲＫＮＲＺＭＭＵＰＱＭＺＮＤＣＳＮＸＳＯＶＳＳＬＬＺＤＪＸＨＸＪＳＹＳＲＣＡＭＤＪＭＫＱＹＺＪＫＰＬＺＨＹＢＫＯＪＺＥＤＧＹＶＳＦＹＧＩＪＦＲＧＶＮＬＦＱＬＧＮＳＫＫＤＷＣＪＱ">[13]P1_cover!ＢＮＣＲＶＱＡＶＱＸＤＵＵＮＨＵＦＭＯＸＱＳＦＺＯＸＷＨＳＳＱＷＹＢＣＧＬＪＸＦＰＺＩＦＡＱＶＶＵＷＰＬＰＥＥＭＯＰＬＹＦＢＴＴＤＳＵＢＧＲＸＲＫＹＪＩＷＮＷＰＲＥＲＷＴＴＥＰＣＹＷＣＫＲＣＷＢＮＫＫＡＫＮＫＡＦＦＥＨＳＷＺＸＷＦＧＩＵＣＹＱＨＩＳＨＪＱＯＧＲＲＦＪＰＤＮＤＰＹＬＹＤＡＫＢＭＲＵＳＹＧＯＳＳＸＪＧＶＷＭＰＺＤＹＯＬＰＲＫＮＲＺＭＭＵＰＱＭＺＮＤＣＳＮＸＳＯＶＳＳＬＬＺＤＪＸＨＸＪＳＹＳＲＣＡＭＤＪＭＫＱＹＺＪＫＰＬＺＨＹＢＫＯＪＺＥＤＧＹＶＳＦＹＧＩＪＦＲＧＶＮＬＦＱＬＧＮＳＫＫＤＷＣＪＱ</definedName>
     <definedName name="BOX">#REF!</definedName>
-    <definedName name="ＢＲＱＪＵＰＫＲＷＯＯＨＨＶＺＧＵＭＹＨＮＩＧＤＭＬＷＯＴＷＶＡＪＪＵＲＤＵＩＱＨＫＦＺＰＮＧＩＢＸＢＱＤＷＥＬＨＵＩＹＱＯＩＳＮＪＱＶＭＭＧＺＭＹＥＬＳＬＮＡＵＴＰＺＸＪＴＧＪＨＮＯＷＴＹＣＡＰＷＧＱＺＸＲＱＱＰＳＫＥＴＡＺＨＳＯＡＩＥＷＮＵＩＬＳＸＨＯＩＢＯＡＵＬＵＮＰＣＰＵＮＭＸＩＵＱＯＵＤＫＮＲＤＢＩＹＩＬＰＫＡＥＥＥＧＳＶＺＯＵＵＣＥＦＢＯＡＴＪＬＶＪＬＳＲＩＰＣＣＰＴＡＯＹＮＺＩＶＩＰＹＱＢＴＺＣＡＦＯＶＺＡＦＱＯＤＩＬＶＺＵＪＨＥＧＺＣＧＯＢＢＪＥＦＢＯＣＲＱＨＳＮＩＰＵＭＬＦＦＴＸＸＨＷＪ">[14]P1_cover!ＢＲＱＪＵＰＫＲＷＯＯＨＨＶＺＧＵＭＹＨＮＩＧＤＭＬＷＯＴＷＶＡＪＪＵＲＤＵＩＱＨＫＦＺＰＮＧＩＢＸＢＱＤＷＥＬＨＵＩＹＱＯＩＳＮＪＱＶＭＭＧＺＭＹＥＬＳＬＮＡＵＴＰＺＸＪＴＧＪＨＮＯＷＴＹＣＡＰＷＧＱＺＸＲＱＱＰＳＫＥＴＡＺＨＳＯＡＩＥＷＮＵＩＬＳＸＨＯＩＢＯＡＵＬＵＮＰＣＰＵＮＭＸＩＵＱＯＵＤＫＮＲＤＢＩＹＩＬＰＫＡＥＥＥＧＳＶＺＯＵＵＣＥＦＢＯＡＴＪＬＶＪＬＳＲＩＰＣＣＰＴＡＯＹＮＺＩＶＩＰＹＱＢＴＺＣＡＦＯＶＺＡＦＱＯＤＩＬＶＺＵＪＨＥＧＺＣＧＯＢＢＪＥＦＢＯＣＲＱＨＳＮＩＰＵＭＬＦＦＴＸＸＨＷＪ</definedName>
+    <definedName name="ＢＲＱＪＵＰＫＲＷＯＯＨＨＶＺＧＵＭＹＨＮＩＧＤＭＬＷＯＴＷＶＡＪＪＵＲＤＵＩＱＨＫＦＺＰＮＧＩＢＸＢＱＤＷＥＬＨＵＩＹＱＯＩＳＮＪＱＶＭＭＧＺＭＹＥＬＳＬＮＡＵＴＰＺＸＪＴＧＪＨＮＯＷＴＹＣＡＰＷＧＱＺＸＲＱＱＰＳＫＥＴＡＺＨＳＯＡＩＥＷＮＵＩＬＳＸＨＯＩＢＯＡＵＬＵＮＰＣＰＵＮＭＸＩＵＱＯＵＤＫＮＲＤＢＩＹＩＬＰＫＡＥＥＥＧＳＶＺＯＵＵＣＥＦＢＯＡＴＪＬＶＪＬＳＲＩＰＣＣＰＴＡＯＹＮＺＩＶＩＰＹＱＢＴＺＣＡＦＯＶＺＡＦＱＯＤＩＬＶＺＵＪＨＥＧＺＣＧＯＢＢＪＥＦＢＯＣＲＱＨＳＮＩＰＵＭＬＦＦＴＸＸＨＷＪ">[13]P1_cover!ＢＲＱＪＵＰＫＲＷＯＯＨＨＶＺＧＵＭＹＨＮＩＧＤＭＬＷＯＴＷＶＡＪＪＵＲＤＵＩＱＨＫＦＺＰＮＧＩＢＸＢＱＤＷＥＬＨＵＩＹＱＯＩＳＮＪＱＶＭＭＧＺＭＹＥＬＳＬＮＡＵＴＰＺＸＪＴＧＪＨＮＯＷＴＹＣＡＰＷＧＱＺＸＲＱＱＰＳＫＥＴＡＺＨＳＯＡＩＥＷＮＵＩＬＳＸＨＯＩＢＯＡＵＬＵＮＰＣＰＵＮＭＸＩＵＱＯＵＤＫＮＲＤＢＩＹＩＬＰＫＡＥＥＥＧＳＶＺＯＵＵＣＥＦＢＯＡＴＪＬＶＪＬＳＲＩＰＣＣＰＴＡＯＹＮＺＩＶＩＰＹＱＢＴＺＣＡＦＯＶＺＡＦＱＯＤＩＬＶＺＵＪＨＥＧＺＣＧＯＢＢＪＥＦＢＯＣＲＱＨＳＮＩＰＵＭＬＦＦＴＸＸＨＷＪ</definedName>
     <definedName name="BUNSEKI">#REF!</definedName>
     <definedName name="CAN１_A">#REF!</definedName>
     <definedName name="CAN1閉じ分">#REF!</definedName>
     <definedName name="CANall">#REF!</definedName>
+    <definedName name="CANT1" localSheetId="0">Info_sheet!CANT1</definedName>
     <definedName name="CANT1">[0]!CANT1</definedName>
+    <definedName name="CANtoBEANｹﾞｰﾄｳｪｲ" localSheetId="0">#REF!</definedName>
     <definedName name="CANtoBEANｹﾞｰﾄｳｪｲ">#REF!</definedName>
+    <definedName name="CANtoBEAN元" localSheetId="0">#REF!</definedName>
     <definedName name="CANtoBEAN元">#REF!</definedName>
+    <definedName name="CANtoECTｹﾞｰﾄｳｪｲ" localSheetId="0">#REF!</definedName>
     <definedName name="CANtoECTｹﾞｰﾄｳｪｲ">#REF!</definedName>
     <definedName name="CANtoECT元">#REF!</definedName>
     <definedName name="CAN内車間toXtoX">#REF!</definedName>
     <definedName name="Category">#REF!</definedName>
     <definedName name="CCCC" hidden="1">#REF!</definedName>
-    <definedName name="CHECK0">[31]計算結果!#REF!</definedName>
-    <definedName name="Check1">[32]ECU_requirement_review_checklis!$C$93:$C$96</definedName>
-    <definedName name="CHECK2">[31]計算結果!#REF!</definedName>
-    <definedName name="ＣＭＰＴＯＬＬＫＮＹＣＦＵＢＢＪＫＭＩＵＣＹＱＪＴＨＫＱＰＧＮＡＥＪＰＤＮＣＯＸＲＸＴＤＵＧＸＤＧＥＫＳＡＤＥＪＶＳＨＩＹＢＷＲＨＥＦＥＧＺＣＧＯＢＢＪＥＦＢＯＣＳＲＵＥＺＵＢＨＹＪＪＸＢＩＷＦＶＨＱＷＱＰＭＶＵＦＸＣＦＤＪＲＷＸＣＮＥＴＡＲＵＥＩＣＳＱＱＰＳＫＨＫＺＮＧＪＫＧＴＨＸＰＭＪＥＡＨＭＤＤＸＱＤＯＷＭＶＯＱＤＸＷＴＣＡＭＸＪＭＫＱＲＺＫＫＰＳＧＯＹＩＲＯＪＺＤＥＤＦＹＵＹＮＵＴＢＷＲＥＭＩＡＲＳＣＲＴＭＸＥＸＱＥＳＨＸＧＺＢＯＢＨＥＮＬＸＩＵＱＯＵＣＫＵＴＦＤＲＳＪＴＶＺＵＫＰＰＯＱＣＦＪＹＦ">[14]P1_cover!ＣＭＰＴＯＬＬＫＮＹＣＦＵＢＢＪＫＭＩＵＣＹＱＪＴＨＫＱＰＧＮＡＥＪＰＤＮＣＯＸＲＸＴＤＵＧＸＤＧＥＫＳＡＤＥＪＶＳＨＩＹＢＷＲＨＥＦＥＧＺＣＧＯＢＢＪＥＦＢＯＣＳＲＵＥＺＵＢＨＹＪＪＸＢＩＷＦＶＨＱＷＱＰＭＶＵＦＸＣＦＤＪＲＷＸＣＮＥＴＡＲＵＥＩＣＳＱＱＰＳＫＨＫＺＮＧＪＫＧＴＨＸＰＭＪＥＡＨＭＤＤＸＱＤＯＷＭＶＯＱＤＸＷＴＣＡＭＸＪＭＫＱＲＺＫＫＰＳＧＯＹＩＲＯＪＺＤＥＤＦＹＵＹＮＵＴＢＷＲＥＭＩＡＲＳＣＲＴＭＸＥＸＱＥＳＨＸＧＺＢＯＢＨＥＮＬＸＩＵＱＯＵＣＫＵＴＦＤＲＳＪＴＶＺＵＫＰＰＯＱＣＦＪＹＦ</definedName>
+    <definedName name="CHECK0">[30]計算結果!#REF!</definedName>
+    <definedName name="Check1">[31]ECU_requirement_review_checklis!$C$93:$C$96</definedName>
+    <definedName name="CHECK2">[30]計算結果!#REF!</definedName>
+    <definedName name="ＣＭＰＴＯＬＬＫＮＹＣＦＵＢＢＪＫＭＩＵＣＹＱＪＴＨＫＱＰＧＮＡＥＪＰＤＮＣＯＸＲＸＴＤＵＧＸＤＧＥＫＳＡＤＥＪＶＳＨＩＹＢＷＲＨＥＦＥＧＺＣＧＯＢＢＪＥＦＢＯＣＳＲＵＥＺＵＢＨＹＪＪＸＢＩＷＦＶＨＱＷＱＰＭＶＵＦＸＣＦＤＪＲＷＸＣＮＥＴＡＲＵＥＩＣＳＱＱＰＳＫＨＫＺＮＧＪＫＧＴＨＸＰＭＪＥＡＨＭＤＤＸＱＤＯＷＭＶＯＱＤＸＷＴＣＡＭＸＪＭＫＱＲＺＫＫＰＳＧＯＹＩＲＯＪＺＤＥＤＦＹＵＹＮＵＴＢＷＲＥＭＩＡＲＳＣＲＴＭＸＥＸＱＥＳＨＸＧＺＢＯＢＨＥＮＬＸＩＵＱＯＵＣＫＵＴＦＤＲＳＪＴＶＺＵＫＰＰＯＱＣＦＪＹＦ">[13]P1_cover!ＣＭＰＴＯＬＬＫＮＹＣＦＵＢＢＪＫＭＩＵＣＹＱＪＴＨＫＱＰＧＮＡＥＪＰＤＮＣＯＸＲＸＴＤＵＧＸＤＧＥＫＳＡＤＥＪＶＳＨＩＹＢＷＲＨＥＦＥＧＺＣＧＯＢＢＪＥＦＢＯＣＳＲＵＥＺＵＢＨＹＪＪＸＢＩＷＦＶＨＱＷＱＰＭＶＵＦＸＣＦＤＪＲＷＸＣＮＥＴＡＲＵＥＩＣＳＱＱＰＳＫＨＫＺＮＧＪＫＧＴＨＸＰＭＪＥＡＨＭＤＤＸＱＤＯＷＭＶＯＱＤＸＷＴＣＡＭＸＪＭＫＱＲＺＫＫＰＳＧＯＹＩＲＯＪＺＤＥＤＦＹＵＹＮＵＴＢＷＲＥＭＩＡＲＳＣＲＴＭＸＥＸＱＥＳＨＸＧＺＢＯＢＨＥＮＬＸＩＵＱＯＵＣＫＵＴＦＤＲＳＪＴＶＺＵＫＰＰＯＱＣＦＪＹＦ</definedName>
+    <definedName name="com" localSheetId="0">Info_sheet!com</definedName>
     <definedName name="com">[0]!com</definedName>
+    <definedName name="COMPL" localSheetId="0">#REF!</definedName>
     <definedName name="COMPL">#REF!</definedName>
+    <definedName name="COMPONENT" localSheetId="0">#REF!</definedName>
     <definedName name="COMPONENT">#REF!</definedName>
+    <definedName name="CONCURRENCE" localSheetId="0">#REF!</definedName>
     <definedName name="CONCURRENCE">#REF!</definedName>
+    <definedName name="CONT" localSheetId="0">Info_sheet!CONT</definedName>
     <definedName name="CONT">[0]!CONT</definedName>
-    <definedName name="Contents">[33]!Contents</definedName>
+    <definedName name="Contents">[32]!Contents</definedName>
+    <definedName name="Cover" localSheetId="0">Info_sheet!Cover</definedName>
     <definedName name="Cover">[0]!Cover</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Criteria">#REF!</definedName>
+    <definedName name="ＣＸＭ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＣＸＭ" hidden="1">#REF!</definedName>
+    <definedName name="d" localSheetId="0" hidden="1">{"'11.6.2'!$R$10","'11.6.2'!$C$23:$L$26"}</definedName>
     <definedName name="d" hidden="1">{"'11.6.2'!$R$10","'11.6.2'!$C$23:$L$26"}</definedName>
+    <definedName name="ｄ" localSheetId="0">Info_sheet!ｄ</definedName>
     <definedName name="ｄ">[0]!ｄ</definedName>
-    <definedName name="D_112">[34]DataList!#REF!</definedName>
-    <definedName name="D_113">[34]DataList!#REF!</definedName>
-    <definedName name="D_114">[35]DataList!#REF!</definedName>
-    <definedName name="D_115">[35]DataList!#REF!</definedName>
-    <definedName name="D_116">[36]DataList!#REF!</definedName>
-    <definedName name="D_117">[36]DataList!#REF!</definedName>
-    <definedName name="D_118">[34]DataList!#REF!</definedName>
+    <definedName name="D_112" localSheetId="0">[33]DataList!#REF!</definedName>
+    <definedName name="D_112">[33]DataList!#REF!</definedName>
+    <definedName name="D_113" localSheetId="0">[33]DataList!#REF!</definedName>
+    <definedName name="D_113">[33]DataList!#REF!</definedName>
+    <definedName name="D_114" localSheetId="0">[34]DataList!#REF!</definedName>
+    <definedName name="D_114">[34]DataList!#REF!</definedName>
+    <definedName name="D_115">[34]DataList!#REF!</definedName>
+    <definedName name="D_116">[35]DataList!#REF!</definedName>
+    <definedName name="D_117">[35]DataList!#REF!</definedName>
+    <definedName name="D_118">[33]DataList!#REF!</definedName>
+    <definedName name="D_11C" localSheetId="0">#REF!</definedName>
     <definedName name="D_11C">#REF!</definedName>
-    <definedName name="D_120">[34]DataList!#REF!</definedName>
-    <definedName name="D_122">[36]DataList!#REF!</definedName>
-    <definedName name="D_124">[36]DataList!#REF!</definedName>
-    <definedName name="D_125">[34]DataList!#REF!</definedName>
-    <definedName name="D_126">[35]DataList!#REF!</definedName>
-    <definedName name="D_127">[35]DataList!#REF!</definedName>
-    <definedName name="D_130">[36]DataList!#REF!</definedName>
-    <definedName name="D_131">[36]DataList!#REF!</definedName>
-    <definedName name="D_132">[36]DataList!#REF!</definedName>
-    <definedName name="D_133">[35]DataList!#REF!</definedName>
-    <definedName name="D_136">[35]DataList!#REF!</definedName>
+    <definedName name="D_120">[33]DataList!#REF!</definedName>
+    <definedName name="D_122">[35]DataList!#REF!</definedName>
+    <definedName name="D_124">[35]DataList!#REF!</definedName>
+    <definedName name="D_125">[33]DataList!#REF!</definedName>
+    <definedName name="D_126">[34]DataList!#REF!</definedName>
+    <definedName name="D_127">[34]DataList!#REF!</definedName>
+    <definedName name="D_130">[35]DataList!#REF!</definedName>
+    <definedName name="D_131">[35]DataList!#REF!</definedName>
+    <definedName name="D_132">[35]DataList!#REF!</definedName>
+    <definedName name="D_133">[34]DataList!#REF!</definedName>
+    <definedName name="D_136">[34]DataList!#REF!</definedName>
+    <definedName name="D_13C" localSheetId="0">#REF!</definedName>
     <definedName name="D_13C">#REF!</definedName>
+    <definedName name="D_13D" localSheetId="0">#REF!</definedName>
     <definedName name="D_13D">#REF!</definedName>
+    <definedName name="D_13E" localSheetId="0">#REF!</definedName>
     <definedName name="D_13E">#REF!</definedName>
-    <definedName name="D_13F">[36]DataList!#REF!</definedName>
-    <definedName name="D_170">[37]DataList!#REF!</definedName>
-    <definedName name="D_171">[37]DataList!#REF!</definedName>
-    <definedName name="D_180">[36]DataList!#REF!</definedName>
-    <definedName name="D_18C">[36]DataList!#REF!</definedName>
-    <definedName name="D_18D">[36]DataList!#REF!</definedName>
-    <definedName name="D_18E">[35]DataList!#REF!</definedName>
-    <definedName name="D_18F">[34]DataList!#REF!</definedName>
-    <definedName name="D_1AD">[34]DataList!#REF!</definedName>
-    <definedName name="D_1AE">[37]DataList!#REF!</definedName>
-    <definedName name="D_1AF">[34]DataList!#REF!</definedName>
-    <definedName name="D_1B0">[35]DataList!#REF!</definedName>
-    <definedName name="D_1B4">[34]DataList!#REF!</definedName>
-    <definedName name="D_1B8">[34]DataList!#REF!</definedName>
-    <definedName name="D_1D0">[35]DataList!#REF!</definedName>
-    <definedName name="D_1EF">[34]DataList!#REF!</definedName>
-    <definedName name="D_280">[34]DataList!#REF!</definedName>
-    <definedName name="D_2A0">[36]DataList!#REF!</definedName>
-    <definedName name="D_2A1">[36]DataList!#REF!</definedName>
-    <definedName name="D_310">[36]DataList!#REF!</definedName>
-    <definedName name="D_311">[34]DataList!#REF!</definedName>
-    <definedName name="D_312">[35]DataList!#REF!</definedName>
-    <definedName name="D_314">[36]DataList!#REF!</definedName>
-    <definedName name="D_318">[36]DataList!#REF!</definedName>
+    <definedName name="D_13F" localSheetId="0">[35]DataList!#REF!</definedName>
+    <definedName name="D_13F">[35]DataList!#REF!</definedName>
+    <definedName name="D_170" localSheetId="0">[36]DataList!#REF!</definedName>
+    <definedName name="D_170">[36]DataList!#REF!</definedName>
+    <definedName name="D_171" localSheetId="0">[36]DataList!#REF!</definedName>
+    <definedName name="D_171">[36]DataList!#REF!</definedName>
+    <definedName name="D_180" localSheetId="0">[35]DataList!#REF!</definedName>
+    <definedName name="D_180">[35]DataList!#REF!</definedName>
+    <definedName name="D_18C">[35]DataList!#REF!</definedName>
+    <definedName name="D_18D">[35]DataList!#REF!</definedName>
+    <definedName name="D_18E">[34]DataList!#REF!</definedName>
+    <definedName name="D_18F">[33]DataList!#REF!</definedName>
+    <definedName name="D_1AD">[33]DataList!#REF!</definedName>
+    <definedName name="D_1AE">[36]DataList!#REF!</definedName>
+    <definedName name="D_1AF">[33]DataList!#REF!</definedName>
+    <definedName name="D_1B0">[34]DataList!#REF!</definedName>
+    <definedName name="D_1B4">[33]DataList!#REF!</definedName>
+    <definedName name="D_1B8">[33]DataList!#REF!</definedName>
+    <definedName name="D_1D0">[34]DataList!#REF!</definedName>
+    <definedName name="D_1EF">[33]DataList!#REF!</definedName>
+    <definedName name="D_280">[33]DataList!#REF!</definedName>
+    <definedName name="D_2A0">[35]DataList!#REF!</definedName>
+    <definedName name="D_2A1">[35]DataList!#REF!</definedName>
+    <definedName name="D_310">[35]DataList!#REF!</definedName>
+    <definedName name="D_311">[33]DataList!#REF!</definedName>
+    <definedName name="D_312">[34]DataList!#REF!</definedName>
+    <definedName name="D_314">[35]DataList!#REF!</definedName>
+    <definedName name="D_318">[35]DataList!#REF!</definedName>
+    <definedName name="D_31C" localSheetId="0">#REF!</definedName>
     <definedName name="D_31C">#REF!</definedName>
+    <definedName name="D_32C" localSheetId="0">#REF!</definedName>
     <definedName name="D_32C">#REF!</definedName>
+    <definedName name="D_338" localSheetId="0">#REF!</definedName>
     <definedName name="D_338">#REF!</definedName>
     <definedName name="D_340">#REF!</definedName>
-    <definedName name="D_380">[36]DataList!#REF!</definedName>
-    <definedName name="D_381">[34]DataList!#REF!</definedName>
+    <definedName name="D_380">[35]DataList!#REF!</definedName>
+    <definedName name="D_381">[33]DataList!#REF!</definedName>
+    <definedName name="D_390" localSheetId="0">#REF!</definedName>
     <definedName name="D_390">#REF!</definedName>
-    <definedName name="D_3A0">[36]DataList!#REF!</definedName>
+    <definedName name="D_3A0">[35]DataList!#REF!</definedName>
+    <definedName name="D_3A1" localSheetId="0">#REF!</definedName>
     <definedName name="D_3A1">#REF!</definedName>
-    <definedName name="D_3A5">[34]DataList!#REF!</definedName>
-    <definedName name="D_3A6">[34]DataList!#REF!</definedName>
-    <definedName name="D_3A8">[34]DataList!#REF!</definedName>
-    <definedName name="D_3B0">[35]DataList!#REF!</definedName>
-    <definedName name="D_3B8">[34]DataList!#REF!</definedName>
-    <definedName name="D_3B9">[34]DataList!#REF!</definedName>
-    <definedName name="D_3BF">[34]DataList!#REF!</definedName>
-    <definedName name="D_3C0">[34]DataList!#REF!</definedName>
-    <definedName name="D_3D0">[36]DataList!#REF!</definedName>
-    <definedName name="D_3D1">[36]DataList!#REF!</definedName>
-    <definedName name="D_3D2">[35]DataList!#REF!</definedName>
-    <definedName name="D_3D4">[36]DataList!#REF!</definedName>
-    <definedName name="D_3D5">[34]DataList!#REF!</definedName>
-    <definedName name="D_3D6">[35]DataList!#REF!</definedName>
-    <definedName name="D_3D7">[34]DataList!#REF!</definedName>
-    <definedName name="D_3D8">[35]DataList!#REF!</definedName>
-    <definedName name="D_3D9">[34]DataList!#REF!</definedName>
-    <definedName name="D_3E8">[35]DataList!#REF!</definedName>
-    <definedName name="D_3F4">[36]DataList!#REF!</definedName>
-    <definedName name="D_3F5">[36]DataList!#REF!</definedName>
-    <definedName name="D_3F6">[36]DataList!#REF!</definedName>
-    <definedName name="D_3Fx">[35]DataList!#REF!</definedName>
-    <definedName name="D_4Fx">[36]DataList!#REF!</definedName>
+    <definedName name="D_3A5">[33]DataList!#REF!</definedName>
+    <definedName name="D_3A6">[33]DataList!#REF!</definedName>
+    <definedName name="D_3A8">[33]DataList!#REF!</definedName>
+    <definedName name="D_3B0">[34]DataList!#REF!</definedName>
+    <definedName name="D_3B8">[33]DataList!#REF!</definedName>
+    <definedName name="D_3B9">[33]DataList!#REF!</definedName>
+    <definedName name="D_3BF">[33]DataList!#REF!</definedName>
+    <definedName name="D_3C0">[33]DataList!#REF!</definedName>
+    <definedName name="D_3D0">[35]DataList!#REF!</definedName>
+    <definedName name="D_3D1">[35]DataList!#REF!</definedName>
+    <definedName name="D_3D2">[34]DataList!#REF!</definedName>
+    <definedName name="D_3D4">[35]DataList!#REF!</definedName>
+    <definedName name="D_3D5">[33]DataList!#REF!</definedName>
+    <definedName name="D_3D6">[34]DataList!#REF!</definedName>
+    <definedName name="D_3D7">[33]DataList!#REF!</definedName>
+    <definedName name="D_3D8">[34]DataList!#REF!</definedName>
+    <definedName name="D_3D9">[33]DataList!#REF!</definedName>
+    <definedName name="D_3E8">[34]DataList!#REF!</definedName>
+    <definedName name="D_3F4">[35]DataList!#REF!</definedName>
+    <definedName name="D_3F5">[35]DataList!#REF!</definedName>
+    <definedName name="D_3F6">[35]DataList!#REF!</definedName>
+    <definedName name="D_3Fx">[34]DataList!#REF!</definedName>
+    <definedName name="D_4Fx">[35]DataList!#REF!</definedName>
+    <definedName name="D_61E" localSheetId="0">#REF!</definedName>
     <definedName name="D_61E">#REF!</definedName>
+    <definedName name="D_61F" localSheetId="0">#REF!</definedName>
     <definedName name="D_61F">#REF!</definedName>
-    <definedName name="D_63x">[36]DataList!#REF!</definedName>
+    <definedName name="D_63x" localSheetId="0">[35]DataList!#REF!</definedName>
+    <definedName name="D_63x">[35]DataList!#REF!</definedName>
+    <definedName name="DAISU" localSheetId="0">#REF!</definedName>
     <definedName name="DAISU">#REF!</definedName>
-    <definedName name="dasdg">[9]DataList!#REF!</definedName>
+    <definedName name="dasdg" localSheetId="0">[8]DataList!#REF!</definedName>
+    <definedName name="dasdg">[8]DataList!#REF!</definedName>
+    <definedName name="data" localSheetId="0">#REF!</definedName>
     <definedName name="data">#REF!</definedName>
     <definedName name="data2">#REF!</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
@@ -862,9 +936,12 @@
     <definedName name="datanew">#REF!</definedName>
     <definedName name="datanew2">#REF!</definedName>
     <definedName name="ＤＢＢＡＣＶＹＲＦＦＮＩＪＦＲＧＶＵＬＦＱＬＧＮＳＫＪＤＤＲＦＴＤＴＦＯＵＯＢＬＪＶＭＳＶＴＺＨＩＳＴＹＫＩＱＧＫＴＸＳＩＦＧＦＨＡＷＡＩＢＪＬＭＩＶＪＺＲＰＪＴＯＫＲＷＮＮＧＴＥＬＳＷＰＲＥＹＸＵＤＢＮＹＧＥＫＭＴＥＦＪＯＭＡＩＳＣＬＪＤＴＸＷＹＲＮＲＧＮＭＵＹＵＧＯＫＣＴＵＦＴＶＳＤＪＤＷＫＶＵＩＺＩＢＤＱＤＪＧＰＮＺＫＷＱＷＦＭＸＳＥＣＱＲＩＳＵＹＴＪＯＯＮＰＢＥＩＸＩＱＳＴＰＣＪＧＹＰＱＡＯＲＹＷＮＵＨＨＵＮＢＫＡＭＶＩＶＢＹＨＹＶＢＥＣＨＱＸＢＣＨＳＱＧＷＺＪＮＩＹＶＶＶＸＱＴＸＦＳＥＺＡＷＪＸ" hidden="1">#REF!</definedName>
-    <definedName name="DDDD">[38]DATA01!$C$2:$E$23</definedName>
+    <definedName name="DDDD">[37]DATA01!$C$2:$E$23</definedName>
+    <definedName name="DDI_FZM_9" localSheetId="0">#REF!</definedName>
     <definedName name="DDI_FZM_9">#REF!</definedName>
+    <definedName name="ＤＥＡＭＵＱＩＺＢＬ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＤＥＡＭＵＱＩＺＢＬ" hidden="1">#REF!</definedName>
+    <definedName name="DEPT_" localSheetId="0">#REF!</definedName>
     <definedName name="DEPT_">#REF!</definedName>
     <definedName name="DESCRIPTION">#REF!</definedName>
     <definedName name="ＤＨＴＲＦＧＸＡＪＯＩＹＷＷＶＹＱＵＸＦＴＳＡＵＱＣＲＧＦＷＱＢＳＹＥＶＶＯＰＣＧＮＢＬＡＭＶＢＶＵＲＡＺＵＺＣＡＧＰＰＡＢＦＲＩＷＥＶＹＨＬ" hidden="1">#REF!</definedName>
@@ -898,77 +975,108 @@
     <definedName name="DID_F4XX">#REF!</definedName>
     <definedName name="DID_F6xx">#REF!</definedName>
     <definedName name="DID_F8XX">#REF!</definedName>
-    <definedName name="ＤＬＵＥＯＬＧＷＡＡＡＣＢＦＵＡＡＩＫＬＨＵＢＹＱＰＺＯＱＸＣＮＴＮＧＵＦＥＳＪＳＬＮＲＷＴＤＢＭＸＫＧＥＫＳＺＫＥＪＶＳＰＦＰＳＷＬＰＰＰＲＤＧＫＺＦＦＮＰＱＭＺＧＣＶＬＮＸＬＣＡＲＹＬＬＺＤＪＸＨＸＪＳＦＳＸＵＤＶＧＹＥＪＯＸＥＩＪＯＺＴＵＫＮＸＢＷＭＪＪＪＬＥＨＬＴＧＧＯＪＫＫＹＯＭＤＹＩＤＺＦＬＣＣＶＷＪＮＵＩＰＢＫＱＫＪＧＰＮＺＱＷＺＸＤＱＡＢＧＳＩＸＦＶＹＩＭＨＷＵＵＵＷＰＬＬＹＲＺＢＣＰＤＴＬＪＤＮＬＳＸＰＯＩＢＰＡＧＮＥＮＧＩＶＳＰＹＷＩＴＦＩＧＭＮＶＦＧＬＱＮＣＫＴＵＲＭＣＧＨＧＩＢＸＢ">[14]P1_cover!ＤＬＵＥＯＬＧＷＡＡＡＣＢＦＵＡＡＩＫＬＨＵＢＹＱＰＺＯＱＸＣＮＴＮＧＵＦＥＳＪＳＬＮＲＷＴＤＢＭＸＫＧＥＫＳＺＫＥＪＶＳＰＦＰＳＷＬＰＰＰＲＤＧＫＺＦＦＮＰＱＭＺＧＣＶＬＮＸＬＣＡＲＹＬＬＺＤＪＸＨＸＪＳＦＳＸＵＤＶＧＹＥＪＯＸＥＩＪＯＺＴＵＫＮＸＢＷＭＪＪＪＬＥＨＬＴＧＧＯＪＫＫＹＯＭＤＹＩＤＺＦＬＣＣＶＷＪＮＵＩＰＢＫＱＫＪＧＰＮＺＱＷＺＸＤＱＡＢＧＳＩＸＦＶＹＩＭＨＷＵＵＵＷＰＬＬＹＲＺＢＣＰＤＴＬＪＤＮＬＳＸＰＯＩＢＰＡＧＮＥＮＧＩＶＳＰＹＷＩＴＦＩＧＭＮＶＦＧＬＱＮＣＫＴＵＲＭＣＧＨＧＩＢＸＢ</definedName>
-    <definedName name="dns">[6]result!#REF!</definedName>
-    <definedName name="DRBFM_einfach">[26]Parameterlist_1!$B$16</definedName>
-    <definedName name="DRBFM_komplex">[26]Parameterlist_1!$B$18</definedName>
-    <definedName name="DRBFM_normal">[26]Parameterlist_1!$B$17</definedName>
-    <definedName name="DTR1・">[39]選酋表!#REF!</definedName>
+    <definedName name="ＤＬＵＥＯＬＧＷＡＡＡＣＢＦＵＡＡＩＫＬＨＵＢＹＱＰＺＯＱＸＣＮＴＮＧＵＦＥＳＪＳＬＮＲＷＴＤＢＭＸＫＧＥＫＳＺＫＥＪＶＳＰＦＰＳＷＬＰＰＰＲＤＧＫＺＦＦＮＰＱＭＺＧＣＶＬＮＸＬＣＡＲＹＬＬＺＤＪＸＨＸＪＳＦＳＸＵＤＶＧＹＥＪＯＸＥＩＪＯＺＴＵＫＮＸＢＷＭＪＪＪＬＥＨＬＴＧＧＯＪＫＫＹＯＭＤＹＩＤＺＦＬＣＣＶＷＪＮＵＩＰＢＫＱＫＪＧＰＮＺＱＷＺＸＤＱＡＢＧＳＩＸＦＶＹＩＭＨＷＵＵＵＷＰＬＬＹＲＺＢＣＰＤＴＬＪＤＮＬＳＸＰＯＩＢＰＡＧＮＥＮＧＩＶＳＰＹＷＩＴＦＩＧＭＮＶＦＧＬＱＮＣＫＴＵＲＭＣＧＨＧＩＢＸＢ">[13]P1_cover!ＤＬＵＥＯＬＧＷＡＡＡＣＢＦＵＡＡＩＫＬＨＵＢＹＱＰＺＯＱＸＣＮＴＮＧＵＦＥＳＪＳＬＮＲＷＴＤＢＭＸＫＧＥＫＳＺＫＥＪＶＳＰＦＰＳＷＬＰＰＰＲＤＧＫＺＦＦＮＰＱＭＺＧＣＶＬＮＸＬＣＡＲＹＬＬＺＤＪＸＨＸＪＳＦＳＸＵＤＶＧＹＥＪＯＸＥＩＪＯＺＴＵＫＮＸＢＷＭＪＪＪＬＥＨＬＴＧＧＯＪＫＫＹＯＭＤＹＩＤＺＦＬＣＣＶＷＪＮＵＩＰＢＫＱＫＪＧＰＮＺＱＷＺＸＤＱＡＢＧＳＩＸＦＶＹＩＭＨＷＵＵＵＷＰＬＬＹＲＺＢＣＰＤＴＬＪＤＮＬＳＸＰＯＩＢＰＡＧＮＥＮＧＩＶＳＰＹＷＩＴＦＩＧＭＮＶＦＧＬＱＮＣＫＴＵＲＭＣＧＨＧＩＢＸＢ</definedName>
+    <definedName name="dns">[5]result!#REF!</definedName>
+    <definedName name="DRBFM_einfach">[25]Parameterlist_1!$B$16</definedName>
+    <definedName name="DRBFM_komplex">[25]Parameterlist_1!$B$18</definedName>
+    <definedName name="DRBFM_normal">[25]Parameterlist_1!$B$17</definedName>
+    <definedName name="DTR1・">[38]選酋表!#REF!</definedName>
+    <definedName name="DVPNUMBER" localSheetId="0">#REF!</definedName>
     <definedName name="DVPNUMBER">#REF!</definedName>
-    <definedName name="EE">[38]DATA01!$I$4:$P$18</definedName>
+    <definedName name="EE">[37]DATA01!$I$4:$P$18</definedName>
+    <definedName name="ＥＦＱＥＧＮＬＤＪＷＷＫＯＵＩＳＩＰＣＰＵＲ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＥＦＱＥＧＮＬＤＪＷＷＫＯＵＩＳＩＰＣＰＵＲ" hidden="1">#REF!</definedName>
+    <definedName name="ei" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
     <definedName name="ei" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
     <definedName name="Einleitung_Testspezifikation_URT_DE">#REF!</definedName>
     <definedName name="Einleitung_URT_Testspezifikation_DE">#REF!</definedName>
-    <definedName name="el">[6]result!#REF!</definedName>
+    <definedName name="el">[5]result!#REF!</definedName>
     <definedName name="END">'[3]002(4)'!#REF!</definedName>
     <definedName name="ENG">#REF!</definedName>
-    <definedName name="ＥＰＪＯＪＹＺＰＺＣＧＢＲＶＡＣＯＲＶＫＱＱＹＡＢＤＬＨＺＱＲＢＱＳＺＸＰＶＩＩＷＡＧＵＢＮＷＪＷＣＺＩＺＬＤＩＬＪＰＸＡＢＧＳＰＥＦＶＹＩＭＨＷＵＵＴＷＯＳＷＬＬＴＯＰＬＸＭＢＡＲＬＷＲＭＴＹＮＧＧＵＹＥＴＣＬＵＡＵＴＱＺＹＪＢＧＪＨＮＷＷＨＥＱＨＶＤＴＸＧＫＨＦＦＥＨＺＷＺＰＣＶＤＦＧＣＯＱＩＧＡＬＧＢＩＮＦＦＹＲＦＱＷＥＵＤＷＹＸＷＴＣＭＸＪＭＫＱＳＺＫＫＯＬＡＩＲＢＡＶＫＰＰＯＲＮＲＧＮＭＡＢＸＫＲＯＧＸＹＩＷＺＧＬＶＣＷＰＣＯＮＢＳＹＡＮＡＧＤＭＯＺＬＨＦＬＵＢＭＧＫＷＴＩＪＺＪＭＱＬＢＦＧＱＣ">[14]P1_cover!ＥＰＪＯＪＹＺＰＺＣＧＢＲＶＡＣＯＲＶＫＱＱＹＡＢＤＬＨＺＱＲＢＱＳＺＸＰＶＩＩＷＡＧＵＢＮＷＪＷＣＺＩＺＬＤＩＬＪＰＸＡＢＧＳＰＥＦＶＹＩＭＨＷＵＵＴＷＯＳＷＬＬＴＯＰＬＸＭＢＡＲＬＷＲＭＴＹＮＧＧＵＹＥＴＣＬＵＡＵＴＱＺＹＪＢＧＪＨＮＷＷＨＥＱＨＶＤＴＸＧＫＨＦＦＥＨＺＷＺＰＣＶＤＦＧＣＯＱＩＧＡＬＧＢＩＮＦＦＹＲＦＱＷＥＵＤＷＹＸＷＴＣＭＸＪＭＫＱＳＺＫＫＯＬＡＩＲＢＡＶＫＰＰＯＲＮＲＧＮＭＡＢＸＫＲＯＧＸＹＩＷＺＧＬＶＣＷＰＣＯＮＢＳＹＡＮＡＧＤＭＯＺＬＨＦＬＵＢＭＧＫＷＴＩＪＺＪＭＱＬＢＦＧＱＣ</definedName>
-    <definedName name="EQ_CV_VEIRC_L1_CD_3">'[22]Special ECU Information'!#REF!</definedName>
-    <definedName name="EQ_CV_VEIRC_L1_IDC_3">'[22]Special ECU Information'!#REF!</definedName>
-    <definedName name="EQ_CV_VEIRC_L2_3">'[22]Special ECU Information'!#REF!</definedName>
-    <definedName name="EQ_CV_VEIRC_L3_3">'[22]Special ECU Information'!#REF!</definedName>
-    <definedName name="EQ_CV_VEIRC_L3_NAV_3">'[22]Special ECU Information'!#REF!</definedName>
-    <definedName name="EQ_CV_VEIRC_L4_3">'[22]Special ECU Information'!#REF!</definedName>
-    <definedName name="EQ_CV_VEIRC_L4_NAV_3">'[22]Special ECU Information'!#REF!</definedName>
-    <definedName name="EQ_CV_VEIRC_L5_3">'[22]Special ECU Information'!#REF!</definedName>
-    <definedName name="EQ_CV_VEIRC_L5_NAV_3">'[22]Special ECU Information'!#REF!</definedName>
+    <definedName name="ＥＰＪＯＪＹＺＰＺＣＧＢＲＶＡＣＯＲＶＫＱＱＹＡＢＤＬＨＺＱＲＢＱＳＺＸＰＶＩＩＷＡＧＵＢＮＷＪＷＣＺＩＺＬＤＩＬＪＰＸＡＢＧＳＰＥＦＶＹＩＭＨＷＵＵＴＷＯＳＷＬＬＴＯＰＬＸＭＢＡＲＬＷＲＭＴＹＮＧＧＵＹＥＴＣＬＵＡＵＴＱＺＹＪＢＧＪＨＮＷＷＨＥＱＨＶＤＴＸＧＫＨＦＦＥＨＺＷＺＰＣＶＤＦＧＣＯＱＩＧＡＬＧＢＩＮＦＦＹＲＦＱＷＥＵＤＷＹＸＷＴＣＭＸＪＭＫＱＳＺＫＫＯＬＡＩＲＢＡＶＫＰＰＯＲＮＲＧＮＭＡＢＸＫＲＯＧＸＹＩＷＺＧＬＶＣＷＰＣＯＮＢＳＹＡＮＡＧＤＭＯＺＬＨＦＬＵＢＭＧＫＷＴＩＪＺＪＭＱＬＢＦＧＱＣ">[13]P1_cover!ＥＰＪＯＪＹＺＰＺＣＧＢＲＶＡＣＯＲＶＫＱＱＹＡＢＤＬＨＺＱＲＢＱＳＺＸＰＶＩＩＷＡＧＵＢＮＷＪＷＣＺＩＺＬＤＩＬＪＰＸＡＢＧＳＰＥＦＶＹＩＭＨＷＵＵＴＷＯＳＷＬＬＴＯＰＬＸＭＢＡＲＬＷＲＭＴＹＮＧＧＵＹＥＴＣＬＵＡＵＴＱＺＹＪＢＧＪＨＮＷＷＨＥＱＨＶＤＴＸＧＫＨＦＦＥＨＺＷＺＰＣＶＤＦＧＣＯＱＩＧＡＬＧＢＩＮＦＦＹＲＦＱＷＥＵＤＷＹＸＷＴＣＭＸＪＭＫＱＳＺＫＫＯＬＡＩＲＢＡＶＫＰＰＯＲＮＲＧＮＭＡＢＸＫＲＯＧＸＹＩＷＺＧＬＶＣＷＰＣＯＮＢＳＹＡＮＡＧＤＭＯＺＬＨＦＬＵＢＭＧＫＷＴＩＪＺＪＭＱＬＢＦＧＱＣ</definedName>
+    <definedName name="EQ_CV_VEIRC_L1_CD_3">'[21]Special ECU Information'!#REF!</definedName>
+    <definedName name="EQ_CV_VEIRC_L1_IDC_3">'[21]Special ECU Information'!#REF!</definedName>
+    <definedName name="EQ_CV_VEIRC_L2_3">'[21]Special ECU Information'!#REF!</definedName>
+    <definedName name="EQ_CV_VEIRC_L3_3">'[21]Special ECU Information'!#REF!</definedName>
+    <definedName name="EQ_CV_VEIRC_L3_NAV_3">'[21]Special ECU Information'!#REF!</definedName>
+    <definedName name="EQ_CV_VEIRC_L4_3">'[21]Special ECU Information'!#REF!</definedName>
+    <definedName name="EQ_CV_VEIRC_L4_NAV_3">'[21]Special ECU Information'!#REF!</definedName>
+    <definedName name="EQ_CV_VEIRC_L5_3">'[21]Special ECU Information'!#REF!</definedName>
+    <definedName name="EQ_CV_VEIRC_L5_NAV_3">'[21]Special ECU Information'!#REF!</definedName>
+    <definedName name="er" localSheetId="0">Info_sheet!er</definedName>
     <definedName name="er">[0]!er</definedName>
-    <definedName name="evp">[6]result!#REF!</definedName>
+    <definedName name="evp" localSheetId="0">[5]result!#REF!</definedName>
+    <definedName name="evp">[5]result!#REF!</definedName>
+    <definedName name="ewr" localSheetId="0">Info_sheet!ewr</definedName>
     <definedName name="ewr">[0]!ewr</definedName>
+    <definedName name="eww" localSheetId="0">Info_sheet!eww</definedName>
     <definedName name="eww">[0]!eww</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_9">[22]DID!#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_9" localSheetId="0">[21]DID!#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_9">[21]DID!#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Extract">#REF!</definedName>
+    <definedName name="ｆ" localSheetId="0">'[3]002(4)'!#REF!</definedName>
     <definedName name="ｆ">'[3]002(4)'!#REF!</definedName>
+    <definedName name="F4XX" localSheetId="0">#REF!</definedName>
     <definedName name="F4XX">#REF!</definedName>
+    <definedName name="F8XX" localSheetId="0">#REF!</definedName>
     <definedName name="F8XX">#REF!</definedName>
-    <definedName name="Faktor_Enforced_CR">[26]Parameterlist_1!$B$52</definedName>
-    <definedName name="Faktor_Enforced_FR">[26]Parameterlist_1!$B$50</definedName>
-    <definedName name="Faktor_FCI_dyn">[26]Parameterlist_1!$B$60</definedName>
-    <definedName name="Faktor_FCI_stat">[26]Parameterlist_1!$B$61</definedName>
-    <definedName name="Faktor_Requirements_Documentation">[26]Parameterlist_1!$B$4</definedName>
-    <definedName name="Faktor_SW_A">[26]Parameterlist_1!$B$55</definedName>
-    <definedName name="Faktor_SW_M">[26]Parameterlist_1!$B$56</definedName>
-    <definedName name="Faktor_Unit_Reference_Test">[26]Parameterlist_1!$B$74</definedName>
-    <definedName name="FDEF_Offset">[26]Parameterlist_1!$B$38</definedName>
+    <definedName name="Faktor_Enforced_CR">[25]Parameterlist_1!$B$52</definedName>
+    <definedName name="Faktor_Enforced_FR">[25]Parameterlist_1!$B$50</definedName>
+    <definedName name="Faktor_FCI_dyn">[25]Parameterlist_1!$B$60</definedName>
+    <definedName name="Faktor_FCI_stat">[25]Parameterlist_1!$B$61</definedName>
+    <definedName name="Faktor_Requirements_Documentation">[25]Parameterlist_1!$B$4</definedName>
+    <definedName name="Faktor_SW_A">[25]Parameterlist_1!$B$55</definedName>
+    <definedName name="Faktor_SW_M">[25]Parameterlist_1!$B$56</definedName>
+    <definedName name="Faktor_Unit_Reference_Test">[25]Parameterlist_1!$B$74</definedName>
+    <definedName name="FDEF_Offset">[25]Parameterlist_1!$B$38</definedName>
+    <definedName name="ＦＩＭ" localSheetId="0">Info_sheet!ＦＩＭ</definedName>
     <definedName name="ＦＩＭ">[0]!ＦＩＭ</definedName>
-    <definedName name="FIMOD">[33]!FIMOD</definedName>
+    <definedName name="FIMOD">[32]!FIMOD</definedName>
+    <definedName name="FIMOD_temp" localSheetId="0">Info_sheet!FIMOD_temp</definedName>
     <definedName name="FIMOD_temp">[0]!FIMOD_temp</definedName>
+    <definedName name="FIRSTHOME" localSheetId="0">#REF!</definedName>
     <definedName name="FIRSTHOME">#REF!</definedName>
+    <definedName name="FORMDATA" localSheetId="0">#REF!</definedName>
     <definedName name="FORMDATA">#REF!</definedName>
-    <definedName name="fp">[6]result!#REF!</definedName>
-    <definedName name="ft">[6]result!#REF!</definedName>
+    <definedName name="fp" localSheetId="0">[5]result!#REF!</definedName>
+    <definedName name="fp">[5]result!#REF!</definedName>
+    <definedName name="ft" localSheetId="0">[5]result!#REF!</definedName>
+    <definedName name="ft">[5]result!#REF!</definedName>
+    <definedName name="FUSE2" localSheetId="0">#REF!</definedName>
     <definedName name="FUSE2">#REF!</definedName>
+    <definedName name="Fußzeile_links" localSheetId="0">#REF!</definedName>
     <definedName name="Fußzeile_links">#REF!</definedName>
     <definedName name="Fußzeile_mitte">#REF!</definedName>
     <definedName name="ＦＷＸＩＷＹＦＫＶＢＮＢＭＬＺＱＺＳＵＨＵＡＸＧＥＱＢＮＱＷＥＭＷＱＶＷＬＭＣＭＰＴＮＤＩＩＨＫＶＺＣＳＹＹＧＣＹＬＳＰＨＹＺＪＸＡＨＦＷＤＱＱＤＩＧＱＦＳＡＮＢＧＤＭＥＰＨＮＰＢＪＲＵＶＡＭＪＹＺＰＳＣＧＢＱＯＯＮＹＢＦＮＢＡＩＤＦＡＮＢＲＱＫＵＰＬＳＸＯＯＩＩＶＡＧＵＲＤＭＳＭＫＨＱＰＡＳＹＢＺＥＮＮＹＺＥＰＣＫＡＤＮＲＭＣＺＲＴＭＩＭＢＯＨＰＲＳＯＢＰＦＸＨＲＭＨＯＴＬＬＲＦＱＷＤＵＤＷＹＬＦＤＡＪＩＴＤＧＥＫＭＷＸＣＨＥＴＢＫＵＥＢＷＬＱＱＰＳＫＰＥＫＫＳＵＶＲＤＬＡＲＳＣＱＴＡＦＨＢＵＨＴＳＧＸ" hidden="1">#REF!</definedName>
     <definedName name="ＦＺＳＦＤＫＡＪＪＷＱＰＭＶＴＦＱＣＦＤＪＫＳＸＣＧＥＴＡＫＵＤＢＶＬＱＱＰＲＯＲＨＮＮＶＸＭＹＧＣＵＬＭＸＬＮＵＺＣＶＯＣＮＮＢＲＣＥＲＥＫＨＱＯＡＬＸＴＲＸＲＣＶＡＭＪＹＺＰＪＮＩＹＤＤＣＦＱＵＸＭＴＳＡＣＥＱＹＵＭＤＥＯＤＦＭＫＣＩＴＨＬＲＦＰＦＲＡＮＸＵＤＶＧＹＥＨＦＫＴＡＥＦＫＶＴＩＩＺＣＹＴＪＨＨＧＪＢＨＰＤＣＫＦＨＣＰＤＴＳＪＤＮＢＩＮＦＦＹＹＭＱＷＫＵＫＷＦＬＦＥＢＱＢＴＹＢＺＦＯＯＺＡＥＱＨＶＤＴＸＧＫＦＶＳＬＯＧＤＧＷＪＣＫＭＮＷＫＡＳＰＫＵＰＬＳＸＳＭＦＳＥＫＲＩＱＪＬＹＳＲＯＸＷＨ" hidden="1">#REF!</definedName>
     <definedName name="F開発日程">#REF!</definedName>
-    <definedName name="G">[40]data!#REF!</definedName>
+    <definedName name="G">[39]data!#REF!</definedName>
+    <definedName name="ＧＣＡＧＯＷＧＡＦＲＯＤＥＵＥＨＬＨＬＬＬＮＪＮＣＪＩＱＳＵＰＣＫＧＹＩＳＧＪＱＯＦＭＺＺＭＱＥＯＥＱＺＭＺＦＣＬＣＯＧＬＯＭＳＡＤＤＩＵＲＧＨＸＡＫＯＪＺＷＷＷＹＲＵＮＢＡＩＤＦＡＮＢＲＱＨＢＲＮＵＺＱＱＫＫＸＫＹＩＹＫＴＺＴＰＹＸＩＡＦＩＧＭＶＶＧＨＬＸＯＣＫＢＥＮＲＬＪＪＩＬＤＡＤＳＧＺＨＩＫＧＳＨＺＸＲＢＸＳＺＥＷＶＰＩＷＨＮＣＬＥＧＴＮＭＩＸＪＵＧＪＨＮＯＷＨＨＭＲＶＤＭＷＧＤＹＯＳＳＳＵＷＺＯＶＵＤＥＧＣＯＷＳＫＢＣＭＢＤＫＰＡＨＡＯＺＺＮＤＭＦＨＵＨＮＬＪＶＧＳＯＭＳＡＩＳＭＲＤＡＰＱＧＱＴ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＧＣＡＧＯＷＧＡＦＲＯＤＥＵＥＨＬＨＬＬＬＮＪＮＣＪＩＱＳＵＰＣＫＧＹＩＳＧＪＱＯＦＭＺＺＭＱＥＯＥＱＺＭＺＦＣＬＣＯＧＬＯＭＳＡＤＤＩＵＲＧＨＸＡＫＯＪＺＷＷＷＹＲＵＮＢＡＩＤＦＡＮＢＲＱＨＢＲＮＵＺＱＱＫＫＸＫＹＩＹＫＴＺＴＰＹＸＩＡＦＩＧＭＶＶＧＨＬＸＯＣＫＢＥＮＲＬＪＪＩＬＤＡＤＳＧＺＨＩＫＧＳＨＺＸＲＢＸＳＺＥＷＶＰＩＷＨＮＣＬＥＧＴＮＭＩＸＪＵＧＪＨＮＯＷＨＨＭＲＶＤＭＷＧＤＹＯＳＳＳＵＷＺＯＶＵＤＥＧＣＯＷＳＫＢＣＭＢＤＫＰＡＨＡＯＺＺＮＤＭＦＨＵＨＮＬＪＶＧＳＯＭＳＡＩＳＭＲＤＡＰＱＧＱＴ" hidden="1">#REF!</definedName>
+    <definedName name="General_E" localSheetId="0">#REF!</definedName>
     <definedName name="General_E">#REF!</definedName>
+    <definedName name="General_J" localSheetId="0">#REF!</definedName>
     <definedName name="General_J">#REF!</definedName>
+    <definedName name="gh" localSheetId="0">Info_sheet!gh</definedName>
     <definedName name="gh">[0]!gh</definedName>
+    <definedName name="ghjk" localSheetId="0">Info_sheet!ghjk</definedName>
     <definedName name="ghjk">[0]!ghjk</definedName>
+    <definedName name="ＧＪＴＸＳＨＦＫＮＦＩＭＵＩＨＰＫＭＩＵＪＹＸＯＪＦＡＨＭＤＤＸＸＬＰＶＪＴＪＶＥＫＫＨＱＯＡＳＸＡＹＥＭＮＹＹＤＰＦＵＣＲＡＦＺＰＮＮＭＰＨＥＨＷＫＣＬＭＯＫＷＵＭＪＥＯＪＦＬＲＩＩＢＶＩＴＯＦＯＧＪＶＱＷＦＥＰＡＭＰＮＴＶＣＮＯＳＸＴＢＫＵＥＢＶＬＱＱＰＳＫＨＫＡＧＧＯＣＹＫＳＯＧＸＹＪＱＸＣＮＵＯＢＭＭＡＲＺＳＵＨＵＡＸＧＦＱＢＮＪＨＮＷＺＴＸＪＨＶＷＭＸＺＤＹＯＳＴＳＵＧＪＣＪＪＲＳＵＱＣＫＧＹＰＱＡＰＲＹＷＯＵＨＮＲＸＬＶＬＸＧＲＷＴＣＵＦＸＤＧＥＫＳＺＤＥＪＶＳＨＲＶＥＩＤＴＱＲＱＳＬＯＳＡＮ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＧＪＴＸＳＨＦＫＮＦＩＭＵＩＨＰＫＭＩＵＪＹＸＯＪＦＡＨＭＤＤＸＸＬＰＶＪＴＪＶＥＫＫＨＱＯＡＳＸＡＹＥＭＮＹＹＤＰＦＵＣＲＡＦＺＰＮＮＭＰＨＥＨＷＫＣＬＭＯＫＷＵＭＪＥＯＪＦＬＲＩＩＢＶＩＴＯＦＯＧＪＶＱＷＦＥＰＡＭＰＮＴＶＣＮＯＳＸＴＢＫＵＥＢＶＬＱＱＰＳＫＨＫＡＧＧＯＣＹＫＳＯＧＸＹＪＱＸＣＮＵＯＢＭＭＡＲＺＳＵＨＵＡＸＧＦＱＢＮＪＨＮＷＺＴＸＪＨＶＷＭＸＺＤＹＯＳＴＳＵＧＪＣＪＪＲＳＵＱＣＫＧＹＰＱＡＰＲＹＷＯＵＨＮＲＸＬＶＬＸＧＲＷＴＣＵＦＸＤＧＥＫＳＺＤＥＪＶＳＨＲＶＥＩＤＴＱＲＱＳＬＯＳＡＮ" hidden="1">#REF!</definedName>
+    <definedName name="ＧＲＭＨＯＴＬＬＥＥＳＷＣＲＡＱＣＬＢＺＷＦＥＰＨＭＰＮＣＤＮＯＴＦＶＫＳＩＬＶＺＵＪＨＨＧＪＣＧＶＩＢＪＬＭＩＶＪＺＲＰＪＧＣＪＯＦＦＺＲＣＪＱＧＰＲＥＹＸＵＨＴＥＱＴＲＸＹＧＲＲＷＢＹＣＭＷＦＣＸＮＲＳＲＴＭＩＭＢＩＨＰＲＴＦＮＪＢＳＴＳＵＢＧＲＹＲＫＹＪＪＸＮＷＰＲＥＲＸＵＴＦＱＣＹＷＣＫＳＣＷＢＮＫＺＵＦＨＬＧＷＡＢＡＣＯＣＲＹＹＧＨＪＦＲＺＶＮＥＦＰＥＧＮＷＤＱＱＤＨＯＣＭＢＮＷＪＨＥＮＦＱＩＮＱＯＵＣＫＯＯＴＦＣＲＪＭＷＡＵＫＩＩＭＦＩＭＵＨＨＰＫＬＨＵＩＸＷＮＩＳＮＸＣＴＴＮＮＡＦＬＺＪＹＬ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＧＲＭＨＯＴＬＬＥＥＳＷＣＲＡＱＣＬＢＺＷＦＥＰＨＭＰＮＣＤＮＯＴＦＶＫＳＩＬＶＺＵＪＨＨＧＪＣＧＶＩＢＪＬＭＩＶＪＺＲＰＪＧＣＪＯＦＦＺＲＣＪＱＧＰＲＥＹＸＵＨＴＥＱＴＲＸＹＧＲＲＷＢＹＣＭＷＦＣＸＮＲＳＲＴＭＩＭＢＩＨＰＲＴＦＮＪＢＳＴＳＵＢＧＲＹＲＫＹＪＪＸＮＷＰＲＥＲＸＵＴＦＱＣＹＷＣＫＳＣＷＢＮＫＺＵＦＨＬＧＷＡＢＡＣＯＣＲＹＹＧＨＪＦＲＺＶＮＥＦＰＥＧＮＷＤＱＱＤＨＯＣＭＢＮＷＪＨＥＮＦＱＩＮＱＯＵＣＫＯＯＴＦＣＲＪＭＷＡＵＫＩＩＭＦＩＭＵＨＨＰＫＬＨＵＩＸＷＮＩＳＮＸＣＴＴＮＮＡＦＬＺＪＹＬ" hidden="1">#REF!</definedName>
-    <definedName name="ＧＷＩＲＸＲＱＮＷＵＧＸＤＧＥＫＪＵＵＺＬＢＱＹＯＲＢＦＡＱＨＧＪＢＹＢＱＥＸＦＧＩＥＲＨＺＸＲＢＷＳＺＥＶＶＰＩＶＳＺＱＹＲＴＧＡＺＷＦＥＰＡＷＶＡＣＪＵＶＡＥＣＲＹＩＳＱＬＢＧＧＦＨＡＷＡＰＷＶＤＦＨＣＱＭＥＶＸＨＶＸＥＪＵＢＵＮＢＭＭＡＱＺＳＺＭＳＰＹＸＭＺＶＴＺＨＰＳＸＩＧＶＶＭＷＺＤＸＮＳＳＮＺＣＧＶＢＢＪＬＭＩＶＣＹＲＡＫＹＢＨＧＸＥＲＲＥＪＰＤＮＣＯＸＫＸＤＤＵＧＸＤＧＥＫＳＡＤＥＪＶＳＨＩＹＢＬＰＨＥＦＥＲＵＹＧＬＴＯＰＬＸＭＢＱＬＶＱＬＳＸＰＰＩＩＷＡＡＫＡＭＶＢＶＵＲＡＹＫＢＨＫＩＱＱ">[14]P1_cover!ＧＷＩＲＸＲＱＮＷＵＧＸＤＧＥＫＪＵＵＺＬＢＱＹＯＲＢＦＡＱＨＧＪＢＹＢＱＥＸＦＧＩＥＲＨＺＸＲＢＷＳＺＥＶＶＰＩＶＳＺＱＹＲＴＧＡＺＷＦＥＰＡＷＶＡＣＪＵＶＡＥＣＲＹＩＳＱＬＢＧＧＦＨＡＷＡＰＷＶＤＦＨＣＱＭＥＶＸＨＶＸＥＪＵＢＵＮＢＭＭＡＱＺＳＺＭＳＰＹＸＭＺＶＴＺＨＰＳＸＩＧＶＶＭＷＺＤＸＮＳＳＮＺＣＧＶＢＢＪＬＭＩＶＣＹＲＡＫＹＢＨＧＸＥＲＲＥＪＰＤＮＣＯＸＫＸＤＤＵＧＸＤＧＥＫＳＡＤＥＪＶＳＨＩＹＢＬＰＨＥＦＥＲＵＹＧＬＴＯＰＬＸＭＢＱＬＶＱＬＳＸＰＰＩＩＷＡＡＫＡＭＶＢＶＵＲＡＹＫＢＨＫＩＱＱ</definedName>
+    <definedName name="ＧＷＩＲＸＲＱＮＷＵＧＸＤＧＥＫＪＵＵＺＬＢＱＹＯＲＢＦＡＱＨＧＪＢＹＢＱＥＸＦＧＩＥＲＨＺＸＲＢＷＳＺＥＶＶＰＩＶＳＺＱＹＲＴＧＡＺＷＦＥＰＡＷＶＡＣＪＵＶＡＥＣＲＹＩＳＱＬＢＧＧＦＨＡＷＡＰＷＶＤＦＨＣＱＭＥＶＸＨＶＸＥＪＵＢＵＮＢＭＭＡＱＺＳＺＭＳＰＹＸＭＺＶＴＺＨＰＳＸＩＧＶＶＭＷＺＤＸＮＳＳＮＺＣＧＶＢＢＪＬＭＩＶＣＹＲＡＫＹＢＨＧＸＥＲＲＥＪＰＤＮＣＯＸＫＸＤＤＵＧＸＤＧＥＫＳＡＤＥＪＶＳＨＩＹＢＬＰＨＥＦＥＲＵＹＧＬＴＯＰＬＸＭＢＱＬＶＱＬＳＸＰＰＩＩＷＡＡＫＡＭＶＢＶＵＲＡＹＫＢＨＫＩＱＱ">[13]P1_cover!ＧＷＩＲＸＲＱＮＷＵＧＸＤＧＥＫＪＵＵＺＬＢＱＹＯＲＢＦＡＱＨＧＪＢＹＢＱＥＸＦＧＩＥＲＨＺＸＲＢＷＳＺＥＶＶＰＩＶＳＺＱＹＲＴＧＡＺＷＦＥＰＡＷＶＡＣＪＵＶＡＥＣＲＹＩＳＱＬＢＧＧＦＨＡＷＡＰＷＶＤＦＨＣＱＭＥＶＸＨＶＸＥＪＵＢＵＮＢＭＭＡＱＺＳＺＭＳＰＹＸＭＺＶＴＺＨＰＳＸＩＧＶＶＭＷＺＤＸＮＳＳＮＺＣＧＶＢＢＪＬＭＩＶＣＹＲＡＫＹＢＨＧＸＥＲＲＥＪＰＤＮＣＯＸＫＸＤＤＵＧＸＤＧＥＫＳＡＤＥＪＶＳＨＩＹＢＬＰＨＥＦＥＲＵＹＧＬＴＯＰＬＸＭＢＱＬＶＱＬＳＸＰＰＩＩＷＡＡＫＡＭＶＢＶＵＲＡＹＫＢＨＫＩＱＱ</definedName>
     <definedName name="Hardware_Number_9">#REF!</definedName>
+    <definedName name="hgk" localSheetId="0">Info_sheet!hgk</definedName>
     <definedName name="hgk">[0]!hgk</definedName>
+    <definedName name="hh" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
     <definedName name="hh" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
+    <definedName name="hhh" localSheetId="0">Info_sheet!hhh</definedName>
     <definedName name="hhh">[0]!hhh</definedName>
-    <definedName name="ＨＯＴＫＫＥＥＳＷＣＱＡＱＹＥＺＸＵＤＣＮＦＫＮＬＲＡＡＬＲＤＴＩＱＧＡＥＺＰＭＮＭＯＨＤＨＮＧＯＱＲＮＡＯＥＷＵＯＹＴＰＷＢＳＳＭＦＳＲＹＰＹＲＴＧＡＺＶＦＤＰＺＭＥＫＬＴＤＵＺＷＬＴＣＭＷＴＯＥＩＩＩＫＤＺＤＳＹＹＧＤＺＬＴＰＨＹＺＪＹＡＥＯＶＰＩＷＨＧＵＬＵＮＰＣＯＬＵＳＥＰＢＸＶＢＫＲＣＶＡＭＪＹＺＰＺＣＧＰＵＵＴＷＩＬＰＥＫＫＳＩＥＱＹＵＭＤＥＯＤＦＭＫＣＩＶＢＧＭＡＫＺＬＵＨＵＡＡＲＤＵＡＤＢＨＰＸＡＢＧＳＰＥＦＶＹＩＭＨＹＹＹＡＴＷＡＩＶＶＤＹＺＩＸＭＬＣＯＪＥＬＲＩＩＢＢＰＴＡＯＸＮＺＩＯ">[14]P1_cover!ＨＯＴＫＫＥＥＳＷＣＱＡＱＹＥＺＸＵＤＣＮＦＫＮＬＲＡＡＬＲＤＴＩＱＧＡＥＺＰＭＮＭＯＨＤＨＮＧＯＱＲＮＡＯＥＷＵＯＹＴＰＷＢＳＳＭＦＳＲＹＰＹＲＴＧＡＺＶＦＤＰＺＭＥＫＬＴＤＵＺＷＬＴＣＭＷＴＯＥＩＩＩＫＤＺＤＳＹＹＧＤＺＬＴＰＨＹＺＪＹＡＥＯＶＰＩＷＨＧＵＬＵＮＰＣＯＬＵＳＥＰＢＸＶＢＫＲＣＶＡＭＪＹＺＰＺＣＧＰＵＵＴＷＩＬＰＥＫＫＳＩＥＱＹＵＭＤＥＯＤＦＭＫＣＩＶＢＧＭＡＫＺＬＵＨＵＡＡＲＤＵＡＤＢＨＰＸＡＢＧＳＰＥＦＶＹＩＭＨＹＹＹＡＴＷＡＩＶＶＤＹＺＩＸＭＬＣＯＪＥＬＲＩＩＢＢＰＴＡＯＸＮＺＩＯ</definedName>
+    <definedName name="ＨＯＴＫＫＥＥＳＷＣＱＡＱＹＥＺＸＵＤＣＮＦＫＮＬＲＡＡＬＲＤＴＩＱＧＡＥＺＰＭＮＭＯＨＤＨＮＧＯＱＲＮＡＯＥＷＵＯＹＴＰＷＢＳＳＭＦＳＲＹＰＹＲＴＧＡＺＶＦＤＰＺＭＥＫＬＴＤＵＺＷＬＴＣＭＷＴＯＥＩＩＩＫＤＺＤＳＹＹＧＤＺＬＴＰＨＹＺＪＹＡＥＯＶＰＩＷＨＧＵＬＵＮＰＣＯＬＵＳＥＰＢＸＶＢＫＲＣＶＡＭＪＹＺＰＺＣＧＰＵＵＴＷＩＬＰＥＫＫＳＩＥＱＹＵＭＤＥＯＤＦＭＫＣＩＶＢＧＭＡＫＺＬＵＨＵＡＡＲＤＵＡＤＢＨＰＸＡＢＧＳＰＥＦＶＹＩＭＨＹＹＹＡＴＷＡＩＶＶＤＹＺＩＸＭＬＣＯＪＥＬＲＩＩＢＢＰＴＡＯＸＮＺＩＯ">[13]P1_cover!ＨＯＴＫＫＥＥＳＷＣＱＡＱＹＥＺＸＵＤＣＮＦＫＮＬＲＡＡＬＲＤＴＩＱＧＡＥＺＰＭＮＭＯＨＤＨＮＧＯＱＲＮＡＯＥＷＵＯＹＴＰＷＢＳＳＭＦＳＲＹＰＹＲＴＧＡＺＶＦＤＰＺＭＥＫＬＴＤＵＺＷＬＴＣＭＷＴＯＥＩＩＩＫＤＺＤＳＹＹＧＤＺＬＴＰＨＹＺＪＹＡＥＯＶＰＩＷＨＧＵＬＵＮＰＣＯＬＵＳＥＰＢＸＶＢＫＲＣＶＡＭＪＹＺＰＺＣＧＰＵＵＴＷＩＬＰＥＫＫＳＩＥＱＹＵＭＤＥＯＤＦＭＫＣＩＶＢＧＭＡＫＺＬＵＨＵＡＡＲＤＵＡＤＢＨＰＸＡＢＧＳＰＥＦＶＹＩＭＨＹＹＹＡＴＷＡＩＶＶＤＹＺＩＸＭＬＣＯＪＥＬＲＩＩＢＢＰＴＡＯＸＮＺＩＯ</definedName>
     <definedName name="HTML_CodePage" hidden="1">932</definedName>
+    <definedName name="HTML_Control" localSheetId="0" hidden="1">{"'11.6.2'!$R$10","'11.6.2'!$C$23:$L$26"}</definedName>
     <definedName name="HTML_Control" hidden="1">{"'11.6.2'!$R$10","'11.6.2'!$C$23:$L$26"}</definedName>
     <definedName name="HTML_Description" hidden="1">""</definedName>
     <definedName name="HTML_Email" hidden="1">""</definedName>
@@ -982,73 +1090,102 @@
     <definedName name="HTML_OS" hidden="1">0</definedName>
     <definedName name="HTML_PathFile" hidden="1">"C:\WINDOWS\ﾃﾞｽｸﾄｯﾌﾟ\MyHTML.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">"コピー ～ モジュール仕様書11章new"</definedName>
-    <definedName name="iad">[6]result!#REF!</definedName>
+    <definedName name="iad">[5]result!#REF!</definedName>
     <definedName name="ID_020">#REF!</definedName>
     <definedName name="ID_3E8">#REF!</definedName>
-    <definedName name="ID_4F0">[41]IDMatrix!#REF!</definedName>
+    <definedName name="ID_4F0">[40]IDMatrix!#REF!</definedName>
+    <definedName name="Identification_DID_9A_9" localSheetId="0">#REF!</definedName>
     <definedName name="Identification_DID_9A_9">#REF!</definedName>
+    <definedName name="IDMatrix" localSheetId="0">#REF!</definedName>
     <definedName name="IDMatrix">#REF!</definedName>
-    <definedName name="ＩＥＬＱＨＨＢＢＰＥＳＣＲＤＭＳＮＬＩＲＱＢＴＹＢＺＦＯＯＺＡＥＡＰＸＮＱＡＥＺＰＭＭＭＯＨＤＨＷＪＣＴＶＱＤＲＨＺＸＲＢＷＳＺＥＶＴＭＡＬＲＹＦＹＡＮＫＨＱＯＡＬＸＡＹＥＦＮＸＹＤＩＦＵＣＬＦＤＸＮＳＳＲＵＭＪＭＢＩＩＱＲＴＴＢＸＰＢＬＺＢＩＯＭＧＺＭＶＪＡＩＢＤＱＥＪＧＰＯＺＯＫＩＯＸＥＰＪＮＺＸＬＭＣＮＰＴＯＥＩＪＥＰＴＷＭＳＳＡＣＤＺＬＴＰＨＫＶＪＬＳＱＩＯＢＢＰＴＺＮＸＮＺＩＶＩＯＮＦＱＩＯＱＰＵＤＰＱＶＧＥＴＴＫＮＸＢＶＬＪＪＩＬＤＨＫＳＧＪＥＦＢＮＣＲＱＴＤＺＵＢＧＹＸＲＲＯＵＩＳＩＵＤＪＤ">[14]P1_cover!ＩＥＬＱＨＨＢＢＰＥＳＣＲＤＭＳＮＬＩＲＱＢＴＹＢＺＦＯＯＺＡＥＡＰＸＮＱＡＥＺＰＭＭＭＯＨＤＨＷＪＣＴＶＱＤＲＨＺＸＲＢＷＳＺＥＶＴＭＡＬＲＹＦＹＡＮＫＨＱＯＡＬＸＡＹＥＦＮＸＹＤＩＦＵＣＬＦＤＸＮＳＳＲＵＭＪＭＢＩＩＱＲＴＴＢＸＰＢＬＺＢＩＯＭＧＺＭＶＪＡＩＢＤＱＥＪＧＰＯＺＯＫＩＯＸＥＰＪＮＺＸＬＭＣＮＰＴＯＥＩＪＥＰＴＷＭＳＳＡＣＤＺＬＴＰＨＫＶＪＬＳＱＩＯＢＢＰＴＺＮＸＮＺＩＶＩＯＮＦＱＩＯＱＰＵＤＰＱＶＧＥＴＴＫＮＸＢＶＬＪＪＩＬＤＨＫＳＧＪＥＦＢＮＣＲＱＴＤＺＵＢＧＹＸＲＲＯＵＩＳＩＵＤＪＤ</definedName>
-    <definedName name="ＩＥＬＱＨＨＢＵＯＵＢＳＢＵＷＪＤＢＹＨＧＲＲＵＳＹＺＨＲＳＸＣＺＯＮＸＧＤＹＯＳＴＳＵＮＪＮＣＪＩＭＮＪＷＤＡＳＪＫＵＩＬＲＸＨＯＨＢＯＺＺＣＫＤＦＳＦＬＩＲＱＢＭＹＵＳＹＨＯＺＴＸＪＨＸＮＸＡＥＹＯＴＴＳＶＧＫＮＤＪＪＭＮＪＷＤＡＳＪＫＵＩＬＳＱＨＯＢＢＯＴＦＰＥＱＺＭＺＦＣＬＤＯＧＬＯＭＳＢＩＭＮＲＤＡＢＲＶＶＱＦＤＤＣＦＸＢＥＮＡＡＩＤＥＡＭＹＸＮＩＳＮＪＱＶＭＭＫＸＣＩＷＧＶＨＱＣＢＹＨＧＲＪＯＲＰＶＤＥＰＰＵＧＷＬＴＪＳＷＲＨＦＦＥＧＺＶＺＯＣＵＣＥＧＢＯＣＢＺＴＤＺＵＧＹＹＲＫＹＪＶＭＶＯＱ">[14]P1_cover!ＩＥＬＱＨＨＢＵＯＵＢＳＢＵＷＪＤＢＹＨＧＲＲＵＳＹＺＨＲＳＸＣＺＯＮＸＧＤＹＯＳＴＳＵＮＪＮＣＪＩＭＮＪＷＤＡＳＪＫＵＩＬＲＸＨＯＨＢＯＺＺＣＫＤＦＳＦＬＩＲＱＢＭＹＵＳＹＨＯＺＴＸＪＨＸＮＸＡＥＹＯＴＴＳＶＧＫＮＤＪＪＭＮＪＷＤＡＳＪＫＵＩＬＳＱＨＯＢＢＯＴＦＰＥＱＺＭＺＦＣＬＤＯＧＬＯＭＳＢＩＭＮＲＤＡＢＲＶＶＱＦＤＤＣＦＸＢＥＮＡＡＩＤＥＡＭＹＸＮＩＳＮＪＱＶＭＭＫＸＣＩＷＧＶＨＱＣＢＹＨＧＲＪＯＲＰＶＤＥＰＰＵＧＷＬＴＪＳＷＲＨＦＦＥＧＺＶＺＯＣＵＣＥＧＢＯＣＢＺＴＤＺＵＧＹＹＲＫＹＪＶＭＶＯＱ</definedName>
+    <definedName name="ＩＥＬＱＨＨＢＢＰＥＳＣＲＤＭＳＮＬＩＲＱＢＴＹＢＺＦＯＯＺＡＥＡＰＸＮＱＡＥＺＰＭＭＭＯＨＤＨＷＪＣＴＶＱＤＲＨＺＸＲＢＷＳＺＥＶＴＭＡＬＲＹＦＹＡＮＫＨＱＯＡＬＸＡＹＥＦＮＸＹＤＩＦＵＣＬＦＤＸＮＳＳＲＵＭＪＭＢＩＩＱＲＴＴＢＸＰＢＬＺＢＩＯＭＧＺＭＶＪＡＩＢＤＱＥＪＧＰＯＺＯＫＩＯＸＥＰＪＮＺＸＬＭＣＮＰＴＯＥＩＪＥＰＴＷＭＳＳＡＣＤＺＬＴＰＨＫＶＪＬＳＱＩＯＢＢＰＴＺＮＸＮＺＩＶＩＯＮＦＱＩＯＱＰＵＤＰＱＶＧＥＴＴＫＮＸＢＶＬＪＪＩＬＤＨＫＳＧＪＥＦＢＮＣＲＱＴＤＺＵＢＧＹＸＲＲＯＵＩＳＩＵＤＪＤ">[13]P1_cover!ＩＥＬＱＨＨＢＢＰＥＳＣＲＤＭＳＮＬＩＲＱＢＴＹＢＺＦＯＯＺＡＥＡＰＸＮＱＡＥＺＰＭＭＭＯＨＤＨＷＪＣＴＶＱＤＲＨＺＸＲＢＷＳＺＥＶＴＭＡＬＲＹＦＹＡＮＫＨＱＯＡＬＸＡＹＥＦＮＸＹＤＩＦＵＣＬＦＤＸＮＳＳＲＵＭＪＭＢＩＩＱＲＴＴＢＸＰＢＬＺＢＩＯＭＧＺＭＶＪＡＩＢＤＱＥＪＧＰＯＺＯＫＩＯＸＥＰＪＮＺＸＬＭＣＮＰＴＯＥＩＪＥＰＴＷＭＳＳＡＣＤＺＬＴＰＨＫＶＪＬＳＱＩＯＢＢＰＴＺＮＸＮＺＩＶＩＯＮＦＱＩＯＱＰＵＤＰＱＶＧＥＴＴＫＮＸＢＶＬＪＪＩＬＤＨＫＳＧＪＥＦＢＮＣＲＱＴＤＺＵＢＧＹＸＲＲＯＵＩＳＩＵＤＪＤ</definedName>
+    <definedName name="ＩＥＬＱＨＨＢＵＯＵＢＳＢＵＷＪＤＢＹＨＧＲＲＵＳＹＺＨＲＳＸＣＺＯＮＸＧＤＹＯＳＴＳＵＮＪＮＣＪＩＭＮＪＷＤＡＳＪＫＵＩＬＲＸＨＯＨＢＯＺＺＣＫＤＦＳＦＬＩＲＱＢＭＹＵＳＹＨＯＺＴＸＪＨＸＮＸＡＥＹＯＴＴＳＶＧＫＮＤＪＪＭＮＪＷＤＡＳＪＫＵＩＬＳＱＨＯＢＢＯＴＦＰＥＱＺＭＺＦＣＬＤＯＧＬＯＭＳＢＩＭＮＲＤＡＢＲＶＶＱＦＤＤＣＦＸＢＥＮＡＡＩＤＥＡＭＹＸＮＩＳＮＪＱＶＭＭＫＸＣＩＷＧＶＨＱＣＢＹＨＧＲＪＯＲＰＶＤＥＰＰＵＧＷＬＴＪＳＷＲＨＦＦＥＧＺＶＺＯＣＵＣＥＧＢＯＣＢＺＴＤＺＵＧＹＹＲＫＹＪＶＭＶＯＱ">[13]P1_cover!ＩＥＬＱＨＨＢＵＯＵＢＳＢＵＷＪＤＢＹＨＧＲＲＵＳＹＺＨＲＳＸＣＺＯＮＸＧＤＹＯＳＴＳＵＮＪＮＣＪＩＭＮＪＷＤＡＳＪＫＵＩＬＲＸＨＯＨＢＯＺＺＣＫＤＦＳＦＬＩＲＱＢＭＹＵＳＹＨＯＺＴＸＪＨＸＮＸＡＥＹＯＴＴＳＶＧＫＮＤＪＪＭＮＪＷＤＡＳＪＫＵＩＬＳＱＨＯＢＢＯＴＦＰＥＱＺＭＺＦＣＬＤＯＧＬＯＭＳＢＩＭＮＲＤＡＢＲＶＶＱＦＤＤＣＦＸＢＥＮＡＡＩＤＥＡＭＹＸＮＩＳＮＪＱＶＭＭＫＸＣＩＷＧＶＨＱＣＢＹＨＧＲＪＯＲＰＶＤＥＰＰＵＧＷＬＴＪＳＷＲＨＦＦＥＧＺＶＺＯＣＵＣＥＧＢＯＣＢＺＴＤＺＵＧＹＹＲＫＹＪＶＭＶＯＱ</definedName>
     <definedName name="ImplementList">#REF!</definedName>
-    <definedName name="InjMain">[33]!InjMain</definedName>
-    <definedName name="InputOutputControlParameter">[42]dict!$A$1:$A$4</definedName>
+    <definedName name="InjMain">[32]!InjMain</definedName>
+    <definedName name="InputOutputControlParameter">[41]dict!$A$1:$A$4</definedName>
+    <definedName name="io" localSheetId="0">Info_sheet!io</definedName>
     <definedName name="io">[0]!io</definedName>
-    <definedName name="ＩＳＴＹＫＡＰＸＮＱＡＥＹＯＭＭＬＯＧＤＧＥＸＦＨＩＥＲＦＶＮＬＦＰＫＧＮＳＪＪＢＯＺＧＮＥＭＦＨＵＯＮＮＬＸＩＵＸＶＢＣＫＵＶＡＦＣＲＺＺＪＧＢＲＶＷＶＸＱＭＱＦＬＬＴＡＷＪＱＮＤＥＯＤＦＭＲＣＩＣＶＪＵＴＨＹＨＡＣＰＣＨＥＭＹＪＶＲＰＶＤＬＷＰＡＸＭＮＤＮＱＵＰＥＪＪＩＬＸＶＬＲＲＺＢＣＹＫＳＯＧＸＹＪＸＺＧＥＷＤＰＰＬＲＧＰＦＲＮＢＧＤＭＥＰＨＭＰＮＴＣＪＭＱＣＡＯＰＧＪＳＷＲＨＦＦＥＨＺＣＧＯＣＩＤＥＡＯＤＣＴＮＹＴＯＶＡＳＳＬＬＸＤＲＢＫＴＺＴＳＯＹＷＩＺＦＩＧＭＵＶＹＤＰＦＵＣＳＶＦＴＪＧＨＧ">[14]P1_cover!ＩＳＴＹＫＡＰＸＮＱＡＥＹＯＭＭＬＯＧＤＧＥＸＦＨＩＥＲＦＶＮＬＦＰＫＧＮＳＪＪＢＯＺＧＮＥＭＦＨＵＯＮＮＬＸＩＵＸＶＢＣＫＵＶＡＦＣＲＺＺＪＧＢＲＶＷＶＸＱＭＱＦＬＬＴＡＷＪＱＮＤＥＯＤＦＭＲＣＩＣＶＪＵＴＨＹＨＡＣＰＣＨＥＭＹＪＶＲＰＶＤＬＷＰＡＸＭＮＤＮＱＵＰＥＪＪＩＬＸＶＬＲＲＺＢＣＹＫＳＯＧＸＹＪＸＺＧＥＷＤＰＰＬＲＧＰＦＲＮＢＧＤＭＥＰＨＭＰＮＴＣＪＭＱＣＡＯＰＧＪＳＷＲＨＦＦＥＨＺＣＧＯＣＩＤＥＡＯＤＣＴＮＹＴＯＶＡＳＳＬＬＸＤＲＢＫＴＺＴＳＯＹＷＩＺＦＩＧＭＵＶＹＤＰＦＵＣＳＶＦＴＪＧＨＧ</definedName>
+    <definedName name="ＩＳＴＹＫＡＰＸＮＱＡＥＹＯＭＭＬＯＧＤＧＥＸＦＨＩＥＲＦＶＮＬＦＰＫＧＮＳＪＪＢＯＺＧＮＥＭＦＨＵＯＮＮＬＸＩＵＸＶＢＣＫＵＶＡＦＣＲＺＺＪＧＢＲＶＷＶＸＱＭＱＦＬＬＴＡＷＪＱＮＤＥＯＤＦＭＲＣＩＣＶＪＵＴＨＹＨＡＣＰＣＨＥＭＹＪＶＲＰＶＤＬＷＰＡＸＭＮＤＮＱＵＰＥＪＪＩＬＸＶＬＲＲＺＢＣＹＫＳＯＧＸＹＪＸＺＧＥＷＤＰＰＬＲＧＰＦＲＮＢＧＤＭＥＰＨＭＰＮＴＣＪＭＱＣＡＯＰＧＪＳＷＲＨＦＦＥＨＺＣＧＯＣＩＤＥＡＯＤＣＴＮＹＴＯＶＡＳＳＬＬＸＤＲＢＫＴＺＴＳＯＹＷＩＺＦＩＧＭＵＶＹＤＰＦＵＣＳＶＦＴＪＧＨＧ">[13]P1_cover!ＩＳＴＹＫＡＰＸＮＱＡＥＹＯＭＭＬＯＧＤＧＥＸＦＨＩＥＲＦＶＮＬＦＰＫＧＮＳＪＪＢＯＺＧＮＥＭＦＨＵＯＮＮＬＸＩＵＸＶＢＣＫＵＶＡＦＣＲＺＺＪＧＢＲＶＷＶＸＱＭＱＦＬＬＴＡＷＪＱＮＤＥＯＤＦＭＲＣＩＣＶＪＵＴＨＹＨＡＣＰＣＨＥＭＹＪＶＲＰＶＤＬＷＰＡＸＭＮＤＮＱＵＰＥＪＪＩＬＸＶＬＲＲＺＢＣＹＫＳＯＧＸＹＪＸＺＧＥＷＤＰＰＬＲＧＰＦＲＮＢＧＤＭＥＰＨＭＰＮＴＣＪＭＱＣＡＯＰＧＪＳＷＲＨＦＦＥＨＺＣＧＯＣＩＤＥＡＯＤＣＴＮＹＴＯＶＡＳＳＬＬＸＤＲＢＫＴＺＴＳＯＹＷＩＺＦＩＧＭＵＶＹＤＰＦＵＣＳＶＦＴＪＧＨＧ</definedName>
     <definedName name="ITEM">#REF!</definedName>
-    <definedName name="ＩＸＹＯＲＢＦＡＱＨＧＪＢＦＩＱＥＤＭＧＩＥＱＦＵＴＭＷＲＭＴＺＱＱＪＪＸＢＩＷＬＸＧＭＧＥＢＫＪＵＭＳＶＴＹＨＨＳＴＹＪＡＰＷＺＪＮＨＮＮＭＰＨＥＱＤＷＥＧＨＤＱＥＵＵＰＺＵＱＸＣＴＴＮＧＴＥＷＮＶＯＱＤＸＷＴＣＢＭＸＪＭＫＱＳＺＫＵＺＸＬＴＣＮＷＴＨＬＬＬＮＧＣＧＳＳＡＣＡＭＵＱＩＺＡＫＺＢＩＮＹＥＹＸＩＨＶＭＶＯＱＤＱＷＴＣＡＺＬＨＦＬＵＢＭＧＫＷＵＩＪＡＧＫＦＵＺＺＹＢＭＱＴＪＰＰＸＺＡＷＸＵＭＤＥＯＣＦＭＫＢＩＶＶＩＮＴＤＴＦＯＢＯＵＲＡＲＤＶＡＤＢＨＰＸＡＢＧＳＥＦＷＺＩＭＨＸＶＬＯＧＪＮＶＪ">[14]P1_cover!ＩＸＹＯＲＢＦＡＱＨＧＪＢＦＩＱＥＤＭＧＩＥＱＦＵＴＭＷＲＭＴＺＱＱＪＪＸＢＩＷＬＸＧＭＧＥＢＫＪＵＭＳＶＴＹＨＨＳＴＹＪＡＰＷＺＪＮＨＮＮＭＰＨＥＱＤＷＥＧＨＤＱＥＵＵＰＺＵＱＸＣＴＴＮＧＴＥＷＮＶＯＱＤＸＷＴＣＢＭＸＪＭＫＱＳＺＫＵＺＸＬＴＣＮＷＴＨＬＬＬＮＧＣＧＳＳＡＣＡＭＵＱＩＺＡＫＺＢＩＮＹＥＹＸＩＨＶＭＶＯＱＤＱＷＴＣＡＺＬＨＦＬＵＢＭＧＫＷＵＩＪＡＧＫＦＵＺＺＹＢＭＱＴＪＰＰＸＺＡＷＸＵＭＤＥＯＣＦＭＫＢＩＶＶＩＮＴＤＴＦＯＢＯＵＲＡＲＤＶＡＤＢＨＰＸＡＢＧＳＥＦＷＺＩＭＨＸＶＬＯＧＪＮＶＪ</definedName>
-    <definedName name="j">[43]MessageSignalList!#REF!</definedName>
+    <definedName name="ＩＸＹＯＲＢＦＡＱＨＧＪＢＦＩＱＥＤＭＧＩＥＱＦＵＴＭＷＲＭＴＺＱＱＪＪＸＢＩＷＬＸＧＭＧＥＢＫＪＵＭＳＶＴＹＨＨＳＴＹＪＡＰＷＺＪＮＨＮＮＭＰＨＥＱＤＷＥＧＨＤＱＥＵＵＰＺＵＱＸＣＴＴＮＧＴＥＷＮＶＯＱＤＸＷＴＣＢＭＸＪＭＫＱＳＺＫＵＺＸＬＴＣＮＷＴＨＬＬＬＮＧＣＧＳＳＡＣＡＭＵＱＩＺＡＫＺＢＩＮＹＥＹＸＩＨＶＭＶＯＱＤＱＷＴＣＡＺＬＨＦＬＵＢＭＧＫＷＵＩＪＡＧＫＦＵＺＺＹＢＭＱＴＪＰＰＸＺＡＷＸＵＭＤＥＯＣＦＭＫＢＩＶＶＩＮＴＤＴＦＯＢＯＵＲＡＲＤＶＡＤＢＨＰＸＡＢＧＳＥＦＷＺＩＭＨＸＶＬＯＧＪＮＶＪ">[13]P1_cover!ＩＸＹＯＲＢＦＡＱＨＧＪＢＦＩＱＥＤＭＧＩＥＱＦＵＴＭＷＲＭＴＺＱＱＪＪＸＢＩＷＬＸＧＭＧＥＢＫＪＵＭＳＶＴＹＨＨＳＴＹＪＡＰＷＺＪＮＨＮＮＭＰＨＥＱＤＷＥＧＨＤＱＥＵＵＰＺＵＱＸＣＴＴＮＧＴＥＷＮＶＯＱＤＸＷＴＣＢＭＸＪＭＫＱＳＺＫＵＺＸＬＴＣＮＷＴＨＬＬＬＮＧＣＧＳＳＡＣＡＭＵＱＩＺＡＫＺＢＩＮＹＥＹＸＩＨＶＭＶＯＱＤＱＷＴＣＡＺＬＨＦＬＵＢＭＧＫＷＵＩＪＡＧＫＦＵＺＺＹＢＭＱＴＪＰＰＸＺＡＷＸＵＭＤＥＯＣＦＭＫＢＩＶＶＩＮＴＤＴＦＯＢＯＵＲＡＲＤＶＡＤＢＨＰＸＡＢＧＳＥＦＷＺＩＭＨＸＶＬＯＧＪＮＶＪ</definedName>
+    <definedName name="j">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="ＪＨＮＶＤＮＨＭＹＶＪＺＪＭＱＫＡＦ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＪＨＮＶＤＮＨＭＹＶＪＺＪＭＱＫＡＦ" hidden="1">#REF!</definedName>
+    <definedName name="JIKUBUNSEKI" localSheetId="0">#REF!</definedName>
     <definedName name="JIKUBUNSEKI">#REF!</definedName>
+    <definedName name="ＪＯＬＵＭＸＰＶＸＷＢＫＲＶＷＢＭＫＹＺＱＮＳＭＣＡＸＡＳＶＺＨＶＤＹＺＶＨＷＬＫＢＶＧＢＷＤＩＡＡＴＴＨＷＫＴＪＶＥＫＪＦＰＮＺＱＷＺＸＤＬＭＷＸＣＯＥＴＢＲＵＥＷＭＪＫＪＬＥＡＥＴＨＺＨＪＬＧＴＨＸＰＮＨＲＶＣＨＹＹＳＬＹＫＱＸＯＨＪＷＱＰＭＶＵＦＱＣＦＤＪＬＳＤＥＩＰＥＭＶＦＰＭＨＸＢＣＥＷＴＷＬＳＲＡＢＤＺＬＴＰＨＹＺＣＥＬＱＢＨＢＵＩＴＳＧＸＧＺＢＯＢＨＤＮＥＰＢＸＶＢＪＲＣＶＡＭＪＹＺＰＮＲＭＣＧＧＧＢＥＩＸＥＤＬＮＰＫＸＥＢＴＫＬＶＪＭＴＲＩＶＶＪＮＵＩＲＨＴＣＰＣＩＦＯＧＣＩＬＪＰＸＦＩＪ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＪＯＬＵＭＸＰＶＸＷＢＫＲＶＷＢＭＫＹＺＱＮＳＭＣＡＸＡＳＶＺＨＶＤＹＺＶＨＷＬＫＢＶＧＢＷＤＩＡＡＴＴＨＷＫＴＪＶＥＫＪＦＰＮＺＱＷＺＸＤＬＭＷＸＣＯＥＴＢＲＵＥＷＭＪＫＪＬＥＡＥＴＨＺＨＪＬＧＴＨＸＰＮＨＲＶＣＨＹＹＳＬＹＫＱＸＯＨＪＷＱＰＭＶＵＦＱＣＦＤＪＬＳＤＥＩＰＥＭＶＦＰＭＨＸＢＣＥＷＴＷＬＳＲＡＢＤＺＬＴＰＨＹＺＣＥＬＱＢＨＢＵＩＴＳＧＸＧＺＢＯＢＨＤＮＥＰＢＸＶＢＪＲＣＶＡＭＪＹＺＰＮＲＭＣＧＧＧＢＥＩＸＥＤＬＮＰＫＸＥＢＴＫＬＶＪＭＴＲＩＶＶＪＮＵＩＲＨＴＣＰＣＩＦＯＧＣＩＬＪＰＸＦＩＪ" hidden="1">#REF!</definedName>
-    <definedName name="ＪＺＤＥＤＦＹＱＦＭＬＴＶＷＳＹＵＮＤＦＰＤＦＭＳＣＪＣＷＪＵＵＩＺＨＡＣＰＯＬＵＳＥＰＢＪＰＸＦＱＪＯＡＸＭＮＤＮＱＵＰＦＪＪＪＬＸＡＱＸＷＥＧＨＤＱＸＵＭＤＥＯＣＦＲＪＰＣＣＱＵＡＯＹＯＡＪＷＪＯＬＶＭＢＧＪＨＮＶＤＨＨＲＰＥＥＶＰＴＯＤＢＢＡＤＶＺＣＱＱＹＴＵＱＣＲＧＦＺＪＥＡＨＭＤＤＸＴＸＥＳＣＲＤＭＳＭＭＶＵＦＤＧＥＫＳＴＤＥＪＶＬＹＯＲＢＦＡＱＮＮＮＰＩＥＩＸＫＤＬＮＭＺＮＤＶＴＮＸＳＯＶＡＲＲＬＪＶＢＩＺＨＵＧＢＺＷＦＥＰＡＭＰＮＴＶＣＮＯＳＸＶＫＲＥＯＬＧＷＡＡＡＣＶＲＶＫＱＱＹＡＢＸＫＲ">[14]P1_cover!ＪＺＤＥＤＦＹＱＦＭＬＴＶＷＳＹＵＮＤＦＰＤＦＭＳＣＪＣＷＪＵＵＩＺＨＡＣＰＯＬＵＳＥＰＢＪＰＸＦＱＪＯＡＸＭＮＤＮＱＵＰＦＪＪＪＬＸＡＱＸＷＥＧＨＤＱＸＵＭＤＥＯＣＦＲＪＰＣＣＱＵＡＯＹＯＡＪＷＪＯＬＶＭＢＧＪＨＮＶＤＨＨＲＰＥＥＶＰＴＯＤＢＢＡＤＶＺＣＱＱＹＴＵＱＣＲＧＦＺＪＥＡＨＭＤＤＸＴＸＥＳＣＲＤＭＳＭＭＶＵＦＤＧＥＫＳＴＤＥＪＶＬＹＯＲＢＦＡＱＮＮＮＰＩＥＩＸＫＤＬＮＭＺＮＤＶＴＮＸＳＯＶＡＲＲＬＪＶＢＩＺＨＵＧＢＺＷＦＥＰＡＭＰＮＴＶＣＮＯＳＸＶＫＲＥＯＬＧＷＡＡＡＣＶＲＶＫＱＱＹＡＢＸＫＲ</definedName>
+    <definedName name="ＪＺＤＥＤＦＹＱＦＭＬＴＶＷＳＹＵＮＤＦＰＤＦＭＳＣＪＣＷＪＵＵＩＺＨＡＣＰＯＬＵＳＥＰＢＪＰＸＦＱＪＯＡＸＭＮＤＮＱＵＰＦＪＪＪＬＸＡＱＸＷＥＧＨＤＱＸＵＭＤＥＯＣＦＲＪＰＣＣＱＵＡＯＹＯＡＪＷＪＯＬＶＭＢＧＪＨＮＶＤＨＨＲＰＥＥＶＰＴＯＤＢＢＡＤＶＺＣＱＱＹＴＵＱＣＲＧＦＺＪＥＡＨＭＤＤＸＴＸＥＳＣＲＤＭＳＭＭＶＵＦＤＧＥＫＳＴＤＥＪＶＬＹＯＲＢＦＡＱＮＮＮＰＩＥＩＸＫＤＬＮＭＺＮＤＶＴＮＸＳＯＶＡＲＲＬＪＶＢＩＺＨＵＧＢＺＷＦＥＰＡＭＰＮＴＶＣＮＯＳＸＶＫＲＥＯＬＧＷＡＡＡＣＶＲＶＫＱＱＹＡＢＸＫＲ">[13]P1_cover!ＪＺＤＥＤＦＹＱＦＭＬＴＶＷＳＹＵＮＤＦＰＤＦＭＳＣＪＣＷＪＵＵＩＺＨＡＣＰＯＬＵＳＥＰＢＪＰＸＦＱＪＯＡＸＭＮＤＮＱＵＰＦＪＪＪＬＸＡＱＸＷＥＧＨＤＱＸＵＭＤＥＯＣＦＲＪＰＣＣＱＵＡＯＹＯＡＪＷＪＯＬＶＭＢＧＪＨＮＶＤＨＨＲＰＥＥＶＰＴＯＤＢＢＡＤＶＺＣＱＱＹＴＵＱＣＲＧＦＺＪＥＡＨＭＤＤＸＴＸＥＳＣＲＤＭＳＭＭＶＵＦＤＧＥＫＳＴＤＥＪＶＬＹＯＲＢＦＡＱＮＮＮＰＩＥＩＸＫＤＬＮＭＺＮＤＶＴＮＸＳＯＶＡＲＲＬＪＶＢＩＺＨＵＧＢＺＷＦＥＰＡＭＰＮＴＶＣＮＯＳＸＶＫＲＥＯＬＧＷＡＡＡＣＶＲＶＫＱＱＹＡＢＸＫＲ</definedName>
     <definedName name="ＪＺＸＸＷＺＲＶＹＧＵＵＣＷＹＵＧＶＫＪＭＷＳＮＵＺＲＱＫＫＹＣＩＷＧＷＩＵＯＮＫＴＳＤＶＡＤＢＨＰＱＢＢＸＮＣＫＡＤＮＲＭＣＺＺＺＢＵＱＵＪＷＬＮＰＫＸＬＢＴＲＢＷＲＹＤＶＶＯＨＶＧＮＳＡＴＶＩＣＢＹＨＣＮＺＣＡＧＩＰＡＢＦＫＩＷＥＯＬＪＤＴＹＹＸＡＳＰＺＧＦＮＰＲＭＺＧＤＶＭＮＸＬＯＶＥＬＥＸＬＷＷＫＡＪＣＥＲＥＫＨＱＯＡＬＸＺＥＮＵＦＺＥＰＧＨＹＩＫＰＪＺＥＥＤＧＲＶＹＮＵＯＱＲＮＡＨＥＷＮＯＹＭＰＶＵＬＳＦＦＳＤＲＢＲＤＭＺＭＲＯＸＳＫＱＴＲＷＦＭＱＲＷＨＦＵＵＬＯＹＣＷＭＫＫＭＦＩＭＵＨＨＰＫＤ" hidden="1">#REF!</definedName>
-    <definedName name="k">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="KASOU">[38]DATA01!$C$2:$E$23</definedName>
-    <definedName name="KDG">[24]駆動系1!$J$110:$BD$169</definedName>
+    <definedName name="k">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="KASOU">[37]DATA01!$C$2:$E$23</definedName>
+    <definedName name="KDG">[23]駆動系1!$J$110:$BD$169</definedName>
+    <definedName name="ki" localSheetId="0">Info_sheet!ki</definedName>
     <definedName name="ki">[0]!ki</definedName>
-    <definedName name="kkk">'[18]#REF'!#REF!</definedName>
-    <definedName name="Kleinänderung">[26]Parameterlist_1!$B$40</definedName>
+    <definedName name="kkk" localSheetId="0">'[17]#REF'!#REF!</definedName>
+    <definedName name="kkk">'[17]#REF'!#REF!</definedName>
+    <definedName name="Kleinänderung">[25]Parameterlist_1!$B$40</definedName>
+    <definedName name="KMAnsicht" localSheetId="0">#REF!</definedName>
     <definedName name="KMAnsicht">#REF!</definedName>
+    <definedName name="KMWorksheetName" localSheetId="0">#REF!</definedName>
     <definedName name="KMWorksheetName">#REF!</definedName>
-    <definedName name="l">[7]総合B!$AE$10:$AG$13,[7]総合B!$AE$15:$AG$18,[7]総合B!$AE$20:$AG$22,[7]総合B!$AE$25:$AG$28,[7]総合B!$AE$31:$AG$32,[7]総合B!$AE$34:$AG$36,[7]総合B!$AE$39:$AG$40,[7]総合B!$AE$43:$AG$43,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!,[7]総合B!#REF!</definedName>
+    <definedName name="l">[6]総合B!$AE$10:$AG$13,[6]総合B!$AE$15:$AG$18,[6]総合B!$AE$20:$AG$22,[6]総合B!$AE$25:$AG$28,[6]総合B!$AE$31:$AG$32,[6]総合B!$AE$34:$AG$36,[6]総合B!$AE$39:$AG$40,[6]総合B!$AE$43:$AG$43,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!,[6]総合B!#REF!</definedName>
     <definedName name="L_MY00">#REF!</definedName>
-    <definedName name="ＬＦＱＬＧＮＳＫＫＤＷＫＶＢＪＺＩＢＧＡＺＷＦＥＰＡＭＰＮＴＶＣＮＮＳＸ">[14]P1_cover!ＬＦＱＬＧＮＳＫＫＤＷＫＶＢＪＺＩＢＧＡＺＷＦＥＰＡＭＰＮＴＶＣＮＮＳＸ</definedName>
-    <definedName name="ｌｌ">'[44]76極'!#REF!</definedName>
+    <definedName name="ＬＦＱＬＧＮＳＫＫＤＷＫＶＢＪＺＩＢＧＡＺＷＦＥＰＡＭＰＮＴＶＣＮＮＳＸ">[13]P1_cover!ＬＦＱＬＧＮＳＫＫＤＷＫＶＢＪＺＩＢＧＡＺＷＦＥＰＡＭＰＮＴＶＣＮＮＳＸ</definedName>
+    <definedName name="ｌｌ">'[43]76極'!#REF!</definedName>
+    <definedName name="LS" localSheetId="0">#REF!</definedName>
     <definedName name="LS">#REF!</definedName>
-    <definedName name="M_114">[35]SignalMatrix!#REF!</definedName>
-    <definedName name="M_115">[35]SignalMatrix!#REF!</definedName>
-    <definedName name="M_116">[36]SignalMatrix!#REF!</definedName>
-    <definedName name="M_117">[36]SignalMatrix!#REF!</definedName>
+    <definedName name="M_114">[34]SignalMatrix!#REF!</definedName>
+    <definedName name="M_115">[34]SignalMatrix!#REF!</definedName>
+    <definedName name="M_116">[35]SignalMatrix!#REF!</definedName>
+    <definedName name="M_117">[35]SignalMatrix!#REF!</definedName>
+    <definedName name="M_11C" localSheetId="0">#REF!</definedName>
     <definedName name="M_11C">#REF!</definedName>
+    <definedName name="M_120" localSheetId="0">#REF!</definedName>
     <definedName name="M_120">#REF!</definedName>
+    <definedName name="M_122" localSheetId="0">#REF!</definedName>
     <definedName name="M_122">#REF!</definedName>
     <definedName name="M_124">#REF!</definedName>
-    <definedName name="M_126">[35]SignalMatrix!#REF!</definedName>
-    <definedName name="M_127">[35]SignalMatrix!#REF!</definedName>
+    <definedName name="M_126">[34]SignalMatrix!#REF!</definedName>
+    <definedName name="M_127">[34]SignalMatrix!#REF!</definedName>
+    <definedName name="M_130" localSheetId="0">#REF!</definedName>
     <definedName name="M_130">#REF!</definedName>
+    <definedName name="M_131" localSheetId="0">#REF!</definedName>
     <definedName name="M_131">#REF!</definedName>
+    <definedName name="M_132" localSheetId="0">#REF!</definedName>
     <definedName name="M_132">#REF!</definedName>
-    <definedName name="M_133">[35]SignalMatrix!#REF!</definedName>
-    <definedName name="M_136">[35]SignalMatrix!#REF!</definedName>
+    <definedName name="M_133" localSheetId="0">[34]SignalMatrix!#REF!</definedName>
+    <definedName name="M_133">[34]SignalMatrix!#REF!</definedName>
+    <definedName name="M_136" localSheetId="0">[34]SignalMatrix!#REF!</definedName>
+    <definedName name="M_136">[34]SignalMatrix!#REF!</definedName>
+    <definedName name="M_13C" localSheetId="0">#REF!</definedName>
     <definedName name="M_13C">#REF!</definedName>
+    <definedName name="M_13D" localSheetId="0">#REF!</definedName>
     <definedName name="M_13D">#REF!</definedName>
+    <definedName name="M_13E" localSheetId="0">#REF!</definedName>
     <definedName name="M_13E">#REF!</definedName>
     <definedName name="M_13F">#REF!</definedName>
     <definedName name="M_180">#REF!</definedName>
-    <definedName name="M_18C">[36]SignalMatrix!#REF!</definedName>
+    <definedName name="M_18C">[35]SignalMatrix!#REF!</definedName>
+    <definedName name="M_18D" localSheetId="0">#REF!</definedName>
     <definedName name="M_18D">#REF!</definedName>
-    <definedName name="M_18E">[35]SignalMatrix!#REF!</definedName>
-    <definedName name="M_1B0">[35]SignalMatrix!#REF!</definedName>
-    <definedName name="M_1D0">[35]SignalMatrix!#REF!</definedName>
+    <definedName name="M_18E">[34]SignalMatrix!#REF!</definedName>
+    <definedName name="M_1B0">[34]SignalMatrix!#REF!</definedName>
+    <definedName name="M_1D0">[34]SignalMatrix!#REF!</definedName>
+    <definedName name="M_1EF" localSheetId="0">#REF!</definedName>
     <definedName name="M_1EF">#REF!</definedName>
+    <definedName name="M_280" localSheetId="0">#REF!</definedName>
     <definedName name="M_280">#REF!</definedName>
+    <definedName name="M_2A0" localSheetId="0">#REF!</definedName>
     <definedName name="M_2A0">#REF!</definedName>
     <definedName name="M_2A1">#REF!</definedName>
     <definedName name="M_310">#REF!</definedName>
-    <definedName name="M_312">[35]SignalMatrix!#REF!</definedName>
+    <definedName name="M_312">[34]SignalMatrix!#REF!</definedName>
+    <definedName name="M_314" localSheetId="0">#REF!</definedName>
     <definedName name="M_314">#REF!</definedName>
+    <definedName name="M_318" localSheetId="0">#REF!</definedName>
     <definedName name="M_318">#REF!</definedName>
+    <definedName name="M_31C" localSheetId="0">#REF!</definedName>
     <definedName name="M_31C">#REF!</definedName>
     <definedName name="M_32C">#REF!</definedName>
     <definedName name="M_338">#REF!</definedName>
@@ -1059,20 +1196,34 @@
     <definedName name="M_3A5">#REF!</definedName>
     <definedName name="M_3A6">#REF!</definedName>
     <definedName name="M_3A8">#REF!</definedName>
-    <definedName name="M_3B0">[35]SignalMatrix!#REF!</definedName>
+    <definedName name="M_3B0">[34]SignalMatrix!#REF!</definedName>
+    <definedName name="M_3B9" localSheetId="0">#REF!</definedName>
     <definedName name="M_3B9">#REF!</definedName>
+    <definedName name="M_3BF" localSheetId="0">#REF!</definedName>
     <definedName name="M_3BF">#REF!</definedName>
-    <definedName name="M_3C0">[45]SignalMatrix!#REF!</definedName>
+    <definedName name="M_3C0" localSheetId="0">[44]SignalMatrix!#REF!</definedName>
+    <definedName name="M_3C0">[44]SignalMatrix!#REF!</definedName>
+    <definedName name="M_3D0" localSheetId="0">#REF!</definedName>
     <definedName name="M_3D0">#REF!</definedName>
+    <definedName name="M_3D1" localSheetId="0">#REF!</definedName>
     <definedName name="M_3D1">#REF!</definedName>
-    <definedName name="M_3D2">[35]SignalMatrix!#REF!</definedName>
+    <definedName name="M_3D2" localSheetId="0">[34]SignalMatrix!#REF!</definedName>
+    <definedName name="M_3D2">[34]SignalMatrix!#REF!</definedName>
+    <definedName name="M_3D4" localSheetId="0">#REF!</definedName>
     <definedName name="M_3D4">#REF!</definedName>
+    <definedName name="M_3D6" localSheetId="0">#REF!</definedName>
     <definedName name="M_3D6">#REF!</definedName>
+    <definedName name="M_3D8" localSheetId="0">#REF!</definedName>
     <definedName name="M_3D8">#REF!</definedName>
-    <definedName name="M_3E8">[35]SignalMatrix!#REF!</definedName>
-    <definedName name="M_3F0">[35]SignalMatrix!#REF!</definedName>
+    <definedName name="M_3E8" localSheetId="0">[34]SignalMatrix!#REF!</definedName>
+    <definedName name="M_3E8">[34]SignalMatrix!#REF!</definedName>
+    <definedName name="M_3F0" localSheetId="0">[34]SignalMatrix!#REF!</definedName>
+    <definedName name="M_3F0">[34]SignalMatrix!#REF!</definedName>
+    <definedName name="M_3F1" localSheetId="0">#REF!</definedName>
     <definedName name="M_3F1">#REF!</definedName>
+    <definedName name="M_3F2" localSheetId="0">#REF!</definedName>
     <definedName name="M_3F2">#REF!</definedName>
+    <definedName name="M_3F3" localSheetId="0">#REF!</definedName>
     <definedName name="M_3F3">#REF!</definedName>
     <definedName name="M_3F4">#REF!</definedName>
     <definedName name="M_3F5">#REF!</definedName>
@@ -1089,85 +1240,104 @@
     <definedName name="M3FE">#REF!</definedName>
     <definedName name="MANAGERAPPVL">#REF!</definedName>
     <definedName name="ＭＡＺＳＵＨＵＡＸＧＥＱＢＮＪＨＩＰＡＵＺＫＩＸＸＯＹＪＤＴＹＹＸＡＬＡＰＶＶＤＦＧＣＯＷＶＭＮＹＭＯＶＴＬＳＥＥＳＷＤＲＡＱＣＬＹＷＴＣＴＦＸＣＦＤＪＶＹＺＥＱＮＣＤＴＷＧＫＦＵＳＳＬＥＨＬＴＧＧＯＪＫＧＺＯＮＥＹＪＥＺＧＬＤＤＷＷＫＯＵＪＳＩＵＤＪＪＧＰＯＺＲＸＡＹＤＭＭＸＹＤＯＦＵＢＧＱＵＯＥＣＣＢＥＷＴＷＬＺＳＡＢＤＺＥＴＬＪＤＯＪＥＬＱＩＨＢＵＩＴＺＲＺＳＵＨＢＡＬＫＶＧＳＶＴＺＢＩＴＴＹＩＷＥＯＹＨＦＺＰＮＮＰＩＥＩＸＤＤＬＮＯＫＸＢＴＫＬＶＫＭＴＹＩＰＥＳＤＤＲＨＱＪＬＹＬＲＯＸＶＨＳＥＡＹ" hidden="1">#REF!</definedName>
-    <definedName name="mDiagReq_TSG_HL">'[46]PQ25 Komfort'!#REF!</definedName>
-    <definedName name="Menu_R1_3">'[22]Special ECU Information'!#REF!</definedName>
+    <definedName name="mDiagReq_TSG_HL">'[45]PQ25 Komfort'!#REF!</definedName>
+    <definedName name="Menu_R1_3">'[21]Special ECU Information'!#REF!</definedName>
+    <definedName name="mk" localSheetId="0">Info_sheet!mk</definedName>
     <definedName name="mk">[0]!mk</definedName>
-    <definedName name="mNM_DVE">'[46]PQ25 Komfort'!#REF!</definedName>
-    <definedName name="mNM_GSM_Pager">'[46]PQ25 Komfort'!#REF!</definedName>
-    <definedName name="mNM_Kompass">'[46]PQ25 Komfort'!#REF!</definedName>
-    <definedName name="mNM_Memory_BF">'[46]PQ25 Komfort'!#REF!</definedName>
-    <definedName name="mNM_Offroad">'[46]PQ25 Komfort'!#REF!</definedName>
+    <definedName name="mNM_DVE" localSheetId="0">'[45]PQ25 Komfort'!#REF!</definedName>
+    <definedName name="mNM_DVE">'[45]PQ25 Komfort'!#REF!</definedName>
+    <definedName name="mNM_GSM_Pager" localSheetId="0">'[45]PQ25 Komfort'!#REF!</definedName>
+    <definedName name="mNM_GSM_Pager">'[45]PQ25 Komfort'!#REF!</definedName>
+    <definedName name="mNM_Kompass" localSheetId="0">'[45]PQ25 Komfort'!#REF!</definedName>
+    <definedName name="mNM_Kompass">'[45]PQ25 Komfort'!#REF!</definedName>
+    <definedName name="mNM_Memory_BF">'[45]PQ25 Komfort'!#REF!</definedName>
+    <definedName name="mNM_Offroad">'[45]PQ25 Komfort'!#REF!</definedName>
+    <definedName name="MODELYEAR" localSheetId="0">#REF!</definedName>
     <definedName name="MODELYEAR">#REF!</definedName>
-    <definedName name="Motor_Hybrid_03_PAG">[47]VW526_CAN_Antrieb!#REF!</definedName>
-    <definedName name="mTP_Dyn_RSE_1">'[46]PQ25 Komfort'!#REF!</definedName>
+    <definedName name="Motor_Hybrid_03_PAG">[46]VW526_CAN_Antrieb!#REF!</definedName>
+    <definedName name="mTP_Dyn_RSE_1">'[45]PQ25 Komfort'!#REF!</definedName>
     <definedName name="NAME">'[3]002(4)'!#REF!</definedName>
-    <definedName name="ＮＢＫＡＭＶＩＶＢＹＤＯＧＬＯＭＳＢＩＭＭＲＳＨＩＹＢＬＰＫＡＸＹＸＺＳＶＺＦＦＮＩＪＬＡＰＯＧＲＭＨＯＴＪＣＣＱＵＡＯＹＯＡＪＰＰＭＶＵＦＸＣＸＤＬＭＸＸＣＯＥＴＢＲＵＥＩＥＢＢＢＤＷＳＷＬＱＹＡＢＸＪＹＮＦＤＸＩＤＹＦＫＣＣＳＧＲＹＦＶＥＸＺＭＧＦＣＬＪＶＧＯＮＳＵＢＭＮＲＷＵＪＱＡＫＴＲＬＢＧＧＦＨＥＩＸＤＤＬＮＯＫＷＹＱＨＩＴＨＩＮＹＥＸＬＷＶＳＢＵＷＪＷＢＹＩＧＲＣＰＬＪＰＸＥＰＪＯＮＣＤＴＤＧＫＥＵＺＺＹＢＨＬＡＨＧＯＱＳＮＡＩＥＷＮＯＹＮＰＷＵＬＪＪＸＢＨＶＦＶＨＤＱＷＴＣＴＦＸＣＦＤＪＲＩ">[14]P1_cover!ＮＢＫＡＭＶＩＶＢＹＤＯＧＬＯＭＳＢＩＭＭＲＳＨＩＹＢＬＰＫＡＸＹＸＺＳＶＺＦＦＮＩＪＬＡＰＯＧＲＭＨＯＴＪＣＣＱＵＡＯＹＯＡＪＰＰＭＶＵＦＸＣＸＤＬＭＸＸＣＯＥＴＢＲＵＥＩＥＢＢＢＤＷＳＷＬＱＹＡＢＸＪＹＮＦＤＸＩＤＹＦＫＣＣＳＧＲＹＦＶＥＸＺＭＧＦＣＬＪＶＧＯＮＳＵＢＭＮＲＷＵＪＱＡＫＴＲＬＢＧＧＦＨＥＩＸＤＤＬＮＯＫＷＹＱＨＩＴＨＩＮＹＥＸＬＷＶＳＢＵＷＪＷＢＹＩＧＲＣＰＬＪＰＸＥＰＪＯＮＣＤＴＤＧＫＥＵＺＺＹＢＨＬＡＨＧＯＱＳＮＡＩＥＷＮＯＹＮＰＷＵＬＪＪＸＢＨＶＦＶＨＤＱＷＴＣＴＦＸＣＦＤＪＲＩ</definedName>
-    <definedName name="ne">[6]result!#REF!</definedName>
+    <definedName name="ＮＢＫＡＭＶＩＶＢＹＤＯＧＬＯＭＳＢＩＭＭＲＳＨＩＹＢＬＰＫＡＸＹＸＺＳＶＺＦＦＮＩＪＬＡＰＯＧＲＭＨＯＴＪＣＣＱＵＡＯＹＯＡＪＰＰＭＶＵＦＸＣＸＤＬＭＸＸＣＯＥＴＢＲＵＥＩＥＢＢＢＤＷＳＷＬＱＹＡＢＸＪＹＮＦＤＸＩＤＹＦＫＣＣＳＧＲＹＦＶＥＸＺＭＧＦＣＬＪＶＧＯＮＳＵＢＭＮＲＷＵＪＱＡＫＴＲＬＢＧＧＦＨＥＩＸＤＤＬＮＯＫＷＹＱＨＩＴＨＩＮＹＥＸＬＷＶＳＢＵＷＪＷＢＹＩＧＲＣＰＬＪＰＸＥＰＪＯＮＣＤＴＤＧＫＥＵＺＺＹＢＨＬＡＨＧＯＱＳＮＡＩＥＷＮＯＹＮＰＷＵＬＪＪＸＢＨＶＦＶＨＤＱＷＴＣＴＦＸＣＦＤＪＲＩ">[13]P1_cover!ＮＢＫＡＭＶＩＶＢＹＤＯＧＬＯＭＳＢＩＭＭＲＳＨＩＹＢＬＰＫＡＸＹＸＺＳＶＺＦＦＮＩＪＬＡＰＯＧＲＭＨＯＴＪＣＣＱＵＡＯＹＯＡＪＰＰＭＶＵＦＸＣＸＤＬＭＸＸＣＯＥＴＢＲＵＥＩＥＢＢＢＤＷＳＷＬＱＹＡＢＸＪＹＮＦＤＸＩＤＹＦＫＣＣＳＧＲＹＦＶＥＸＺＭＧＦＣＬＪＶＧＯＮＳＵＢＭＮＲＷＵＪＱＡＫＴＲＬＢＧＧＦＨＥＩＸＤＤＬＮＯＫＷＹＱＨＩＴＨＩＮＹＥＸＬＷＶＳＢＵＷＪＷＢＹＩＧＲＣＰＬＪＰＸＥＰＪＯＮＣＤＴＤＧＫＥＵＺＺＹＢＨＬＡＨＧＯＱＳＮＡＩＥＷＮＯＹＮＰＷＵＬＪＪＸＢＨＶＦＶＨＤＱＷＴＣＴＦＸＣＦＤＪＲＩ</definedName>
+    <definedName name="ne">[5]result!#REF!</definedName>
     <definedName name="ＮＧＡＮＹＦＭＣＬＥＧＴＮＭＪＳＪＵＧＪＨＮＰＷＨＩＭＲＰＥＬＪＳＱＫＡＦ" hidden="1">#REF!</definedName>
     <definedName name="No">#REF!</definedName>
     <definedName name="NOTES">#REF!</definedName>
     <definedName name="ＯＥＱＺＭＺＦＣＬＤＯＧＬＯＭＳＡＤＥＪＶＳＨ" hidden="1">#REF!</definedName>
-    <definedName name="Offset_CR_FC">[26]Parameterlist_1!$B$53</definedName>
-    <definedName name="Offset_Ecco">[26]Parameterlist_1!$B$78</definedName>
-    <definedName name="Offset_FR_FC">[26]Parameterlist_1!$B$51</definedName>
-    <definedName name="Offset_Konzeptdoku">[26]Parameterlist_1!$B$13</definedName>
-    <definedName name="Offset_Req">[26]Parameterlist_1!$B$5</definedName>
-    <definedName name="Offset_SCC_FC">[26]Parameterlist_1!$B$62</definedName>
-    <definedName name="Offset_SFT_BP">[26]Parameterlist_1!$B$76</definedName>
-    <definedName name="Offset_TA">[26]Parameterlist_1!$B$77</definedName>
-    <definedName name="Offset_Zusatz_PST">[26]Parameterlist_1!$B$72</definedName>
-    <definedName name="ＯＫＣＴＵＦＴＶＣＡＳＺＬＬＺＯＣＭＢＮＷＪＷＣＺＩＡＬＤＩＬＪＰＱＵＵＺＬＩＸＹＯＲＢＨＸＶＶＵＸＰＳＷＥＶＤＹＡＷＩＸＭＬＣＷＧＣＸＥＪＴＮＮＡＦＬＺＪＱＺＦＺＹＶＥＣＯＧＬＯＭＳＡＢＭＭＫＢＱＹＯＲＢＦＯＭＭＬＯＧＤＧＶＪＢＪＬＣＯＤＳＫＩＤＮＩＧＬＣＣＷＰＤＷＤＵＤＷＹＬＦＤＡＫＩＴＥＲＵＳＸＺＧＲＳＪＧＶＤＭＷＧＤＹＯＳＳＳＵＮＪＮＣＩＩＱＳＴＧＮＪＣＳＵＥＺＧＬＷＤＷＰＩＨＶＭＶＸＫＸＶＦＤＯＺＭＩＧＭＵＣＭＧＬＸＵＪＫＡＫＮＦＶＺＡＺＢＮＱＵＪＱＰＸＺＡＷＪＵＭＤＥＯＤＦＭＫＣＩＶＶＪＮＴＨ">[14]P1_cover!ＯＫＣＴＵＦＴＶＣＡＳＺＬＬＺＯＣＭＢＮＷＪＷＣＺＩＡＬＤＩＬＪＰＱＵＵＺＬＩＸＹＯＲＢＨＸＶＶＵＸＰＳＷＥＶＤＹＡＷＩＸＭＬＣＷＧＣＸＥＪＴＮＮＡＦＬＺＪＱＺＦＺＹＶＥＣＯＧＬＯＭＳＡＢＭＭＫＢＱＹＯＲＢＦＯＭＭＬＯＧＤＧＶＪＢＪＬＣＯＤＳＫＩＤＮＩＧＬＣＣＷＰＤＷＤＵＤＷＹＬＦＤＡＫＩＴＥＲＵＳＸＺＧＲＳＪＧＶＤＭＷＧＤＹＯＳＳＳＵＮＪＮＣＩＩＱＳＴＧＮＪＣＳＵＥＺＧＬＷＤＷＰＩＨＶＭＶＸＫＸＶＦＤＯＺＭＩＧＭＵＣＭＧＬＸＵＪＫＡＫＮＦＶＺＡＺＢＮＱＵＪＱＰＸＺＡＷＪＵＭＤＥＯＤＦＭＫＣＩＶＶＪＮＴＨ</definedName>
+    <definedName name="Offset_CR_FC">[25]Parameterlist_1!$B$53</definedName>
+    <definedName name="Offset_Ecco">[25]Parameterlist_1!$B$78</definedName>
+    <definedName name="Offset_FR_FC">[25]Parameterlist_1!$B$51</definedName>
+    <definedName name="Offset_Konzeptdoku">[25]Parameterlist_1!$B$13</definedName>
+    <definedName name="Offset_Req">[25]Parameterlist_1!$B$5</definedName>
+    <definedName name="Offset_SCC_FC">[25]Parameterlist_1!$B$62</definedName>
+    <definedName name="Offset_SFT_BP">[25]Parameterlist_1!$B$76</definedName>
+    <definedName name="Offset_TA">[25]Parameterlist_1!$B$77</definedName>
+    <definedName name="Offset_Zusatz_PST">[25]Parameterlist_1!$B$72</definedName>
+    <definedName name="ＯＫＣＴＵＦＴＶＣＡＳＺＬＬＺＯＣＭＢＮＷＪＷＣＺＩＡＬＤＩＬＪＰＱＵＵＺＬＩＸＹＯＲＢＨＸＶＶＵＸＰＳＷＥＶＤＹＡＷＩＸＭＬＣＷＧＣＸＥＪＴＮＮＡＦＬＺＪＱＺＦＺＹＶＥＣＯＧＬＯＭＳＡＢＭＭＫＢＱＹＯＲＢＦＯＭＭＬＯＧＤＧＶＪＢＪＬＣＯＤＳＫＩＤＮＩＧＬＣＣＷＰＤＷＤＵＤＷＹＬＦＤＡＫＩＴＥＲＵＳＸＺＧＲＳＪＧＶＤＭＷＧＤＹＯＳＳＳＵＮＪＮＣＩＩＱＳＴＧＮＪＣＳＵＥＺＧＬＷＤＷＰＩＨＶＭＶＸＫＸＶＦＤＯＺＭＩＧＭＵＣＭＧＬＸＵＪＫＡＫＮＦＶＺＡＺＢＮＱＵＪＱＰＸＺＡＷＪＵＭＤＥＯＤＦＭＫＣＩＶＶＪＮＴＨ">[13]P1_cover!ＯＫＣＴＵＦＴＶＣＡＳＺＬＬＺＯＣＭＢＮＷＪＷＣＺＩＡＬＤＩＬＪＰＱＵＵＺＬＩＸＹＯＲＢＨＸＶＶＵＸＰＳＷＥＶＤＹＡＷＩＸＭＬＣＷＧＣＸＥＪＴＮＮＡＦＬＺＪＱＺＦＺＹＶＥＣＯＧＬＯＭＳＡＢＭＭＫＢＱＹＯＲＢＦＯＭＭＬＯＧＤＧＶＪＢＪＬＣＯＤＳＫＩＤＮＩＧＬＣＣＷＰＤＷＤＵＤＷＹＬＦＤＡＫＩＴＥＲＵＳＸＺＧＲＳＪＧＶＤＭＷＧＤＹＯＳＳＳＵＮＪＮＣＩＩＱＳＴＧＮＪＣＳＵＥＺＧＬＷＤＷＰＩＨＶＭＶＸＫＸＶＦＤＯＺＭＩＧＭＵＣＭＧＬＸＵＪＫＡＫＮＦＶＺＡＺＢＮＱＵＪＱＰＸＺＡＷＪＵＭＤＥＯＤＦＭＫＣＩＶＶＪＮＴＨ</definedName>
     <definedName name="OPENITEM">#REF!</definedName>
     <definedName name="Order_type">#REF!</definedName>
     <definedName name="Order_type_2">#REF!</definedName>
-    <definedName name="ox">[6]result!#REF!</definedName>
+    <definedName name="ox">[5]result!#REF!</definedName>
     <definedName name="ＯＹＩＲＰＪＺＥＥＤＧＹＶＹＮＵＴＣＤＦＢＮＶＨＹＺＪＹＡＨＭＸＤＸＱＥＰＯＣＴＶＸＫＸＤＡＪＨＴＥＱＭＫＱＹＧＲＫＴＱＦＧＡＣＧＢＲＶＷＶＭＰＴＩＯＯＷＹＺＶＨＰＥＶＷＧＵＸＥＣＴＡＮＮＡＦＬＺＪＹＫＴＧＵＺＺＱＣＵＺＣＧＰＷＡＢＧＲＰＥＦＶＹＩＭＧＪＫＪＬＥＨＬＴＧＧＯＪＫＧＴＭＬＣＸＨＣＸＥＫＢＢＵＵＩＭＴＨＱＷＦＬＦＥＢＫＪＵＭＭＫＱＹＺＫＫＵＬＡＨＴＣＧＢＲＰＰＯＲＪＧＪＹＭＥＭＯＱＭＹＮＮＬＧＱＬＧＮＳＫＫＤＷＫＶＣＡＪＢＥＱＬＸＧＦＱＢＹＷＣＥＬＷＷＢＧＤＳＡＪＴＤＡＤＨＨＨＪＣＹＣＲＸＸＦ" hidden="1">#REF!</definedName>
-    <definedName name="p">[6]result!#REF!</definedName>
+    <definedName name="p">[5]result!#REF!</definedName>
     <definedName name="P_N">#REF!</definedName>
-    <definedName name="PARALIST">[33]!PARALIST</definedName>
-    <definedName name="ＰＢＥＩＸＥＤＬＮＯＫＸＥＢＴＰＺＮＱＸＶＭＴＧＧＷＤＲＢＱＱＤＱＷＴＰＢＴＹＢＺＦＮＶＺＺＥＱＮＣＤＴＷＧＫＦＭＭＬＯＧＫＮＷＪＪＲＭＮＡＰＥＤＵＯＹＵＰＷＢＳＳＧＴＹＥＳＪＶＥＫＥＤＡＪＩＴＬＱＴＲＸＫＶＷＡＭＤＲＺＱＴＣＩＹＷＷＶＹＱＮＱＧＴＭＵＷＸＴＦＵＪＢＺＴＥＡＨＭＤＤＸＱＥＰＶＣＴＣＶＸＫＥＣＺＺＫＶＨＫＩＯＱＸＩＪＱＯＣＫＵＥＮＬＦＶＡＡＺＣＵＲＵＪＱＰＸＺＢＦＮＪＢＳＴＤＳＵＢＶＣＷＰＣＯＮＢＳＡＵＨＶＡＸＧＦＱＢＮＪＩＮＷＤＯＩＮＢＱＲＨＭＱＬＢＦＦＦＨＴＷＡＰＶＶＤＦＧＩＱＭＥＣＭＡ">[14]P1_cover!ＰＢＥＩＸＥＤＬＮＯＫＸＥＢＴＰＺＮＱＸＶＭＴＧＧＷＤＲＢＱＱＤＱＷＴＰＢＴＹＢＺＦＮＶＺＺＥＱＮＣＤＴＷＧＫＦＭＭＬＯＧＫＮＷＪＪＲＭＮＡＰＥＤＵＯＹＵＰＷＢＳＳＧＴＹＥＳＪＶＥＫＥＤＡＪＩＴＬＱＴＲＸＫＶＷＡＭＤＲＺＱＴＣＩＹＷＷＶＹＱＮＱＧＴＭＵＷＸＴＦＵＪＢＺＴＥＡＨＭＤＤＸＱＥＰＶＣＴＣＶＸＫＥＣＺＺＫＶＨＫＩＯＱＸＩＪＱＯＣＫＵＥＮＬＦＶＡＡＺＣＵＲＵＪＱＰＸＺＢＦＮＪＢＳＴＤＳＵＢＶＣＷＰＣＯＮＢＳＡＵＨＶＡＸＧＦＱＢＮＪＩＮＷＤＯＩＮＢＱＲＨＭＱＬＢＦＦＦＨＴＷＡＰＶＶＤＦＧＩＱＭＥＣＭＡ</definedName>
+    <definedName name="PARALIST">[32]!PARALIST</definedName>
+    <definedName name="ＰＢＥＩＸＥＤＬＮＯＫＸＥＢＴＰＺＮＱＸＶＭＴＧＧＷＤＲＢＱＱＤＱＷＴＰＢＴＹＢＺＦＮＶＺＺＥＱＮＣＤＴＷＧＫＦＭＭＬＯＧＫＮＷＪＪＲＭＮＡＰＥＤＵＯＹＵＰＷＢＳＳＧＴＹＥＳＪＶＥＫＥＤＡＪＩＴＬＱＴＲＸＫＶＷＡＭＤＲＺＱＴＣＩＹＷＷＶＹＱＮＱＧＴＭＵＷＸＴＦＵＪＢＺＴＥＡＨＭＤＤＸＱＥＰＶＣＴＣＶＸＫＥＣＺＺＫＶＨＫＩＯＱＸＩＪＱＯＣＫＵＥＮＬＦＶＡＡＺＣＵＲＵＪＱＰＸＺＢＦＮＪＢＳＴＤＳＵＢＶＣＷＰＣＯＮＢＳＡＵＨＶＡＸＧＦＱＢＮＪＩＮＷＤＯＩＮＢＱＲＨＭＱＬＢＦＦＦＨＴＷＡＰＶＶＤＦＧＩＱＭＥＣＭＡ">[13]P1_cover!ＰＢＥＩＸＥＤＬＮＯＫＸＥＢＴＰＺＮＱＸＶＭＴＧＧＷＤＲＢＱＱＤＱＷＴＰＢＴＹＢＺＦＮＶＺＺＥＱＮＣＤＴＷＧＫＦＭＭＬＯＧＫＮＷＪＪＲＭＮＡＰＥＤＵＯＹＵＰＷＢＳＳＧＴＹＥＳＪＶＥＫＥＤＡＪＩＴＬＱＴＲＸＫＶＷＡＭＤＲＺＱＴＣＩＹＷＷＶＹＱＮＱＧＴＭＵＷＸＴＦＵＪＢＺＴＥＡＨＭＤＤＸＱＥＰＶＣＴＣＶＸＫＥＣＺＺＫＶＨＫＩＯＱＸＩＪＱＯＣＫＵＥＮＬＦＶＡＡＺＣＵＲＵＪＱＰＸＺＢＦＮＪＢＳＴＤＳＵＢＶＣＷＰＣＯＮＢＳＡＵＨＶＡＸＧＦＱＢＮＪＩＮＷＤＯＩＮＢＱＲＨＭＱＬＢＦＦＦＨＴＷＡＰＶＶＤＦＧＩＱＭＥＣＭＡ</definedName>
     <definedName name="ＰＧＳＡＷＯＦＧＱＦＨＯＭＥＫＸＸＬＰＶＷＬＸＧＴＧＭＪＳＫＶＮＳＶＴＱＹＣＣＳＰＥＦＶＹＩＭＨＷＵＵＵＷＰＳＷＥＲＲＺＢＸＪＹＮＭＤＸＩＤＹＦＫＣＢＶＶＳＹＭＷＷＦＬＧＤＮＬＸＯＵＸＶＢＢＭＮＳＮＣＫＡＤＮＲＭＣＥＤＦＹＵＹＬＥＭＯＴＦＵＪＥＹＩＤＺＧＵＵＯＨＵＦＭＴＫＳＬＮＡＵＴＱＺＤＯＡＤＢＨＩＱＡＢＧＬＩＸＦＯＹＩＦＱＶＶＵＸＰＭＰＥＬＫＴＵＷＳＥＭＩＶＷＨＶＸＥＪＵＡＵＮＴＴＨＸＧＺＢＯＢＨＥＮＬＸＩＵＱＯＵＣＫＶＸＪＧＶＷＭＷＺＤＹＯＳＴＳＵＧＪＮＣＪＩＱＳＱＣＫＧＹＣＭＡＤＫＩＺＧＴＴＧＬＲ" hidden="1">#REF!</definedName>
     <definedName name="PHASE">#REF!</definedName>
     <definedName name="PLANDATE">#REF!</definedName>
     <definedName name="PlannedDelivery">#REF!</definedName>
     <definedName name="PLANORIGINATOR">#REF!</definedName>
     <definedName name="ＰＬＸＦＢＱＲＢＰＳＺＸＯＶＴＧＬＲＦＰＦＲＡＯＴＱＡＲＣＵＡＤＢＨＰＷＡＢＧＳＰＥＦＶＢＦＡＱＮＯＮＰＩＬＩＷＶＤＹＩＶＪＺＹＯＪＴＯＫＲＷＮＮＨＨＵＹＦＴＤＳＥＢＶＴＱＺＹＴＹＢＺＦＯＯＺＡＥＱＨＶＤＵＸＥＺＯＭＭＭＯＨＤＨＴＭＵＷＸＴＧＵＫＣＺＤＹＴＡＦＸＸＱＪＸＩＰＷＭＶＯＱＤＸＦＯＮＹＪＷＺＸＣＥＬＷＸＣＨＡＩＲＢＬＩＤＴＸＸＸＢＹＢＱＸＸＦＧＩＥＱＹＧＸＹＩＷＺＦＬＶＣＷＰＡＺＮＥＮＧＩＶＩＯＬＵＳＥＰＢＣＩＲＹＵＹＫＩＷＸＦＨＭＧＷＢＢＡＤＯＳＶＫＲＱＺＵＰＣＫＧＹＰＱＡＰＲＹＷＮＬＬＺＤＪ" hidden="1">#REF!</definedName>
-    <definedName name="pm">[6]result!#REF!</definedName>
-    <definedName name="PP">[38]DATA01!$I$4:$P$18</definedName>
+    <definedName name="pm">[5]result!#REF!</definedName>
+    <definedName name="PP">[37]DATA01!$I$4:$P$18</definedName>
+    <definedName name="ＰＰＵＺＸＬＴＣＮＳＮＤＨＨＨＪＣＹＣＲＸＸＦＨＩＥＲＹＺＱＲＢＱＳＺＥＰＶＩＷＨＨＶＬＵＮＰＢＨＥＮＬＸＩＵＱＯＤＫＶＰＴＦＤＲＳＪＴＶＺＵＫＯＰＥＰＴＷＬＳＴＶＷＳＦＭＪＢＳＴＤＲＷＵＭＳＦＦＴＸＤＫＡＭＶＩＶＢＸＨＹＫＢＨＫＩＯＣＧＨＭＸＶＫＫＢＥＯＳＭＣＡＡＺＣＵＹＢＪＱＹＴＵＱＤＲＨＧＷＲＢＷＳＺＥＶＧＧＴＹＥＳＣＲＤＭＳＭＬＩＲＱＬＱＴＲＺＡＫＬＱＣＳＨＰＦＩＷＲＨＦＦＥＧＺＶＧＵＭＵＷＹＴＧＵＫＲＭＷＲＮＵＺＱＱＫＤＱＢＩＰＧＯＨＪＷＶＳＢＺＬＷＳＱＷＹＦＱＲＶＡＹＭＵＥＯＸＵＰＦＪＫＪＣＹ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＰＰＵＺＸＬＴＣＮＳＮＤＨＨＨＪＣＹＣＲＸＸＦＨＩＥＲＹＺＱＲＢＱＳＺＥＰＶＩＷＨＨＶＬＵＮＰＢＨＥＮＬＸＩＵＱＯＤＫＶＰＴＦＤＲＳＪＴＶＺＵＫＯＰＥＰＴＷＬＳＴＶＷＳＦＭＪＢＳＴＤＲＷＵＭＳＦＦＴＸＤＫＡＭＶＩＶＢＸＨＹＫＢＨＫＩＯＣＧＨＭＸＶＫＫＢＥＯＳＭＣＡＡＺＣＵＹＢＪＱＹＴＵＱＤＲＨＧＷＲＢＷＳＺＥＶＧＧＴＹＥＳＣＲＤＭＳＭＬＩＲＱＬＱＴＲＺＡＫＬＱＣＳＨＰＦＩＷＲＨＦＦＥＧＺＶＧＵＭＵＷＹＴＧＵＫＲＭＷＲＮＵＺＱＱＫＤＱＢＩＰＧＯＨＪＷＶＳＢＺＬＷＳＱＷＹＦＱＲＶＡＹＭＵＥＯＸＵＰＦＪＫＪＣＹ" hidden="1">#REF!</definedName>
     <definedName name="PRINT">[2]計算表!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area">[24]駆動系1!$J$110:$BD$169</definedName>
-    <definedName name="PRINT_AREA_MI">[24]駆動系1!$J$110:$BD$169</definedName>
+    <definedName name="_xlnm.Print_Area">[23]駆動系1!$J$110:$BD$169</definedName>
+    <definedName name="PRINT_AREA_MI">[23]駆動系1!$J$110:$BD$169</definedName>
+    <definedName name="PRINT_AREA_MI1" localSheetId="0">#REF!</definedName>
     <definedName name="PRINT_AREA_MI1">#REF!</definedName>
+    <definedName name="Print_Area2" localSheetId="0">#REF!</definedName>
     <definedName name="Print_Area2">#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles">'[48]96期(川崎)'!#REF!</definedName>
-    <definedName name="PRINT_TITLES_MI">'[48]96期(川崎)'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'[47]96期(川崎)'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles">'[47]96期(川崎)'!#REF!</definedName>
+    <definedName name="PRINT_TITLES_MI" localSheetId="0">'[47]96期(川崎)'!#REF!</definedName>
+    <definedName name="PRINT_TITLES_MI">'[47]96期(川崎)'!#REF!</definedName>
+    <definedName name="PRINT_TITLES_MI1" localSheetId="0">#REF!</definedName>
     <definedName name="PRINT_TITLES_MI1">#REF!</definedName>
+    <definedName name="Print_Titles1" localSheetId="0">#REF!</definedName>
     <definedName name="Print_Titles1">#REF!</definedName>
+    <definedName name="Print_Titles2" localSheetId="0">#REF!</definedName>
     <definedName name="Print_Titles2">#REF!</definedName>
     <definedName name="printMI">#REF!</definedName>
     <definedName name="PROCEDURE">#REF!</definedName>
-    <definedName name="projectMonth">[49]Tabelle1!#REF!</definedName>
-    <definedName name="Properties">[50]Reference!$A$1:$A$7</definedName>
-    <definedName name="Proportionalanteil_CSC_Physik">[26]Parameterlist_1!$B$82</definedName>
-    <definedName name="Proportionalanteil_Erstbedatung">[26]Parameterlist_1!$B$81</definedName>
-    <definedName name="Proportionalanteil_FMEA_FDEF">[26]Parameterlist_1!$B$35</definedName>
-    <definedName name="Proportionalanteil_FMEA_Physik">[26]Parameterlist_1!$B$34</definedName>
-    <definedName name="Proportionalanteil_Test_Querwirkungen">[26]Parameterlist_1!$B$70</definedName>
-    <definedName name="Proportionalanteil_Test_SFT">[26]Parameterlist_1!$B$68</definedName>
-    <definedName name="Proportionalanteil_Tool">[26]Parameterlist_1!$B$80</definedName>
+    <definedName name="projectMonth">[48]Tabelle1!#REF!</definedName>
+    <definedName name="Properties">[49]Reference!$A$1:$A$7</definedName>
+    <definedName name="Proportionalanteil_CSC_Physik">[25]Parameterlist_1!$B$82</definedName>
+    <definedName name="Proportionalanteil_Erstbedatung">[25]Parameterlist_1!$B$81</definedName>
+    <definedName name="Proportionalanteil_FMEA_FDEF">[25]Parameterlist_1!$B$35</definedName>
+    <definedName name="Proportionalanteil_FMEA_Physik">[25]Parameterlist_1!$B$34</definedName>
+    <definedName name="Proportionalanteil_Test_Querwirkungen">[25]Parameterlist_1!$B$70</definedName>
+    <definedName name="Proportionalanteil_Test_SFT">[25]Parameterlist_1!$B$68</definedName>
+    <definedName name="Proportionalanteil_Tool">[25]Parameterlist_1!$B$80</definedName>
     <definedName name="ｑ">'[3]002(4)'!#REF!</definedName>
     <definedName name="q_何でも">#REF!</definedName>
-    <definedName name="ＱＩＦＩＹＥＥＭＯＰＬＸＦＬＣＤＮＣＰＵＦＭＦＹＭＸＸＬＢＫＤＦＳＦＬＰＮＺＫＷＳＱＷＦＱＫＰＡＹＮＯＥＯＲＶＰＦＫＫＪＭＸＢＥＧＦＮＰＱＭＺＧＤＶＧＲＦＨＯＩＰＢＢＰＴＺＯＸＮＺＩＶＶＳＢＴＥＷＢＥＣＶＣＧＨＬＸＶＪＫＢＥＮＲＭＣＡＡＣＵＹＢＫＸＸＦＡＢＸＪＹＮＭＤＸＩＤＹＦＫＪＤＤＱＧＵＥＴＦＯＵＯＮＫＴＳＤＶＡＤＢＨＱＱＯＴＦＶＫＳＩＬＶＺＯＬＭＬＮＧＣＧＶＩＢＪＬＭＩＶＪＺＲＯＪＣＹＦＫＢＢＶＯＣＮＴＡＲＫＭＺＴＳＰＹＸＩＴＦＩＧＭＯＶＧＨＬＱＯＣＫＩＲＰＪＸＸＷＺＲＯＳＨＮＮＶＸＹＵＧＯＫＭＮＸ">[14]P1_cover!ＱＩＦＩＹＥＥＭＯＰＬＸＦＬＣＤＮＣＰＵＦＭＦＹＭＸＸＬＢＫＤＦＳＦＬＰＮＺＫＷＳＱＷＦＱＫＰＡＹＮＯＥＯＲＶＰＦＫＫＪＭＸＢＥＧＦＮＰＱＭＺＧＤＶＧＲＦＨＯＩＰＢＢＰＴＺＯＸＮＺＩＶＶＳＢＴＥＷＢＥＣＶＣＧＨＬＸＶＪＫＢＥＮＲＭＣＡＡＣＵＹＢＫＸＸＦＡＢＸＪＹＮＭＤＸＩＤＹＦＫＪＤＤＱＧＵＥＴＦＯＵＯＮＫＴＳＤＶＡＤＢＨＱＱＯＴＦＶＫＳＩＬＶＺＯＬＭＬＮＧＣＧＶＩＢＪＬＭＩＶＪＺＲＯＪＣＹＦＫＢＢＶＯＣＮＴＡＲＫＭＺＴＳＰＹＸＩＴＦＩＧＭＯＶＧＨＬＱＯＣＫＩＲＰＪＸＸＷＺＲＯＳＨＮＮＶＸＹＵＧＯＫＭＮＸ</definedName>
+    <definedName name="ＱＩＦＩＹＥＥＭＯＰＬＸＦＬＣＤＮＣＰＵＦＭＦＹＭＸＸＬＢＫＤＦＳＦＬＰＮＺＫＷＳＱＷＦＱＫＰＡＹＮＯＥＯＲＶＰＦＫＫＪＭＸＢＥＧＦＮＰＱＭＺＧＤＶＧＲＦＨＯＩＰＢＢＰＴＺＯＸＮＺＩＶＶＳＢＴＥＷＢＥＣＶＣＧＨＬＸＶＪＫＢＥＮＲＭＣＡＡＣＵＹＢＫＸＸＦＡＢＸＪＹＮＭＤＸＩＤＹＦＫＪＤＤＱＧＵＥＴＦＯＵＯＮＫＴＳＤＶＡＤＢＨＱＱＯＴＦＶＫＳＩＬＶＺＯＬＭＬＮＧＣＧＶＩＢＪＬＭＩＶＪＺＲＯＪＣＹＦＫＢＢＶＯＣＮＴＡＲＫＭＺＴＳＰＹＸＩＴＦＩＧＭＯＶＧＨＬＱＯＣＫＩＲＰＪＸＸＷＺＲＯＳＨＮＮＶＸＹＵＧＯＫＭＮＸ">[13]P1_cover!ＱＩＦＩＹＥＥＭＯＰＬＸＦＬＣＤＮＣＰＵＦＭＦＹＭＸＸＬＢＫＤＦＳＦＬＰＮＺＫＷＳＱＷＦＱＫＰＡＹＮＯＥＯＲＶＰＦＫＫＪＭＸＢＥＧＦＮＰＱＭＺＧＤＶＧＲＦＨＯＩＰＢＢＰＴＺＯＸＮＺＩＶＶＳＢＴＥＷＢＥＣＶＣＧＨＬＸＶＪＫＢＥＮＲＭＣＡＡＣＵＹＢＫＸＸＦＡＢＸＪＹＮＭＤＸＩＤＹＦＫＪＤＤＱＧＵＥＴＦＯＵＯＮＫＴＳＤＶＡＤＢＨＱＱＯＴＦＶＫＳＩＬＶＺＯＬＭＬＮＧＣＧＶＩＢＪＬＭＩＶＪＺＲＯＪＣＹＦＫＢＢＶＯＣＮＴＡＲＫＭＺＴＳＰＹＸＩＴＦＩＧＭＯＶＧＨＬＱＯＣＫＩＲＰＪＸＸＷＺＲＯＳＨＮＮＶＸＹＵＧＯＫＭＮＸ</definedName>
     <definedName name="ＱＭＴＹＰＰＪＣＰＢＧＸＦＹＡＮＨＧＤＭＬＷＨＴ" hidden="1">#REF!</definedName>
-    <definedName name="QQ">[10]!subGraph</definedName>
+    <definedName name="QQ">[9]!subGraph</definedName>
+    <definedName name="ｑｑｑｑｑ" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
     <definedName name="ｑｑｑｑｑ" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
-    <definedName name="Querwirkung_formal">[26]Parameterlist_1!$B$31</definedName>
-    <definedName name="Querwirkung_physikalisch">[26]Parameterlist_1!$B$32</definedName>
+    <definedName name="Querwirkung_formal">[25]Parameterlist_1!$B$31</definedName>
+    <definedName name="Querwirkung_physikalisch">[25]Parameterlist_1!$B$32</definedName>
+    <definedName name="ＱＷＴＣＡＭＸＪＦＤＪＲＺＪＤＩＵＲＧＨＸＨＧＢＱＶＶＵＸＩＳＨＮＮＶＸＺＭＴＰＩＹＡＫＹＡＨＧＸＥＲＹＣＩＷＧＷＦＳＦＬＩＲＩＵＭＹＷＣＫＳＷＷＢＮＫＺＡＱＴＤＨＣＳＰＰＰＤＨＫＳＧＦＮＩＫＧＳＨＷＶＭＲＭＨＯＵＬＬＦＴＸＤＲＢＲＤＭＳＭＬＩＲＰＢＳＹＢＺＦＮＱＲＷＩＹＮＶＬＯＹＣＷＭＫＫＪＭＥＮＣＱＩＱＪＥＲＦＶＮＬＦＰＫＧＮＳＪＪＤＷＪＵＢＲＡＴＶＩＣＢＹＺＫＶＩＬＪＯＱＸＩＪＯＴＱＦＭＷＧＱＮＲＶＷＶＸＱＭＱＦＬＬＴＶＷＳＱＮＦＷＸＨＶＹＦＫＭＧＺＭＸＳＪＳＬＮＡＮＴＱＢＮＹＫＧＥＫＳＡＬＥＪＶＳ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＱＷＴＣＡＭＸＪＦＤＪＲＺＪＤＩＵＲＧＨＸＨＧＢＱＶＶＵＸＩＳＨＮＮＶＸＺＭＴＰＩＹＡＫＹＡＨＧＸＥＲＹＣＩＷＧＷＦＳＦＬＩＲＩＵＭＹＷＣＫＳＷＷＢＮＫＺＡＱＴＤＨＣＳＰＰＰＤＨＫＳＧＦＮＩＫＧＳＨＷＶＭＲＭＨＯＵＬＬＦＴＸＤＲＢＲＤＭＳＭＬＩＲＰＢＳＹＢＺＦＮＱＲＷＩＹＮＶＬＯＹＣＷＭＫＫＪＭＥＮＣＱＩＱＪＥＲＦＶＮＬＦＰＫＧＮＳＪＪＤＷＪＵＢＲＡＴＶＩＣＢＹＺＫＶＩＬＪＯＱＸＩＪＯＴＱＦＭＷＧＱＮＲＶＷＶＸＱＭＱＦＬＬＴＶＷＳＱＮＦＷＸＨＶＹＦＫＭＧＺＭＸＳＪＳＬＮＡＮＴＱＢＮＹＫＧＥＫＳＡＬＥＪＶＳ" hidden="1">#REF!</definedName>
+    <definedName name="qwww" localSheetId="0">Info_sheet!qwww</definedName>
     <definedName name="qwww">[0]!qwww</definedName>
+    <definedName name="RDBI_D900" localSheetId="0">#REF!</definedName>
     <definedName name="RDBI_D900">#REF!</definedName>
+    <definedName name="refCovR1" localSheetId="0">#REF!</definedName>
     <definedName name="refCovR1">#REF!</definedName>
+    <definedName name="refCovR10" localSheetId="0">#REF!</definedName>
     <definedName name="refCovR10">#REF!</definedName>
     <definedName name="refCovR11">#REF!</definedName>
     <definedName name="refCovR12">#REF!</definedName>
@@ -1208,65 +1378,77 @@
     <definedName name="REPORTDATE">#REF!</definedName>
     <definedName name="REPORTINGENGR">#REF!</definedName>
     <definedName name="REQ">#REF!</definedName>
-    <definedName name="REQ_ELOC">[26]Parameterlist_1!$B$10</definedName>
-    <definedName name="REQ_L">[26]Parameterlist_1!$B$9</definedName>
-    <definedName name="REQ_M">[26]Parameterlist_1!$B$8</definedName>
-    <definedName name="REQ_S">[26]Parameterlist_1!$B$7</definedName>
-    <definedName name="REQ_T">[26]Parameterlist_1!$B$6</definedName>
+    <definedName name="REQ_ELOC">[25]Parameterlist_1!$B$10</definedName>
+    <definedName name="REQ_L">[25]Parameterlist_1!$B$9</definedName>
+    <definedName name="REQ_M">[25]Parameterlist_1!$B$8</definedName>
+    <definedName name="REQ_S">[25]Parameterlist_1!$B$7</definedName>
+    <definedName name="REQ_T">[25]Parameterlist_1!$B$6</definedName>
+    <definedName name="REQMTQTY" localSheetId="0">#REF!</definedName>
     <definedName name="REQMTQTY">#REF!</definedName>
+    <definedName name="REQMTTYPE" localSheetId="0">#REF!</definedName>
     <definedName name="REQMTTYPE">#REF!</definedName>
+    <definedName name="Reset_Learned_Values" localSheetId="0">#REF!</definedName>
     <definedName name="Reset_Learned_Values">#REF!</definedName>
     <definedName name="RESPONSIBILITY">#REF!</definedName>
     <definedName name="RESULTS">#REF!</definedName>
     <definedName name="RF0">#REF!</definedName>
     <definedName name="RITU">#REF!</definedName>
     <definedName name="RJ0">#REF!</definedName>
-    <definedName name="RLI_3E">'[18]#REF'!#REF!</definedName>
+    <definedName name="RLI_3E">'[17]#REF'!#REF!</definedName>
     <definedName name="ROOP1">#REF!</definedName>
+    <definedName name="rr" localSheetId="0">Info_sheet!rr</definedName>
     <definedName name="rr">[0]!rr</definedName>
+    <definedName name="Ｓ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="Ｓ" hidden="1">#REF!</definedName>
-    <definedName name="S_119">[43]MessageSignalList!#REF!</definedName>
+    <definedName name="S_119" localSheetId="0">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_119">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_120" localSheetId="0">#REF!</definedName>
     <definedName name="S_120">#REF!</definedName>
-    <definedName name="S_127">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_130">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_131">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_136">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_18D">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_18E">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_18F">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_1AD">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_1AE">[37]SignalMatrix!#REF!</definedName>
-    <definedName name="S_1AF">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_1B8">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_1D0">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_1EF">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_280">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_2A1">[37]SignalMatrix!#REF!</definedName>
-    <definedName name="S_318">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_340">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_380">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_381">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_3A1">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_3A2">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_3B8">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_3B9">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_3BF">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_3C2">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_3C3">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_3D0">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_3D1">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_3D4">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_3D5">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_3D6">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_3D8">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_3D9">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_3E7">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_3E8">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_3FC">[45]SignalMatrix!#REF!</definedName>
-    <definedName name="S_47F">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_501">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="S_63x_68x">[43]MessageSignalList!#REF!</definedName>
-    <definedName name="sasasa">[9]DataList!#REF!</definedName>
+    <definedName name="S_127" localSheetId="0">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_127">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_130" localSheetId="0">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_130">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_131" localSheetId="0">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_131">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_136" localSheetId="0">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_136">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_18D" localSheetId="0">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_18D">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_18E">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_18F">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_1AD">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_1AE">[36]SignalMatrix!#REF!</definedName>
+    <definedName name="S_1AF">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_1B8">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_1D0">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_1EF">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_280">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_2A1">[36]SignalMatrix!#REF!</definedName>
+    <definedName name="S_318">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_340">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_380">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_381">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_3A1">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_3A2">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_3B8">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_3B9">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_3BF">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_3C2">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_3C3">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_3D0">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_3D1">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_3D4">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_3D5">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_3D6">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_3D8">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_3D9">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_3E7">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_3E8">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_3FC">[44]SignalMatrix!#REF!</definedName>
+    <definedName name="S_47F">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_501">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="S_63x_68x">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="sasasa">[8]DataList!#REF!</definedName>
     <definedName name="SAVE">#N/A</definedName>
     <definedName name="Scope_E">#REF!</definedName>
     <definedName name="Scope_J">#REF!</definedName>
@@ -1354,13 +1536,17 @@
     <definedName name="SEVENTHHOME">#REF!</definedName>
     <definedName name="SGSpaltenAnfang">#REF!</definedName>
     <definedName name="SGSpaltenEnde">#REF!</definedName>
-    <definedName name="SignalMatrix">[43]MessageSignalList!#REF!</definedName>
+    <definedName name="SignalMatrix">[42]MessageSignalList!#REF!</definedName>
+    <definedName name="SIXTHHOME" localSheetId="0">#REF!</definedName>
     <definedName name="SIXTHHOME">#REF!</definedName>
+    <definedName name="SIZE" localSheetId="0">#REF!</definedName>
     <definedName name="SIZE">#REF!</definedName>
+    <definedName name="soft品番" localSheetId="0">#REF!</definedName>
     <definedName name="soft品番">#REF!</definedName>
     <definedName name="SOURCE">#REF!</definedName>
-    <definedName name="spd">[6]result!#REF!</definedName>
+    <definedName name="spd">[5]result!#REF!</definedName>
     <definedName name="ＳＳ" hidden="1">#REF!</definedName>
+    <definedName name="sss" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
     <definedName name="sss" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
     <definedName name="STAGE">#REF!</definedName>
     <definedName name="START">#REF!</definedName>
@@ -1368,109 +1554,164 @@
     <definedName name="stateList">#REF!</definedName>
     <definedName name="SUB">#REF!</definedName>
     <definedName name="SUB00">#REF!</definedName>
-    <definedName name="subGraph">[51]!subGraph</definedName>
-    <definedName name="subMap">[51]!subMap</definedName>
+    <definedName name="subGraph">[50]!subGraph</definedName>
+    <definedName name="subMap">[50]!subMap</definedName>
+    <definedName name="SW品番" localSheetId="0">#REF!</definedName>
     <definedName name="SW品番">#REF!</definedName>
-    <definedName name="SYSTEM">[38]DATA01!$I$4:$P$18</definedName>
+    <definedName name="SYSTEM">[37]DATA01!$I$4:$P$18</definedName>
     <definedName name="ｔ">'[3]002(4)'!#REF!</definedName>
-    <definedName name="T_製造原価明細印刷ワーク_KOKUMAI">'[18]#REF'!$A$1:$AZ$79</definedName>
+    <definedName name="T_製造原価明細印刷ワーク_KOKUMAI">'[17]#REF'!$A$1:$AZ$79</definedName>
     <definedName name="TARGETREQMT">#REF!</definedName>
     <definedName name="Tc">#REF!</definedName>
     <definedName name="TENTHHOME">#REF!</definedName>
-    <definedName name="TEST">[24]駆動系1!$J$110:$BD$169</definedName>
-    <definedName name="Test_Doku_FC">[26]Parameterlist_1!$B$71</definedName>
-    <definedName name="Test_Organisation">[26]Parameterlist_1!$B$64</definedName>
+    <definedName name="TEST">[23]駆動系1!$J$110:$BD$169</definedName>
+    <definedName name="Test_Doku_FC">[25]Parameterlist_1!$B$71</definedName>
+    <definedName name="Test_Organisation">[25]Parameterlist_1!$B$64</definedName>
+    <definedName name="TESTEDQTY" localSheetId="0">#REF!</definedName>
     <definedName name="TESTEDQTY">#REF!</definedName>
+    <definedName name="TESTEDTYPE" localSheetId="0">#REF!</definedName>
     <definedName name="TESTEDTYPE">#REF!</definedName>
-    <definedName name="Teststand_Basis">[26]Parameterlist_1!$B$58</definedName>
-    <definedName name="Teststand_FDEF">[26]Parameterlist_1!$B$59</definedName>
-    <definedName name="ＴＦＩＧＭＯＶＧＧＬＱＮＣＫＴＥＮＴＪＮＮＮＰＩＥＩＸＤＤＬＮＶＨＰＬＤＵＶＦＵＷＤＩＴＺＴＭＡＬＫＹＰＪＬＹＬＲＯＸＷＨＳＥＡＹＥＮＵＦＺＪＧＶＷＭＷＺＤＹＮＳＳＲＵＦＪＭＣＩＩＬＮＩＶＣＺＲＩＪＴＨＫＲＰＧＮＡＡＮＳＹＡＱＣＬＵＡＸＧＸＪＰＳＱＷＥＭＰＱＶＨＥＴＯＲＢＦＡＱＮＮＮＰＩＷＥＳＲＺＵＷＳＥＴＩＨＹＳＣＹＴＡＯＮＨＨＶＬＺＪＹＫＴＺＦＣＬＪＶＮＳＶＴＺＨＩＴＴＹＩＷＥＶＹＨＬＧＷＵＵＴＶＯＫＯＤＲＪＲＴＶＨＶＬＤＢＶＦＡＷＩＡＡＴＭＡＬＲＺＰＹＲＴＧＡＡＪＨＴＥＱＴＲＸＹＧＲＲＷＢＹＯＸＨＲ">[14]P1_cover!ＴＦＩＧＭＯＶＧＧＬＱＮＣＫＴＥＮＴＪＮＮＮＰＩＥＩＸＤＤＬＮＶＨＰＬＤＵＶＦＵＷＤＩＴＺＴＭＡＬＫＹＰＪＬＹＬＲＯＸＷＨＳＥＡＹＥＮＵＦＺＪＧＶＷＭＷＺＤＹＮＳＳＲＵＦＪＭＣＩＩＬＮＩＶＣＺＲＩＪＴＨＫＲＰＧＮＡＡＮＳＹＡＱＣＬＵＡＸＧＸＪＰＳＱＷＥＭＰＱＶＨＥＴＯＲＢＦＡＱＮＮＮＰＩＷＥＳＲＺＵＷＳＥＴＩＨＹＳＣＹＴＡＯＮＨＨＶＬＺＪＹＫＴＺＦＣＬＪＶＮＳＶＴＺＨＩＴＴＹＩＷＥＶＹＨＬＧＷＵＵＴＶＯＫＯＤＲＪＲＴＶＨＶＬＤＢＶＦＡＷＩＡＡＴＭＡＬＲＺＰＹＲＴＧＡＡＪＨＴＥＱＴＲＸＹＧＲＲＷＢＹＯＸＨＲ</definedName>
-    <definedName name="THARF">[33]!THARF</definedName>
+    <definedName name="Teststand_Basis">[25]Parameterlist_1!$B$58</definedName>
+    <definedName name="Teststand_FDEF">[25]Parameterlist_1!$B$59</definedName>
+    <definedName name="ＴＦＩＧＭＯＶＧＧＬＱＮＣＫＴＥＮＴＪＮＮＮＰＩＥＩＸＤＤＬＮＶＨＰＬＤＵＶＦＵＷＤＩＴＺＴＭＡＬＫＹＰＪＬＹＬＲＯＸＷＨＳＥＡＹＥＮＵＦＺＪＧＶＷＭＷＺＤＹＮＳＳＲＵＦＪＭＣＩＩＬＮＩＶＣＺＲＩＪＴＨＫＲＰＧＮＡＡＮＳＹＡＱＣＬＵＡＸＧＸＪＰＳＱＷＥＭＰＱＶＨＥＴＯＲＢＦＡＱＮＮＮＰＩＷＥＳＲＺＵＷＳＥＴＩＨＹＳＣＹＴＡＯＮＨＨＶＬＺＪＹＫＴＺＦＣＬＪＶＮＳＶＴＺＨＩＴＴＹＩＷＥＶＹＨＬＧＷＵＵＴＶＯＫＯＤＲＪＲＴＶＨＶＬＤＢＶＦＡＷＩＡＡＴＭＡＬＲＺＰＹＲＴＧＡＡＪＨＴＥＱＴＲＸＹＧＲＲＷＢＹＯＸＨＲ">[13]P1_cover!ＴＦＩＧＭＯＶＧＧＬＱＮＣＫＴＥＮＴＪＮＮＮＰＩＥＩＸＤＤＬＮＶＨＰＬＤＵＶＦＵＷＤＩＴＺＴＭＡＬＫＹＰＪＬＹＬＲＯＸＷＨＳＥＡＹＥＮＵＦＺＪＧＶＷＭＷＺＤＹＮＳＳＲＵＦＪＭＣＩＩＬＮＩＶＣＺＲＩＪＴＨＫＲＰＧＮＡＡＮＳＹＡＱＣＬＵＡＸＧＸＪＰＳＱＷＥＭＰＱＶＨＥＴＯＲＢＦＡＱＮＮＮＰＩＷＥＳＲＺＵＷＳＥＴＩＨＹＳＣＹＴＡＯＮＨＨＶＬＺＪＹＫＴＺＦＣＬＪＶＮＳＶＴＺＨＩＴＴＹＩＷＥＶＹＨＬＧＷＵＵＴＶＯＫＯＤＲＪＲＴＶＨＶＬＤＢＶＦＡＷＩＡＡＴＭＡＬＲＺＰＹＲＴＧＡＡＪＨＴＥＱＴＲＸＹＧＲＲＷＢＹＯＸＨＲ</definedName>
+    <definedName name="THARF">[32]!THARF</definedName>
+    <definedName name="THIRDHOME" localSheetId="0">#REF!</definedName>
     <definedName name="THIRDHOME">#REF!</definedName>
-    <definedName name="thw">[6]result!#REF!</definedName>
+    <definedName name="thw">[5]result!#REF!</definedName>
     <definedName name="TM">#REF!</definedName>
     <definedName name="TMlist">#REF!</definedName>
-    <definedName name="ＴＭＰ">[52]駆動系1!$J$110:$BD$169</definedName>
-    <definedName name="ＴＭＰ２">[52]駆動系1!$J$110:$BD$169</definedName>
+    <definedName name="ＴＭＰ">[51]駆動系1!$J$110:$BD$169</definedName>
+    <definedName name="ＴＭＰ２">[51]駆動系1!$J$110:$BD$169</definedName>
+    <definedName name="TQ" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"smooth ride";#N/A,#N/A,TRUE,"rough ride";#N/A,#N/A,TRUE,"parking";#N/A,#N/A,TRUE,"straight Control";#N/A,#N/A,TRUE,"corn control";#N/A,#N/A,TRUE,"Steer disturbance";#N/A,#N/A,TRUE,"Straight stab.";#N/A,#N/A,TRUE,"cornering stab.";#N/A,#N/A,TRUE,"braking";#N/A,#N/A,TRUE,"braking dist"}</definedName>
     <definedName name="TQ" hidden="1">{#N/A,#N/A,TRUE,"smooth ride";#N/A,#N/A,TRUE,"rough ride";#N/A,#N/A,TRUE,"parking";#N/A,#N/A,TRUE,"straight Control";#N/A,#N/A,TRUE,"corn control";#N/A,#N/A,TRUE,"Steer disturbance";#N/A,#N/A,TRUE,"Straight stab.";#N/A,#N/A,TRUE,"cornering stab.";#N/A,#N/A,TRUE,"braking";#N/A,#N/A,TRUE,"braking dist"}</definedName>
     <definedName name="ＴＱＩＺＡＫＹＢＨＮＴＮＧＵＦＥＳＪＳＬＰＣＨＥＯＭＸＩＶＲＰＶＤＬＶＰＵＧＤＳＡＫＮＲＭＢＧＬＯＺＤＧＶＣＢＪＬＮＧＯＫＣＴＵＥＴＶＣＡＲＹＬＬＷＤＲＢＱＣＬＹＬＲＯＸＰＡＳＸＡＹＥＮＵＹＹＪＧＶＷＭＰＺＤＹＯＴＳＵＮＱＵＣＱＰＸＳＵＰＣＱＧＦＷＱＡＶＲＹＲＲＬＬＺＤＱＡＰＢＢＶＵＲＢＭＥＪＭＫＱＺＺＫＯＡＱＦＮＴＤＨＢＲＰＰＯＮＫＮＤＱＪＲＴＵＱＣＲＧＹＷＱＤＺＧＬＣＣＷＰＣＯＵＢＳＢＴＡＵＴＱＺＹＪＵＧＪＨＮＰＷＨＩＭＲＰＤＬＷＦＤＸＮＳＳＲＵＭＪＭＢＩＨＰＡＷＩＱＭＥＶＷＨＶＸＥＪＵＡＵＮＢＭＬＲ" hidden="1">#REF!</definedName>
+    <definedName name="TQ要望Graf" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"smooth ride";#N/A,#N/A,TRUE,"rough ride";#N/A,#N/A,TRUE,"parking";#N/A,#N/A,TRUE,"straight Control";#N/A,#N/A,TRUE,"corn control";#N/A,#N/A,TRUE,"Steer disturbance";#N/A,#N/A,TRUE,"Straight stab.";#N/A,#N/A,TRUE,"cornering stab.";#N/A,#N/A,TRUE,"braking";#N/A,#N/A,TRUE,"braking dist"}</definedName>
     <definedName name="TQ要望Graf" hidden="1">{#N/A,#N/A,TRUE,"smooth ride";#N/A,#N/A,TRUE,"rough ride";#N/A,#N/A,TRUE,"parking";#N/A,#N/A,TRUE,"straight Control";#N/A,#N/A,TRUE,"corn control";#N/A,#N/A,TRUE,"Steer disturbance";#N/A,#N/A,TRUE,"Straight stab.";#N/A,#N/A,TRUE,"cornering stab.";#N/A,#N/A,TRUE,"braking";#N/A,#N/A,TRUE,"braking dist"}</definedName>
+    <definedName name="tr" localSheetId="0">Info_sheet!tr</definedName>
     <definedName name="tr">[0]!tr</definedName>
-    <definedName name="ts">[6]result!#REF!</definedName>
+    <definedName name="ts" localSheetId="0">[5]result!#REF!</definedName>
+    <definedName name="ts">[5]result!#REF!</definedName>
+    <definedName name="ｔｔｔ" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"smooth ride";#N/A,#N/A,TRUE,"rough ride";#N/A,#N/A,TRUE,"parking";#N/A,#N/A,TRUE,"straight Control";#N/A,#N/A,TRUE,"corn control";#N/A,#N/A,TRUE,"Steer disturbance";#N/A,#N/A,TRUE,"Straight stab.";#N/A,#N/A,TRUE,"cornering stab.";#N/A,#N/A,TRUE,"braking";#N/A,#N/A,TRUE,"braking dist"}</definedName>
     <definedName name="ｔｔｔ" hidden="1">{#N/A,#N/A,TRUE,"smooth ride";#N/A,#N/A,TRUE,"rough ride";#N/A,#N/A,TRUE,"parking";#N/A,#N/A,TRUE,"straight Control";#N/A,#N/A,TRUE,"corn control";#N/A,#N/A,TRUE,"Steer disturbance";#N/A,#N/A,TRUE,"Straight stab.";#N/A,#N/A,TRUE,"cornering stab.";#N/A,#N/A,TRUE,"braking";#N/A,#N/A,TRUE,"braking dist"}</definedName>
     <definedName name="ＴＵＱＣＲＧＹＷＱＢＷＲＹＤＶＶＯＨＶＧ" hidden="1">#REF!</definedName>
-    <definedName name="tv0">[6]result!#REF!</definedName>
-    <definedName name="tvo">[6]result!#REF!</definedName>
+    <definedName name="tv0">[5]result!#REF!</definedName>
+    <definedName name="tvo">[5]result!#REF!</definedName>
     <definedName name="Tw">#REF!</definedName>
     <definedName name="txtChargeTel">#REF!</definedName>
     <definedName name="txtNumSheets">#REF!</definedName>
     <definedName name="txtReceDate">#REF!</definedName>
     <definedName name="txtSameProtoNo">#REF!</definedName>
+    <definedName name="tyr" localSheetId="0">Info_sheet!tyr</definedName>
     <definedName name="tyr">[0]!tyr</definedName>
+    <definedName name="u" localSheetId="0">Info_sheet!u</definedName>
     <definedName name="u">[0]!u</definedName>
+    <definedName name="ＵＬＬＦＦＳＸＤＲＢＱＣＬＲＬＫＨＦＱＩＯＲＰＸＸＩＪＮＺＱＦＭＤＧＰＴＯＥＣＭＰＨＥＨＷＫＣＫＭＯＰＤＴＬＪＤＮＩＥＬＨＨＢＵＩＴＫＢＫＤＦＳＭＬＫＪＵＦＲＵＹＡＨＳＴＹＤＡＰＸＧＱＡＸＲＨＭＭＬＯＧＤＡＧＧＯＱＲＮＺＨＤＴＶＦＴＶＣＩＳＺＳＭＷＶＪＡＩＢＤＱＥＪＧＰＯＺＫＷＳＲＷＫＶＰＴＦＤＲＳＪＴＶＺＵＫＰＮＰＢＥＩＸＥＤＬＮＯＧＮＫＣＴＵＥＳＺＸＯＶＡＮＳＹＭＷＬＸＧＴＧＭＪＳＤＵＡＤＢＨＰＷＡＢＧＳＰＥＦＶＹＩＭＧＷＵＵＰＩＬＰＬＫＴＮＰＬＸＭＢＡＲＬＷＲＭＴＹＵＮＮＢＦＭＡＪＺＬＵＡＵＴＱＺＨ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＵＬＬＦＦＳＸＤＲＢＱＣＬＲＬＫＨＦＱＩＯＲＰＸＸＩＪＮＺＱＦＭＤＧＰＴＯＥＣＭＰＨＥＨＷＫＣＫＭＯＰＤＴＬＪＤＮＩＥＬＨＨＢＵＩＴＫＢＫＤＦＳＭＬＫＪＵＦＲＵＹＡＨＳＴＹＤＡＰＸＧＱＡＸＲＨＭＭＬＯＧＤＡＧＧＯＱＲＮＺＨＤＴＶＦＴＶＣＩＳＺＳＭＷＶＪＡＩＢＤＱＥＪＧＰＯＺＫＷＳＲＷＫＶＰＴＦＤＲＳＪＴＶＺＵＫＰＮＰＢＥＩＸＥＤＬＮＯＧＮＫＣＴＵＥＳＺＸＯＶＡＮＳＹＭＷＬＸＧＴＧＭＪＳＤＵＡＤＢＨＰＷＡＢＧＳＰＥＦＶＹＩＭＧＷＵＵＰＩＬＰＬＫＴＮＰＬＸＭＢＡＲＬＷＲＭＴＹＵＮＮＢＦＭＡＪＺＬＵＡＵＴＱＺＨ" hidden="1">#REF!</definedName>
+    <definedName name="un" localSheetId="0">#REF!</definedName>
     <definedName name="un">#REF!</definedName>
+    <definedName name="UPGNO" localSheetId="0">#REF!</definedName>
     <definedName name="UPGNO">#REF!</definedName>
+    <definedName name="uyu" localSheetId="0">Info_sheet!uyu</definedName>
     <definedName name="uyu">[0]!uyu</definedName>
-    <definedName name="ＶＡＤＢＨＱＸＢＣＧＳＱＥＦＺＪＮＩＸＶＶＵＸＰＴＷＦＳＳＡＶＺＭＡＱＰＧＡＫＦＢＩＮＥＥＹＹＬＱＷＭＢＮＷＣＷＶＳＢＡＬＤＩＬＪＰＹＹＪＬＸＯＣＩＬＶＺＴＪＨＨＧＪＢＹＶＪＣＫＬＮＪＶＫＣＡＵＥＡＬＱＨＨＢＵＩＴＺＧＸＧＺＢＯＩＧＤＨＳＤＰＳＱＷ">[14]P1_cover!ＶＡＤＢＨＱＸＢＣＧＳＱＥＦＺＪＮＩＸＶＶＵＸＰＴＷＦＳＳＡＶＺＭＡＱＰＧＡＫＦＢＩＮＥＥＹＹＬＱＷＭＢＮＷＣＷＶＳＢＡＬＤＩＬＪＰＹＹＪＬＸＯＣＩＬＶＺＴＪＨＨＧＪＢＹＶＪＣＫＬＮＪＶＫＣＡＵＥＡＬＱＨＨＢＵＩＴＺＧＸＧＺＢＯＩＧＤＨＳＤＰＳＱＷ</definedName>
+    <definedName name="ＶＡＤＢＨＱＸＢＣＧＳＱＥＦＺＪＮＩＸＶＶＵＸＰＴＷＦＳＳＡＶＺＭＡＱＰＧＡＫＦＢＩＮＥＥＹＹＬＱＷＭＢＮＷＣＷＶＳＢＡＬＤＩＬＪＰＹＹＪＬＸＯＣＩＬＶＺＴＪＨＨＧＪＢＹＶＪＣＫＬＮＪＶＫＣＡＵＥＡＬＱＨＨＢＵＩＴＺＧＸＧＺＢＯＩＧＤＨＳＤＰＳＱＷ">[13]P1_cover!ＶＡＤＢＨＱＸＢＣＧＳＱＥＦＺＪＮＩＸＶＶＵＸＰＴＷＦＳＳＡＶＺＭＡＱＰＧＡＫＦＢＩＮＥＥＹＹＬＱＷＭＢＮＷＣＷＶＳＢＡＬＤＩＬＪＰＹＹＪＬＸＯＣＩＬＶＺＴＪＨＨＧＪＢＹＶＪＣＫＬＮＪＶＫＣＡＵＥＡＬＱＨＨＢＵＩＴＺＧＸＧＺＢＯＩＧＤＨＳＤＰＳＱＷ</definedName>
     <definedName name="valid">#REF!</definedName>
     <definedName name="ＶＢＰＺＰＢＫＱＫＪＧＰＮＺＲＷＺＸＤＬＭＷＣＯＦＴＢＲＶＥＩＤＴＱＲＱＳＬＨＬＡＯＧＯＪＦＳＧＷＯＭＧＱＬＨＯＴＫＫＥＸＫＷＣＪＴＭＯＢＶＵＲＡＺＫＶＨＫＸＺＧＲＳＴＱＦＮＷＧＱＮＩＹＣＤＣＥＸＴＸＭＳＬＮＯＫＸＥＢＴＫＬＶＪＭＴＹＩＰＪＣＩＨＶＭＶＯＱＤＱＷＴＣＡＭＸＪＦＤＪＲＺＪＮＺＷＬＭＣＭＰＴＯＤＩＩＨＫＶＺＣＳＹＹＧＩＬＸＦＢＴＫＬＶＫＭＴＲＪＰＣＣＱＵＡＯＹＨＱＤＱＷＴＣＴＦＸＣＦＤＪＲＺＤＤＩＵＲＧＨＷＧＫＥＵＳＳＲＵＭＱＴＩＩＱＬＭＩＶＪＺＸＯＪＴＯＦＫＢＢＶＶＩＮＴＨＲＧＳＢＧＥＢＫＪ" hidden="1">#REF!</definedName>
     <definedName name="ＶＣＱＡＰＢＫＱＫＪＧＰＯＺＲＷＺＸＵＶＧＧＬＸＮＯＥＩＲＶＱＧＤＥＤＦＹＵＹＮＡＴＢＤＥＡＮＹＱＯＩＳＯＩＮＦＥＹＲＦＱＷＳＢＵＷＪＤＣＺＩＧＳＤＯＭＳＴＢＬＭＲＷＴＩＱＡＫＨＣＲＯＮＱＩＦＩＹＥＥＭＯＰＬＸＩＡＲＴＤＲＴＡＧＱＸＱＫＸＩＩＷＭＶＩＶＩＯＬＵＳＥＰＢＸＶＢＶＧＺＥＷＬＭＣＭＰＴＯＥＩＩＩＫＰＳＨＯＮＶＸＺＶＨＰＬＤ" hidden="1">#REF!</definedName>
     <definedName name="VIN_Table">#REF!</definedName>
-    <definedName name="ＶＬＯＹＣＸＮＫＬＫＭＦＢＦＭＥＭＯＱＭＹＮＣＫＥＯＪＦＭＲＩＩＣＶＪＵＡＨＡＴＶＩＣＢＹＨＦＲＣＹＷＣＥＬＷＸＢＧＥＳＢＬＵＲＭＣＨＨＧＰＭＰＥＬＬＴＵＷＳＥＭＩＡＲＳＣＲＴＪＵＡＵＮＢＭＬＺＱＺＳＵＨＵＡＸＧＥＱＢＮＪＮＷＤＯＩＭＹＷＫＬＢＭＯＳＮＤＨＩＨＪＣＧＶＣＢＪＬＮＩＶＣＺＩＫＵＩＫＲＱＨＯＧＵＹＥＳＣＳＥＮＡＮＴＱＷＨＺＦＩＧＬＵＢＦＧＬＷＵＪＪＡＤＮＲＬＢＺＺＢＵＸＯＢＢＪＥＦＢＮＣＲＱＨＣＭＨＣＪＯＧＧＺＺＶＣＱＺＰＢＫＱＫＪＧＰＮＺＲＷＺＸＤＬＭＸＷＨＹＮＶＬＯＹＣＷＭＲＱＴＬＩＭＢＯ">[14]P1_cover!ＶＬＯＹＣＸＮＫＬＫＭＦＢＦＭＥＭＯＱＭＹＮＣＫＥＯＪＦＭＲＩＩＣＶＪＵＡＨＡＴＶＩＣＢＹＨＦＲＣＹＷＣＥＬＷＸＢＧＥＳＢＬＵＲＭＣＨＨＧＰＭＰＥＬＬＴＵＷＳＥＭＩＡＲＳＣＲＴＪＵＡＵＮＢＭＬＺＱＺＳＵＨＵＡＸＧＥＱＢＮＪＮＷＤＯＩＭＹＷＫＬＢＭＯＳＮＤＨＩＨＪＣＧＶＣＢＪＬＮＩＶＣＺＩＫＵＩＫＲＱＨＯＧＵＹＥＳＣＳＥＮＡＮＴＱＷＨＺＦＩＧＬＵＢＦＧＬＷＵＪＪＡＤＮＲＬＢＺＺＢＵＸＯＢＢＪＥＦＢＮＣＲＱＨＣＭＨＣＪＯＧＧＺＺＶＣＱＺＰＢＫＱＫＪＧＰＮＺＲＷＺＸＤＬＭＸＷＨＹＮＶＬＯＹＣＷＭＲＱＴＬＩＭＢＯ</definedName>
-    <definedName name="ＶＸＺＵＨＶＬＤＢＶＦＡＨＭＥＤＸＱＥＰＶＣＴＣＶＸＫＥＲＢＺＬＩＬＪＰＲＹＪＳＸＶＪＲＡＢＺＴＪＯＡＣＶＲＶＫＱＱＹＡＢＸＺＶＮＥＦＰＥＧＮＳＣＪＤＷＫＶＵＩＺＩＢＯＢＧＤＭＬＷＨＵＱＯＴＣＪＵＯＴＥＣＲＳＩＳＺＵＫＯＯＯＱＣＦＪＹＥＥＲＳＯＡＩＦＷＸＩＷＸＶＮＴＧＧＵＹＥＳＣＳＥＮＡＮＳＰＫＶＮＳＶＴＺＩＰＴＵＹＫＨＰＦＩＳＷＲＨＥＦＥＧＺＣＧＯＢＢＸＺＶＨＷＬＫＢＶＧＢＷＤＩＡＺＴＴＨＩＷＧＷＩＲＸＲＱＮＷＵＧＸＤＧＥＫＴＥＥＪＶＭＡＩＹＣＴＯＥＢＣＢＤＷＳＲＦＸＦＨＪＥＲＦＶＮＬＦＰＳＺＥＷＷＰＩ">[14]P1_cover!ＶＸＺＵＨＶＬＤＢＶＦＡＨＭＥＤＸＱＥＰＶＣＴＣＶＸＫＥＲＢＺＬＩＬＪＰＲＹＪＳＸＶＪＲＡＢＺＴＪＯＡＣＶＲＶＫＱＱＹＡＢＸＺＶＮＥＦＰＥＧＮＳＣＪＤＷＫＶＵＩＺＩＢＯＢＧＤＭＬＷＨＵＱＯＴＣＪＵＯＴＥＣＲＳＩＳＺＵＫＯＯＯＱＣＦＪＹＥＥＲＳＯＡＩＦＷＸＩＷＸＶＮＴＧＧＵＹＥＳＣＳＥＮＡＮＳＰＫＶＮＳＶＴＺＩＰＴＵＹＫＨＰＦＩＳＷＲＨＥＦＥＧＺＣＧＯＢＢＸＺＶＨＷＬＫＢＶＧＢＷＤＩＡＺＴＴＨＩＷＧＷＩＲＸＲＱＮＷＵＧＸＤＧＥＫＴＥＥＪＶＭＡＩＹＣＴＯＥＢＣＢＤＷＳＲＦＸＦＨＪＥＲＦＶＮＬＦＰＳＺＥＷＷＰＩ</definedName>
+    <definedName name="ＶＬＯＹＣＸＮＫＬＫＭＦＢＦＭＥＭＯＱＭＹＮＣＫＥＯＪＦＭＲＩＩＣＶＪＵＡＨＡＴＶＩＣＢＹＨＦＲＣＹＷＣＥＬＷＸＢＧＥＳＢＬＵＲＭＣＨＨＧＰＭＰＥＬＬＴＵＷＳＥＭＩＡＲＳＣＲＴＪＵＡＵＮＢＭＬＺＱＺＳＵＨＵＡＸＧＥＱＢＮＪＮＷＤＯＩＭＹＷＫＬＢＭＯＳＮＤＨＩＨＪＣＧＶＣＢＪＬＮＩＶＣＺＩＫＵＩＫＲＱＨＯＧＵＹＥＳＣＳＥＮＡＮＴＱＷＨＺＦＩＧＬＵＢＦＧＬＷＵＪＪＡＤＮＲＬＢＺＺＢＵＸＯＢＢＪＥＦＢＮＣＲＱＨＣＭＨＣＪＯＧＧＺＺＶＣＱＺＰＢＫＱＫＪＧＰＮＺＲＷＺＸＤＬＭＸＷＨＹＮＶＬＯＹＣＷＭＲＱＴＬＩＭＢＯ">[13]P1_cover!ＶＬＯＹＣＸＮＫＬＫＭＦＢＦＭＥＭＯＱＭＹＮＣＫＥＯＪＦＭＲＩＩＣＶＪＵＡＨＡＴＶＩＣＢＹＨＦＲＣＹＷＣＥＬＷＸＢＧＥＳＢＬＵＲＭＣＨＨＧＰＭＰＥＬＬＴＵＷＳＥＭＩＡＲＳＣＲＴＪＵＡＵＮＢＭＬＺＱＺＳＵＨＵＡＸＧＥＱＢＮＪＮＷＤＯＩＭＹＷＫＬＢＭＯＳＮＤＨＩＨＪＣＧＶＣＢＪＬＮＩＶＣＺＩＫＵＩＫＲＱＨＯＧＵＹＥＳＣＳＥＮＡＮＴＱＷＨＺＦＩＧＬＵＢＦＧＬＷＵＪＪＡＤＮＲＬＢＺＺＢＵＸＯＢＢＪＥＦＢＮＣＲＱＨＣＭＨＣＪＯＧＧＺＺＶＣＱＺＰＢＫＱＫＪＧＰＮＺＲＷＺＸＤＬＭＸＷＨＹＮＶＬＯＹＣＷＭＲＱＴＬＩＭＢＯ</definedName>
+    <definedName name="ＶＸＺＵＨＶＬＤＢＶＦＡＨＭＥＤＸＱＥＰＶＣＴＣＶＸＫＥＲＢＺＬＩＬＪＰＲＹＪＳＸＶＪＲＡＢＺＴＪＯＡＣＶＲＶＫＱＱＹＡＢＸＺＶＮＥＦＰＥＧＮＳＣＪＤＷＫＶＵＩＺＩＢＯＢＧＤＭＬＷＨＵＱＯＴＣＪＵＯＴＥＣＲＳＩＳＺＵＫＯＯＯＱＣＦＪＹＥＥＲＳＯＡＩＦＷＸＩＷＸＶＮＴＧＧＵＹＥＳＣＳＥＮＡＮＳＰＫＶＮＳＶＴＺＩＰＴＵＹＫＨＰＦＩＳＷＲＨＥＦＥＧＺＣＧＯＢＢＸＺＶＨＷＬＫＢＶＧＢＷＤＩＡＺＴＴＨＩＷＧＷＩＲＸＲＱＮＷＵＧＸＤＧＥＫＴＥＥＪＶＭＡＩＹＣＴＯＥＢＣＢＤＷＳＲＦＸＦＨＪＥＲＦＶＮＬＦＰＳＺＥＷＷＰＩ">[13]P1_cover!ＶＸＺＵＨＶＬＤＢＶＦＡＨＭＥＤＸＱＥＰＶＣＴＣＶＸＫＥＲＢＺＬＩＬＪＰＲＹＪＳＸＶＪＲＡＢＺＴＪＯＡＣＶＲＶＫＱＱＹＡＢＸＺＶＮＥＦＰＥＧＮＳＣＪＤＷＫＶＵＩＺＩＢＯＢＧＤＭＬＷＨＵＱＯＴＣＪＵＯＴＥＣＲＳＩＳＺＵＫＯＯＯＱＣＦＪＹＥＥＲＳＯＡＩＦＷＸＩＷＸＶＮＴＧＧＵＹＥＳＣＳＥＮＡＮＳＰＫＶＮＳＶＴＺＩＰＴＵＹＫＨＰＦＩＳＷＲＨＥＦＥＧＺＣＧＯＢＢＸＺＶＨＷＬＫＢＶＧＢＷＤＩＡＺＴＴＨＩＷＧＷＩＲＸＲＱＮＷＵＧＸＤＧＥＫＴＥＥＪＶＭＡＩＹＣＴＯＥＢＣＢＤＷＳＲＦＸＦＨＪＥＲＦＶＮＬＦＰＳＺＥＷＷＰＩ</definedName>
     <definedName name="ｗ">'[3]002(4)'!#REF!</definedName>
+    <definedName name="we" localSheetId="0">Info_sheet!we</definedName>
     <definedName name="we">[0]!we</definedName>
+    <definedName name="weer" localSheetId="0">Info_sheet!weer</definedName>
     <definedName name="weer">[0]!weer</definedName>
+    <definedName name="ＷＮＷＰＲＥＹＸＵＤＢＮＹＫＮＬＲＳＢＣＨＭ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＷＮＷＰＲＥＹＸＵＤＢＮＹＫＮＬＲＳＢＣＨＭ" hidden="1">#REF!</definedName>
+    <definedName name="ＷＰＬＰＥＬＫＳＵＶＲＥＬＳＪＫＵＩＬＳＸＨＯＩＢＯＡＺＮＥＮＦＩＵＲＯＸＷＨＳＦＢＺＦＮＵＦＺＥＱＮＨＹＩＫＰＮＳＳＲＵＦＪＭＢＩＩＱＲＴＰＣＺＲＩＪＴＨＫＲＰＧＮＡＡＷＣＱＡＪＳＦＳＸＵＥＶＱＷＺＸＣＬＳＷＸＣＮＬＡＡＲＵＥＩＣＳＱＱＰＱＴＸＦＴＳＡＶＸＳＦＴＪＩＺＴＤＹＵＢＡＡＴＵＨＬＳＧＱＦＲＡＧＡＺＷＦＥＰＨＭＦＬＴＵＦＦＫＷＭＢＪＺＣＭＱＳＰＱＰＲＫＧＫＺＭＦＮＰＱＭＺＮＮＫＦＰＫＦＭＳＪＪＣＷＪＵＢＩＺＨＡＣＰＪＳＢＺＬＷＩＬＪＰＱＹＩＪＯＴＱＦＮＷＧＱＮＭＱＱＱＳＬＨＬＡＧＧＩＪＦＳＺＶＮ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＷＰＬＰＥＬＫＳＵＶＲＥＬＳＪＫＵＩＬＳＸＨＯＩＢＯＡＺＮＥＮＦＩＵＲＯＸＷＨＳＦＢＺＦＮＵＦＺＥＱＮＨＹＩＫＰＮＳＳＲＵＦＪＭＢＩＩＱＲＴＰＣＺＲＩＪＴＨＫＲＰＧＮＡＡＷＣＱＡＪＳＦＳＸＵＥＶＱＷＺＸＣＬＳＷＸＣＮＬＡＡＲＵＥＩＣＳＱＱＰＱＴＸＦＴＳＡＶＸＳＦＴＪＩＺＴＤＹＵＢＡＡＴＵＨＬＳＧＱＦＲＡＧＡＺＷＦＥＰＨＭＦＬＴＵＦＦＫＷＭＢＪＺＣＭＱＳＰＱＰＲＫＧＫＺＭＦＮＰＱＭＺＮＮＫＦＰＫＦＭＳＪＪＣＷＪＵＢＩＺＨＡＣＰＪＳＢＺＬＷＩＬＪＰＱＹＩＪＯＴＱＦＮＷＧＱＮＭＱＱＱＳＬＨＬＡＧＧＩＪＦＳＺＶＮ" hidden="1">#REF!</definedName>
+    <definedName name="WR" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"smooth ride";#N/A,#N/A,TRUE,"rough ride";#N/A,#N/A,TRUE,"parking";#N/A,#N/A,TRUE,"straight Control";#N/A,#N/A,TRUE,"corn control";#N/A,#N/A,TRUE,"Steer disturbance";#N/A,#N/A,TRUE,"Straight stab.";#N/A,#N/A,TRUE,"cornering stab.";#N/A,#N/A,TRUE,"braking";#N/A,#N/A,TRUE,"braking dist"}</definedName>
     <definedName name="WR" hidden="1">{#N/A,#N/A,TRUE,"smooth ride";#N/A,#N/A,TRUE,"rough ride";#N/A,#N/A,TRUE,"parking";#N/A,#N/A,TRUE,"straight Control";#N/A,#N/A,TRUE,"corn control";#N/A,#N/A,TRUE,"Steer disturbance";#N/A,#N/A,TRUE,"Straight stab.";#N/A,#N/A,TRUE,"cornering stab.";#N/A,#N/A,TRUE,"braking";#N/A,#N/A,TRUE,"braking dist"}</definedName>
+    <definedName name="wrn.r202total." localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"smooth ride";#N/A,#N/A,TRUE,"rough ride";#N/A,#N/A,TRUE,"parking";#N/A,#N/A,TRUE,"straight Control";#N/A,#N/A,TRUE,"corn control";#N/A,#N/A,TRUE,"Steer disturbance";#N/A,#N/A,TRUE,"Straight stab.";#N/A,#N/A,TRUE,"cornering stab.";#N/A,#N/A,TRUE,"braking";#N/A,#N/A,TRUE,"braking dist"}</definedName>
     <definedName name="wrn.r202total." hidden="1">{#N/A,#N/A,TRUE,"smooth ride";#N/A,#N/A,TRUE,"rough ride";#N/A,#N/A,TRUE,"parking";#N/A,#N/A,TRUE,"straight Control";#N/A,#N/A,TRUE,"corn control";#N/A,#N/A,TRUE,"Steer disturbance";#N/A,#N/A,TRUE,"Straight stab.";#N/A,#N/A,TRUE,"cornering stab.";#N/A,#N/A,TRUE,"braking";#N/A,#N/A,TRUE,"braking dist"}</definedName>
+    <definedName name="wrn.target." localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
     <definedName name="wrn.target." hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
+    <definedName name="WRT" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
     <definedName name="WRT" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
+    <definedName name="WTR" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
     <definedName name="WTR" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
+    <definedName name="ww" localSheetId="0">Info_sheet!ww</definedName>
     <definedName name="ww">[0]!ww</definedName>
+    <definedName name="x" localSheetId="0">Info_sheet!x</definedName>
     <definedName name="x">[0]!x</definedName>
+    <definedName name="ｘ" localSheetId="0">Info_sheet!ｘ</definedName>
     <definedName name="ｘ">[0]!ｘ</definedName>
+    <definedName name="ＸＡＳＷＺＩＶＶＤＹＺＶ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＸＡＳＷＺＩＶＶＤＹＺＶ" hidden="1">#REF!</definedName>
+    <definedName name="XFLCURR" localSheetId="0">Info_sheet!XFLCURR</definedName>
     <definedName name="XFLCURR">[0]!XFLCURR</definedName>
+    <definedName name="ＸＪＰＷＮＶＯＱＤＸＷＴＣＴＥＲＵＳＹＺＨＲＳＸＣＺＯＷＦＰＡＶＫＰＰＯＲＪＧＪＮＭＵＷＹＴＧＯＫＣＴＵＥＴＶＣＨＲＹＳＬＺＡＯＦＯＨＪＷＪＯＬＵＴＥＰＣＹＷＣＫＲＷＢＮＫＺＡＱＡＤＨＣＳＷＷＷＹＫＮＲＧＭＹＡＢＸＫＲＯＧＸＹＩＷＸＷＮＵＧＨＵＹＦＴＤＳＥＮＡＮＴＱＺＲＵＡＤＢＧＰＷＡＢＧＲＰＥＦＶＮＲＭＣＺＡＺＢＵＸＢＪＸＷＥＺＣＰＤＳＪＤＮＩＥＬＱＨＨＢＢＯＴＺＣＲＤＭＳＮＬＩＲＱＸＤＧＥＫＳＴＤＥＪＶＬＡＩＹＢＬＰＡＸＹＸＺＰＳＨＶＯＷＸＺＶＨＷＬＤＢＫＦＡＨＭＥＤＸＱＥＰＶＣＴＣＶＸＫＩＦＯＮＹＪ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＸＪＰＷＮＶＯＱＤＸＷＴＣＴＥＲＵＳＹＺＨＲＳＸＣＺＯＷＦＰＡＶＫＰＰＯＲＪＧＪＮＭＵＷＹＴＧＯＫＣＴＵＥＴＶＣＨＲＹＳＬＺＡＯＦＯＨＪＷＪＯＬＵＴＥＰＣＹＷＣＫＲＷＢＮＫＺＡＱＡＤＨＣＳＷＷＷＹＫＮＲＧＭＹＡＢＸＫＲＯＧＸＹＩＷＸＷＮＵＧＨＵＹＦＴＤＳＥＮＡＮＴＱＺＲＵＡＤＢＧＰＷＡＢＧＲＰＥＦＶＮＲＭＣＺＡＺＢＵＸＢＪＸＷＥＺＣＰＤＳＪＤＮＩＥＬＱＨＨＢＢＯＴＺＣＲＤＭＳＮＬＩＲＱＸＤＧＥＫＳＴＤＥＪＶＬＡＩＹＢＬＰＡＸＹＸＺＰＳＨＶＯＷＸＺＶＨＷＬＤＢＫＦＡＨＭＥＤＸＱＥＰＶＣＴＣＶＸＫＩＦＯＮＹＪ" hidden="1">#REF!</definedName>
+    <definedName name="ＸＪＹＮＭＤＸＩＤＹＦＫＣＣＶＶＪＮＲＢＱＣＬＲＬＫＨＱＰＡＳＸＳＹＧＨＭＱＣＴＨＰＦＪＳＩＹＶＷＶＸＱＭＵＨＡＩＯＪＷＫＡＳＱＫＵＰＬＳＸＯＵＮＢＭＳＡＱＺＳＵＨＢＡＸＧＥＱＢＮＱＯＤＫＶＷＡＦＤＲＺＪＴＣＺＵＫＯＰＯＱＱＵＪＱＰＸＺＢＷＪＱＮＦＱＢＰＲＹＤＯＶＯＨＶＧＧＵＡＴＶＩＶＢＹＫＷＨＴＰＮＴＣＪＵＮＳＥＢＱＲＨＹＣＸＮＲＳＲＴＦＩＭＢＩＨＰＲＢＯＶＳＫＢＣＭＡＤＪＩＺＧＴＴＧＬＲＦＭＹＨＵＨＭＪＳＫＶＮＴＷＵＡＩＸＹＤＰＭＢＣＳＶＦＪＤＴＲＲＱＴＬＰＳＣＣＫＦＧＣＰＤＳＲＩＤＮＩＤＫＱＨＨＡＡ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＸＪＹＮＭＤＸＩＤＹＦＫＣＣＶＶＪＮＲＢＱＣＬＲＬＫＨＱＰＡＳＸＳＹＧＨＭＱＣＴＨＰＦＪＳＩＹＶＷＶＸＱＭＵＨＡＩＯＪＷＫＡＳＱＫＵＰＬＳＸＯＵＮＢＭＳＡＱＺＳＵＨＢＡＸＧＥＱＢＮＱＯＤＫＶＷＡＦＤＲＺＪＴＣＺＵＫＯＰＯＱＱＵＪＱＰＸＺＢＷＪＱＮＦＱＢＰＲＹＤＯＶＯＨＶＧＧＵＡＴＶＩＶＢＹＫＷＨＴＰＮＴＣＪＵＮＳＥＢＱＲＨＹＣＸＮＲＳＲＴＦＩＭＢＩＨＰＲＢＯＶＳＫＢＣＭＡＤＪＩＺＧＴＴＧＬＲＦＭＹＨＵＨＭＪＳＫＶＮＴＷＵＡＩＸＹＤＰＭＢＣＳＶＦＪＤＴＲＲＱＴＬＰＳＣＣＫＦＧＣＰＤＳＲＩＤＮＩＤＫＱＨＨＡＡ" hidden="1">#REF!</definedName>
+    <definedName name="XOKCURR" localSheetId="0">Info_sheet!XOKCURR</definedName>
     <definedName name="XOKCURR">[0]!XOKCURR</definedName>
+    <definedName name="ＸＵＭＤＥＯＣＦＭＲＢＩＣＶＩ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＸＵＭＤＥＯＣＦＭＲＢＩＣＶＩ" hidden="1">#REF!</definedName>
+    <definedName name="ＸＶＮＴＧＧＵＹＥＳＣＳＥＮＡＮＴＰＺＱＣＳＵＴＹＨＯＳＴＹＪＨＶＷＮＱＺＥＹＯＭＭＳＫＯＲＡＮＮＶＱＲＲＧＶＵＧＱＬＨＯＴＫＫＥＥＲＷＣＴＪＶＥＫＶＲＢＺＬＣＱＯＴＣＣＮＯＴＥＶＫＲＡＫＯＩＹＷＷＶＹＱＮＱＦＴＭＴＶＲＤＳＨＺＸＲＣＸＳＺＥＷＶＰＩＷＨＮＵＬＵＷＪＤＣＺＩＧＳＤＰＳＱＷＸＳＴＹＣＡＰＷＧＱＺＸＲＨＭＭＬＯＧＡＰＷＶＭＯＫＷＥＡＳＪＫＶＪＬＳＸＩＯＩＢＰＷＬＢＫＤＦＳＦＬＩＲＰＢＦＢＺＦＯＶＲＶＨＦＴＵＬＶＸＢＷＭＱＩＫＷＺＤＳＺＹＧＩＪＦＨＤＶＭＮＸＭＯＶＴＬＲＥＥＳＷＣＵＪＶＥＦＫＨＱ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＸＶＮＴＧＧＵＹＥＳＣＳＥＮＡＮＴＰＺＱＣＳＵＴＹＨＯＳＴＹＪＨＶＷＮＱＺＥＹＯＭＭＳＫＯＲＡＮＮＶＱＲＲＧＶＵＧＱＬＨＯＴＫＫＥＥＲＷＣＴＪＶＥＫＶＲＢＺＬＣＱＯＴＣＣＮＯＴＥＶＫＲＡＫＯＩＹＷＷＶＹＱＮＱＦＴＭＴＶＲＤＳＨＺＸＲＣＸＳＺＥＷＶＰＩＷＨＮＵＬＵＷＪＤＣＺＩＧＳＤＰＳＱＷＸＳＴＹＣＡＰＷＧＱＺＸＲＨＭＭＬＯＧＡＰＷＶＭＯＫＷＥＡＳＪＫＶＪＬＳＸＩＯＩＢＰＷＬＢＫＤＦＳＦＬＩＲＰＢＦＢＺＦＯＶＲＶＨＦＴＵＬＶＸＢＷＭＱＩＫＷＺＤＳＺＹＧＩＪＦＨＤＶＭＮＸＭＯＶＴＬＲＥＥＳＷＣＵＪＶＥＦＫＨＱ" hidden="1">#REF!</definedName>
-    <definedName name="xxx">'[18]#REF'!#REF!</definedName>
-    <definedName name="Xｺｰﾄﾞ">'[18]#REF'!$A$4:$D$45</definedName>
+    <definedName name="xxx" localSheetId="0">'[17]#REF'!#REF!</definedName>
+    <definedName name="xxx">'[17]#REF'!#REF!</definedName>
+    <definedName name="Xｺｰﾄﾞ">'[17]#REF'!$A$4:$D$45</definedName>
     <definedName name="ｙ">'[3]002(4)'!#REF!</definedName>
+    <definedName name="yt" localSheetId="0">Info_sheet!yt</definedName>
     <definedName name="yt">[0]!yt</definedName>
+    <definedName name="yuu" localSheetId="0">Info_sheet!yuu</definedName>
     <definedName name="yuu">[0]!yuu</definedName>
+    <definedName name="yy" localSheetId="0">Info_sheet!yy</definedName>
     <definedName name="yy">[0]!yy</definedName>
+    <definedName name="Z" localSheetId="0">#REF!</definedName>
     <definedName name="Z">#REF!</definedName>
+    <definedName name="ＺＡＷＩＱＭＥＶＷＨＶＸＵＭＳＦＦＴＸＤＲＢＲＤＭＺＭＲＯＹＰＢＳＹＰＵＤＫＯＬＸＶＪＫＢＨＬＧＷＴＴＴＶＯＲＡＮＮＶＱＲＦＴＩＨＹＴＤＹＴＡＧＸＸＱＱＡＨＶＥＵＧＰＶＰＯＬＵＳＥＷＢＥＣＩＱＬＭＱＣＬＴＪＮＷＡＶＬＩＪＩＫＤＺＤＳＧＹＧＲＮＺＯＮＬＦＰＹＦＫＢＢＶＯＣＮＴＡＲＡＴＶＶＵＲＡＹＫＶＨＫＩＯＯＺＺＥＪＧＶＤＭＷＧＤＹＯＳＴＳＢＸＢＱＸＷＥＧＩＤＱＸＵＭＤＥＯＣＦＭＲＢＯＨＶＧＧＵＫＴＭＯＢＯＵＲＡＹＫＶＨＤＢＨＱＲＬＱＣＺＯＰＦＵＹＴＩＮＮＭＰＡＥＨＨＨＰＲＳＯＡＩＥＷＮＯＺＮＰＪＡＨＵＵＨ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＺＡＷＩＱＭＥＶＷＨＶＸＵＭＳＦＦＴＸＤＲＢＲＤＭＺＭＲＯＹＰＢＳＹＰＵＤＫＯＬＸＶＪＫＢＨＬＧＷＴＴＴＶＯＲＡＮＮＶＱＲＦＴＩＨＹＴＤＹＴＡＧＸＸＱＱＡＨＶＥＵＧＰＶＰＯＬＵＳＥＷＢＥＣＩＱＬＭＱＣＬＴＪＮＷＡＶＬＩＪＩＫＤＺＤＳＧＹＧＲＮＺＯＮＬＦＰＹＦＫＢＢＶＯＣＮＴＡＲＡＴＶＶＵＲＡＹＫＶＨＫＩＯＯＺＺＥＪＧＶＤＭＷＧＤＹＯＳＴＳＢＸＢＱＸＷＥＧＩＤＱＸＵＭＤＥＯＣＦＭＲＢＯＨＶＧＧＵＫＴＭＯＢＯＵＲＡＹＫＶＨＤＢＨＱＲＬＱＣＺＯＰＦＵＹＴＩＮＮＭＰＡＥＨＨＨＰＲＳＯＡＩＥＷＮＯＺＮＰＪＡＨＵＵＨ" hidden="1">#REF!</definedName>
-    <definedName name="Zeit_Messpunkt_Fremdmessung">[26]Parameterlist_1!$B$20</definedName>
-    <definedName name="Zeit_Messpunkt_Selbstmessung">[26]Parameterlist_1!$B$19</definedName>
-    <definedName name="Zeit_pro_line_of_code">[26]Parameterlist_1!$B$44</definedName>
-    <definedName name="Zeit_pro_Versuch">[26]Parameterlist_1!$B$21</definedName>
+    <definedName name="Zeit_Messpunkt_Fremdmessung">[25]Parameterlist_1!$B$20</definedName>
+    <definedName name="Zeit_Messpunkt_Selbstmessung">[25]Parameterlist_1!$B$19</definedName>
+    <definedName name="Zeit_pro_line_of_code">[25]Parameterlist_1!$B$44</definedName>
+    <definedName name="Zeit_pro_Versuch">[25]Parameterlist_1!$B$21</definedName>
+    <definedName name="ＺＧＬＤＣＷＷＫＯＵＩＳＩＫＱＫＪＧＰＮＺＲＷＺＸＤＬＭＸＷＩＹＮＶＬＯＹＣＸＭＫＫＪＭ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＺＧＬＤＣＷＷＫＯＵＩＳＩＫＱＫＪＧＰＮＺＲＷＺＸＤＬＭＸＷＩＹＮＶＬＯＹＣＸＭＫＫＪＭ" hidden="1">#REF!</definedName>
+    <definedName name="Zoomfaktor" localSheetId="0">#REF!</definedName>
     <definedName name="Zoomfaktor">#REF!</definedName>
+    <definedName name="ＺＵＷＳＥＴＩＨＹＳＣＹＴＡＦＸＫＫＸＣＩＷＧＶＨＱＷＲＰＭＶＵＦＸＣＶＡＪＪＵＶＡＬＣＲＹＰＳＢＧＡＱＶＵＸＰＭＱＷＰＸＺＡＷＩＸＭＥＥＯＪＦＭＲＩＩＣＶＩＵＡＷＦＹＡＮＨＧＤＭＬＷＨＴＷＵＡＣＪＵＵＺＯＤＬＵＥＯＬＧＶＡＡＺＣＵＲＵＫＱＱＹＡＢＮＶＲＪＣＭＡＤＫＰＺＧＡＴＷＷＫＢＪＣＥＲＥＫＨＱＰＡＬＸＴＲＸＧＮＹＥＱＮＣＤＴＤＧＫＦＶＺＺＹＢＪＮＣＪＩＱＳＵＰＣＫＧＹＰＱＡＰＲＹＷＮＵＬＺＤＪＸＨＸＪＳＦＳＸＵＤＹＱＷＺＸＣＬＸＸＣＯＬＡＢＲＵＥＩＤＴＱＱＱＳＬＯＳＡＮＮＱＳＮＡＴＳＪＤＯＪＥＬＱＩ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="ＺＵＷＳＥＴＩＨＹＳＣＹＴＡＦＸＫＫＸＣＩＷＧＶＨＱＷＲＰＭＶＵＦＸＣＶＡＪＪＵＶＡＬＣＲＹＰＳＢＧＡＱＶＵＸＰＭＱＷＰＸＺＡＷＩＸＭＥＥＯＪＦＭＲＩＩＣＶＩＵＡＷＦＹＡＮＨＧＤＭＬＷＨＴＷＵＡＣＪＵＵＺＯＤＬＵＥＯＬＧＶＡＡＺＣＵＲＵＫＱＱＹＡＢＮＶＲＪＣＭＡＤＫＰＺＧＡＴＷＷＫＢＪＣＥＲＥＫＨＱＰＡＬＸＴＲＸＧＮＹＥＱＮＣＤＴＤＧＫＦＶＺＺＹＢＪＮＣＪＩＱＳＵＰＣＫＧＹＰＱＡＰＲＹＷＮＵＬＺＤＪＸＨＸＪＳＦＳＸＵＤＹＱＷＺＸＣＬＸＸＣＯＬＡＢＲＵＥＩＤＴＱＱＱＳＬＯＳＡＮＮＱＳＮＡＴＳＪＤＯＪＥＬＱＩ" hidden="1">#REF!</definedName>
+    <definedName name="zz" localSheetId="0">Info_sheet!zz</definedName>
     <definedName name="zz">[0]!zz</definedName>
+    <definedName name="ｚｚ" localSheetId="0">Info_sheet!ｚｚ</definedName>
     <definedName name="ｚｚ">[0]!ｚｚ</definedName>
+    <definedName name="zzz" localSheetId="0">Info_sheet!zzz</definedName>
     <definedName name="zzz">[0]!zzz</definedName>
+    <definedName name="あ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="あ" hidden="1">#REF!</definedName>
+    <definedName name="あ１" localSheetId="0">#REF!</definedName>
     <definedName name="あ１">#REF!</definedName>
-    <definedName name="あＳ">[38]DATA01!$C$2:$E$23</definedName>
+    <definedName name="あＳ">[37]DATA01!$C$2:$E$23</definedName>
+    <definedName name="ああああ" localSheetId="0">Info_sheet!ああああ</definedName>
     <definedName name="ああああ">[0]!ああああ</definedName>
+    <definedName name="あああああ" localSheetId="0">Info_sheet!あああああ</definedName>
     <definedName name="あああああ">[0]!あああああ</definedName>
+    <definedName name="ああああああ" localSheetId="0">Info_sheet!ああああああ</definedName>
     <definedName name="ああああああ">[0]!ああああああ</definedName>
+    <definedName name="い" localSheetId="0">'[3]002(4)'!#REF!</definedName>
     <definedName name="い">'[3]002(4)'!#REF!</definedName>
+    <definedName name="う" localSheetId="0">'[3]002(4)'!#REF!</definedName>
     <definedName name="う">'[3]002(4)'!#REF!</definedName>
+    <definedName name="え" localSheetId="0">'[3]002(4)'!#REF!</definedName>
     <definedName name="え">'[3]002(4)'!#REF!</definedName>
+    <definedName name="キャブ" localSheetId="0">#REF!</definedName>
     <definedName name="キャブ">#REF!</definedName>
-    <definedName name="ｺｰﾄﾞ">'[18]#REF'!$A$1:$E$41</definedName>
+    <definedName name="ｺｰﾄﾞ">'[17]#REF'!$A$1:$E$41</definedName>
     <definedName name="コメント">#REF!</definedName>
     <definedName name="ｻｲｽﾞ">'[3]002(4)'!#REF!</definedName>
-    <definedName name="ｼｰﾄＸ">'[18]#REF'!#REF!</definedName>
+    <definedName name="ｼｰﾄＸ">'[17]#REF'!#REF!</definedName>
     <definedName name="ﾃｽﾄ要否">'[3]002(4)'!#REF!</definedName>
     <definedName name="なんの事？">#REF!</definedName>
     <definedName name="ﾋﾞｯﾄｱｻｲﾝ">#REF!</definedName>
@@ -1478,43 +1719,57 @@
     <definedName name="ﾌﾟﾘﾝﾄA">#N/A</definedName>
     <definedName name="ﾌﾟﾘﾝﾄB">#N/A</definedName>
     <definedName name="ﾌﾟﾘﾝﾄC">#N/A</definedName>
+    <definedName name="ﾌﾛｰﾘﾐｯﾀ作動。" localSheetId="0">Info_sheet!ﾌﾛｰﾘﾐｯﾀ作動。</definedName>
     <definedName name="ﾌﾛｰﾘﾐｯﾀ作動。">[0]!ﾌﾛｰﾘﾐｯﾀ作動。</definedName>
+    <definedName name="ﾒﾆｭｰ" localSheetId="0">'[3]002(4)'!#REF!</definedName>
     <definedName name="ﾒﾆｭｰ">'[3]002(4)'!#REF!</definedName>
+    <definedName name="ﾒﾆｭｰ1" localSheetId="0">'[3]002(4)'!#REF!</definedName>
     <definedName name="ﾒﾆｭｰ1">'[3]002(4)'!#REF!</definedName>
+    <definedName name="ﾒﾆｭｰFILE" localSheetId="0">'[3]002(4)'!#REF!</definedName>
     <definedName name="ﾒﾆｭｰFILE">'[3]002(4)'!#REF!</definedName>
     <definedName name="ﾒﾆｭｰSAVE">'[3]002(4)'!#REF!</definedName>
     <definedName name="ﾒﾆｭｰ置換え">'[3]002(4)'!#REF!</definedName>
     <definedName name="ヨⅡ1">#REF!</definedName>
     <definedName name="上書">'[3]002(4)'!#REF!</definedName>
-    <definedName name="不具合">[5]result!#REF!</definedName>
+    <definedName name="不具合">[4]result!#REF!</definedName>
     <definedName name="不具合現象又は依頼項目">#REF!</definedName>
     <definedName name="印刷">'[3]002(4)'!#REF!</definedName>
     <definedName name="印刷1">#N/A</definedName>
-    <definedName name="場所">[40]data!$H$8:$H$23</definedName>
+    <definedName name="場所">[39]data!$H$8:$H$23</definedName>
     <definedName name="変数">'[3]002(4)'!#REF!</definedName>
     <definedName name="変数1">'[3]002(4)'!#REF!</definedName>
     <definedName name="変数2">'[3]002(4)'!#REF!</definedName>
-    <definedName name="変更概要書" hidden="1">[53]ENG油洩れ!#REF!</definedName>
+    <definedName name="変更概要書" hidden="1">[52]ENG油洩れ!#REF!</definedName>
     <definedName name="外字">'[3]002(4)'!#REF!</definedName>
-    <definedName name="室">[40]data!#REF!</definedName>
+    <definedName name="室">[39]data!#REF!</definedName>
+    <definedName name="対応" localSheetId="0">#REF!</definedName>
     <definedName name="対応">#REF!</definedName>
+    <definedName name="対照表２" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="対照表２" hidden="1">#REF!</definedName>
+    <definedName name="対象部品" localSheetId="0">'[3]002(4)'!#REF!</definedName>
     <definedName name="対象部品">'[3]002(4)'!#REF!</definedName>
-    <definedName name="工数">[40]data!$F$8:$F$17</definedName>
-    <definedName name="年">[40]data!#REF!</definedName>
+    <definedName name="工数">[39]data!$F$8:$F$17</definedName>
+    <definedName name="年">[39]data!#REF!</definedName>
+    <definedName name="性能" localSheetId="0">#REF!</definedName>
     <definedName name="性能">#REF!</definedName>
+    <definedName name="性能線図" localSheetId="0">#REF!</definedName>
     <definedName name="性能線図">#REF!</definedName>
-    <definedName name="担当">[40]data!$C$8:$C$21</definedName>
+    <definedName name="担当">[39]data!$C$8:$C$21</definedName>
+    <definedName name="担当リスト" localSheetId="0">#REF!</definedName>
     <definedName name="担当リスト">#REF!</definedName>
-    <definedName name="新エレキ部品" hidden="1">[54]ENG油洩れ!#REF!</definedName>
+    <definedName name="新エレキ部品" hidden="1">[53]ENG油洩れ!#REF!</definedName>
     <definedName name="新規">'[3]002(4)'!#REF!</definedName>
-    <definedName name="日">[40]data!#REF!</definedName>
-    <definedName name="月">[40]data!#REF!</definedName>
+    <definedName name="日">[39]data!#REF!</definedName>
+    <definedName name="月">[39]data!#REF!</definedName>
+    <definedName name="構成部品表" localSheetId="0">#REF!</definedName>
     <definedName name="構成部品表">#REF!</definedName>
     <definedName name="横集計">#N/A</definedName>
-    <definedName name="機種一覧">[55]一覧!$AB$43:$AM$47</definedName>
+    <definedName name="機種一覧">[54]一覧!$AB$43:$AM$47</definedName>
+    <definedName name="添付書類" localSheetId="0">#REF!</definedName>
     <definedName name="添付書類">#REF!</definedName>
+    <definedName name="目品比較" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="目品比較" hidden="1">#REF!</definedName>
+    <definedName name="目的リスト" localSheetId="0">#REF!</definedName>
     <definedName name="目的リスト">#REF!</definedName>
     <definedName name="省略記号">#REF!</definedName>
     <definedName name="端子">#REF!</definedName>
@@ -1522,6 +1777,7 @@
     <definedName name="組">#REF!</definedName>
     <definedName name="緊急度">#REF!</definedName>
     <definedName name="縦集計">#N/A</definedName>
+    <definedName name="英" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
     <definedName name="英" hidden="1">{#N/A,#N/A,TRUE,"RIDE";#N/A,#N/A,TRUE,"STEERING";#N/A,#N/A,TRUE,"HANDLING";#N/A,#N/A,TRUE,"BRAKING"}</definedName>
     <definedName name="複写">#N/A</definedName>
     <definedName name="規定値">'[3]002(4)'!#REF!</definedName>
@@ -1537,10 +1793,11 @@
     <definedName name="諸元">'[3]002(4)'!#REF!</definedName>
     <definedName name="諸元YN">'[3]002(4)'!#REF!</definedName>
     <definedName name="負担区分リスト">#REF!</definedName>
-    <definedName name="車両通信設定値仕様書">'[56]Bit assign'!#REF!</definedName>
-    <definedName name="送り先">[40]data!$H$8:$H$10</definedName>
+    <definedName name="車両通信設定値仕様書">'[55]Bit assign'!#REF!</definedName>
+    <definedName name="送り先">[39]data!$H$8:$H$10</definedName>
     <definedName name="選択">#N/A</definedName>
-    <definedName name="部">[40]data!#REF!</definedName>
+    <definedName name="部">[39]data!#REF!</definedName>
+    <definedName name="部品リスト" localSheetId="0">#REF!</definedName>
     <definedName name="部品リスト">#REF!</definedName>
     <definedName name="部品履歴">'[3]002(4)'!#REF!</definedName>
     <definedName name="部品番号">"テキスト 8"</definedName>
@@ -1558,7 +1815,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="168">
   <si>
     <t>DID</t>
   </si>
@@ -1578,9 +1835,6 @@
     <t>Hex</t>
   </si>
   <si>
-    <t>True|False</t>
-  </si>
-  <si>
     <t xml:space="preserve">Condition </t>
   </si>
   <si>
@@ -1594,12 +1848,6 @@
   </si>
   <si>
     <t>Value Cond2</t>
-  </si>
-  <si>
-    <t>True Value</t>
-  </si>
-  <si>
-    <t>0x3823</t>
   </si>
   <si>
     <t>x</t>
@@ -1629,9 +1877,6 @@
     <t>80</t>
   </si>
   <si>
-    <t>0x3829</t>
-  </si>
-  <si>
     <t>LoTRadrDsT_uRaw</t>
   </si>
   <si>
@@ -1641,37 +1886,19 @@
     <t>2</t>
   </si>
   <si>
-    <t>0xFF</t>
-  </si>
-  <si>
-    <t>0x382A</t>
-  </si>
-  <si>
     <t>HvbT3_uRaw</t>
-  </si>
-  <si>
-    <t>0x382B</t>
   </si>
   <si>
     <t>HvbT4_uRaw</t>
   </si>
   <si>
-    <t>0x382F</t>
-  </si>
-  <si>
     <t>CooltLvl4_uRaw</t>
-  </si>
-  <si>
-    <t>0x3834</t>
   </si>
   <si>
     <t>UPxP1_uRaw</t>
   </si>
   <si>
     <t>GlbDa_stVehTyp</t>
-  </si>
-  <si>
-    <t>0x3880</t>
   </si>
   <si>
     <t>SCtPmp_fRaw</t>
@@ -1692,9 +1919,6 @@
     <t>F7</t>
   </si>
   <si>
-    <t>0x3881</t>
-  </si>
-  <si>
     <t>SCtPmp_rRaw</t>
   </si>
   <si>
@@ -1713,9 +1937,6 @@
     <t>C5</t>
   </si>
   <si>
-    <t>0x3888</t>
-  </si>
-  <si>
     <t>CooltPmp1Hvb_fRaw</t>
   </si>
   <si>
@@ -1725,31 +1946,16 @@
     <t>3</t>
   </si>
   <si>
-    <t>0x3889</t>
-  </si>
-  <si>
     <t>CooltPmp1Hvb_rRaw</t>
-  </si>
-  <si>
-    <t>0x388A</t>
   </si>
   <si>
     <t>CooltPmp2Hvb_fRaw</t>
   </si>
   <si>
-    <t>0x388B</t>
-  </si>
-  <si>
     <t>CooltPmp2Hvb_rRaw</t>
   </si>
   <si>
-    <t>0x3890</t>
-  </si>
-  <si>
     <t>CtpCarrFrq_tiPerRaw_f</t>
-  </si>
-  <si>
-    <t>0x3891</t>
   </si>
   <si>
     <t xml:space="preserve">PwmCtP_rDtyCycRaw_f 
@@ -1762,13 +1968,7 @@
     <t>C2</t>
   </si>
   <si>
-    <t>0x3892</t>
-  </si>
-  <si>
     <t>UCtP_uSens_f</t>
-  </si>
-  <si>
-    <t>0x3903</t>
   </si>
   <si>
     <t>EnvT_t</t>
@@ -1789,9 +1989,6 @@
     <t>75</t>
   </si>
   <si>
-    <t>0x3909</t>
-  </si>
-  <si>
     <t>LoTRadrDsT_t_f</t>
   </si>
   <si>
@@ -1810,28 +2007,13 @@
     <t>9D</t>
   </si>
   <si>
-    <t>0x390A</t>
-  </si>
-  <si>
     <t>HvbT3_t_f</t>
-  </si>
-  <si>
-    <t>0x390B</t>
   </si>
   <si>
     <t>HvbT4_t_f</t>
   </si>
   <si>
-    <t>0x390C</t>
-  </si>
-  <si>
     <t>CooltLvl4_stRaw</t>
-  </si>
-  <si>
-    <t>0x3</t>
-  </si>
-  <si>
-    <t>0x3912</t>
   </si>
   <si>
     <t>ChgrPlug_stPxPCcs</t>
@@ -1841,12 +2023,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>0xF</t>
-  </si>
-  <si>
-    <t>0x3913</t>
   </si>
   <si>
     <t>ChgrPlug_stPxp1IntDebd</t>
@@ -1867,13 +2043,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>0x3986</t>
-  </si>
-  <si>
     <t>HandPrkBrkSwt_stRaw</t>
-  </si>
-  <si>
-    <t>0x3987</t>
   </si>
   <si>
     <t>RefgntFanSwtHvb1_stRaw</t>
@@ -1882,46 +2052,25 @@
     <t>RefgntFanSwtHvb2_stRaw</t>
   </si>
   <si>
-    <t>0x3988</t>
-  </si>
-  <si>
     <t>RefgntPSwtHvb1_stRaw</t>
   </si>
   <si>
     <t>RefgntPSwtHvb2_stRaw</t>
   </si>
   <si>
-    <t>0x398A</t>
-  </si>
-  <si>
     <t>SysOperExtnSwt_stRaw</t>
-  </si>
-  <si>
-    <t>0x39C0</t>
   </si>
   <si>
     <t>HvacPmp_nWtrPmpHeatrSpd</t>
   </si>
   <si>
-    <t>0x39C3</t>
-  </si>
-  <si>
     <t>WtrPmp2_nWtrPmpBatt11Spd</t>
-  </si>
-  <si>
-    <t>0x39C4</t>
   </si>
   <si>
     <t>WtrPmp2_nWtrPmpBatt12Spd</t>
   </si>
   <si>
-    <t>0x39C5</t>
-  </si>
-  <si>
     <t>WtrPmp2_nWtrPmpBatt21Spd</t>
-  </si>
-  <si>
-    <t>0x39C8</t>
   </si>
   <si>
     <t>ChgrPlug_stCtP</t>
@@ -1936,22 +2085,13 @@
     <t>6</t>
   </si>
   <si>
-    <t>0x39C9</t>
-  </si>
-  <si>
     <t>ChgrPlug_iCtPLim</t>
   </si>
   <si>
     <t>ChgrPlug_flgDigComRqrd</t>
   </si>
   <si>
-    <t>0x3A03</t>
-  </si>
-  <si>
     <t>Brk_flgPActvt</t>
-  </si>
-  <si>
-    <t>0x3A08</t>
   </si>
   <si>
     <t>ThermMod_stBattTModFinal1</t>
@@ -1975,9 +2115,6 @@
     <t>ThermMod_stBattTModFinal2</t>
   </si>
   <si>
-    <t>0x3A0A</t>
-  </si>
-  <si>
     <t>Com_Tx_MIMAMORI_Granted_Power_DCDC12</t>
   </si>
   <si>
@@ -1994,9 +2131,6 @@
   </si>
   <si>
     <t>Com_Tx_MIMAMORI_Granted_Power_EAC_B2</t>
-  </si>
-  <si>
-    <t>0x3A13</t>
   </si>
   <si>
     <t>HvGrid_pwrTotAvl</t>
@@ -2017,9 +2151,6 @@
     <t>1FFC</t>
   </si>
   <si>
-    <t>0x3A14</t>
-  </si>
-  <si>
     <t>HvBatt_pwrMaxRunng</t>
   </si>
   <si>
@@ -2038,25 +2169,13 @@
     <t>2708</t>
   </si>
   <si>
-    <t>0x3A15</t>
-  </si>
-  <si>
     <t>HvBatt_PwrMaxChrgDrv</t>
-  </si>
-  <si>
-    <t>0x3A16</t>
   </si>
   <si>
     <t>Com_iDchaMaxLim</t>
   </si>
   <si>
-    <t>0x3A17</t>
-  </si>
-  <si>
     <t>GbxPos_flgAutoNeut</t>
-  </si>
-  <si>
-    <t>0x3A18</t>
   </si>
   <si>
     <t>ACCtl_nElecCmprBattHiPLim1</t>
@@ -2080,12 +2199,6 @@
     <t>ACCtl_nElecCmprBattHiPLim2</t>
   </si>
   <si>
-    <t>0xFFF</t>
-  </si>
-  <si>
-    <t>0x3A89</t>
-  </si>
-  <si>
     <t>Emac_tqDesCom01</t>
   </si>
   <si>
@@ -2104,13 +2217,7 @@
     <t>FAFA</t>
   </si>
   <si>
-    <t>0x3AE0</t>
-  </si>
-  <si>
     <t>Com_Tx_DCDC24_1_Output_Permission</t>
-  </si>
-  <si>
-    <t>0x3B04</t>
   </si>
   <si>
     <t>ACCtl_flgElecAirCdngModReq1</t>
@@ -2119,7 +2226,100 @@
     <t>ACCtl_flgElecAirCdngModReq2</t>
   </si>
   <si>
-    <t>0x3BCB</t>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>382A</t>
+  </si>
+  <si>
+    <t>382B</t>
+  </si>
+  <si>
+    <t>382F</t>
+  </si>
+  <si>
+    <t>388A</t>
+  </si>
+  <si>
+    <t>388B</t>
+  </si>
+  <si>
+    <t>390A</t>
+  </si>
+  <si>
+    <t>390B</t>
+  </si>
+  <si>
+    <t>390C</t>
+  </si>
+  <si>
+    <t>398A</t>
+  </si>
+  <si>
+    <t>39C0</t>
+  </si>
+  <si>
+    <t>39C3</t>
+  </si>
+  <si>
+    <t>39C4</t>
+  </si>
+  <si>
+    <t>39C5</t>
+  </si>
+  <si>
+    <t>39C8</t>
+  </si>
+  <si>
+    <t>39C9</t>
+  </si>
+  <si>
+    <t>3A03</t>
+  </si>
+  <si>
+    <t>3A08</t>
+  </si>
+  <si>
+    <t>3A0A</t>
+  </si>
+  <si>
+    <t>3A13</t>
+  </si>
+  <si>
+    <t>3A14</t>
+  </si>
+  <si>
+    <t>3A15</t>
+  </si>
+  <si>
+    <t>3A16</t>
+  </si>
+  <si>
+    <t>3A17</t>
+  </si>
+  <si>
+    <t>3A18</t>
+  </si>
+  <si>
+    <t>3A89</t>
+  </si>
+  <si>
+    <t>3AE0</t>
+  </si>
+  <si>
+    <t>3B04</t>
+  </si>
+  <si>
+    <t>3BCB</t>
+  </si>
+  <si>
+    <t>Fixed value</t>
+  </si>
+  <si>
+    <t>Cond check</t>
   </si>
 </sst>
 </file>
@@ -2292,52 +2492,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="始動"/>
-      <sheetName val="LA4TIME"/>
-      <sheetName val="VCCWT"/>
-      <sheetName val="76極"/>
-      <sheetName val="#REF"/>
-      <sheetName val="表紙[P1]"/>
-      <sheetName val="確認領域星取り表"/>
-      <sheetName val="リーン側"/>
-      <sheetName val="リッチ側"/>
-      <sheetName val="添付データ目次[P3]"/>
-      <sheetName val="定数一覧"/>
-      <sheetName val="memo"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="計算表"/>
-      <sheetName val="ハンチング対策結果一覧 (加工)"/>
-      <sheetName val=""/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="subGraph"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2610,7 +2764,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4343,7 +4497,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4368,7 +4522,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4486,7 +4640,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4514,7 +4668,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5168,7 +5322,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5363,7 +5517,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5378,7 +5532,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5423,124 +5577,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="計算表"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="段ﾎﾞｰﾙ箱図番･荷姿ｺｰﾄﾞ"/>
-      <sheetName val="(9)-1.ﾀﾞﾝﾊﾟｰASSYの機能低下P-FTA"/>
-      <sheetName val="yh5特装"/>
-      <sheetName val="総合B"/>
-      <sheetName val="CAN送信(TRQ関係)"/>
-      <sheetName val="Grafic"/>
-      <sheetName val="ScrapM"/>
-      <sheetName val="99PCB量産品"/>
-      <sheetName val="★比較ｸﾞﾗﾌﾃﾞｰﾀｰ１"/>
-      <sheetName val="班部番別"/>
-      <sheetName val="5pump"/>
-      <sheetName val="9809台数"/>
-      <sheetName val="レビュー計画表"/>
-      <sheetName val="駆動機"/>
-      <sheetName val="#REF"/>
-      <sheetName val="MPL 技連"/>
-      <sheetName val="342E BLOCK"/>
-      <sheetName val="1.現状_09(Ec)"/>
-      <sheetName val="1.中点誤差(現)"/>
-      <sheetName val="リスト"/>
-      <sheetName val="ブロック図"/>
-      <sheetName val="20"/>
-      <sheetName val="supplier info"/>
-      <sheetName val="ﾃﾞｰﾀﾍﾞｰｽ"/>
-      <sheetName val="日産設通"/>
-      <sheetName val="MessageList"/>
-      <sheetName val="ZR_M32R"/>
-      <sheetName val="Ne算出関数"/>
-      <sheetName val="DATA(MKS)"/>
-      <sheetName val="ＴＡ２"/>
-      <sheetName val="mainCPU"/>
-      <sheetName val="定義シート1"/>
-      <sheetName val="ﾊﾟｰﾂﾘｽﾄ元"/>
-      <sheetName val="モニタ回路"/>
-      <sheetName val="ﾓｰﾀ端子電圧"/>
-      <sheetName val="A"/>
-      <sheetName val="事務所引越見積書"/>
-      <sheetName val="原価センター"/>
-      <sheetName val="204比較"/>
-      <sheetName val="FR"/>
-      <sheetName val="損益歴史"/>
-      <sheetName val="φ１１４ALT"/>
-      <sheetName val="車体構成"/>
-      <sheetName val="ﾘｽﾄ①"/>
-      <sheetName val="SCH"/>
-      <sheetName val="02年UMEX販売計画元資料"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="협조전"/>
-      <sheetName val="全体"/>
-      <sheetName val="機種一覧"/>
-      <sheetName val="TM"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5873,7 +5910,124 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="計算表"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="段ﾎﾞｰﾙ箱図番･荷姿ｺｰﾄﾞ"/>
+      <sheetName val="(9)-1.ﾀﾞﾝﾊﾟｰASSYの機能低下P-FTA"/>
+      <sheetName val="yh5特装"/>
+      <sheetName val="総合B"/>
+      <sheetName val="CAN送信(TRQ関係)"/>
+      <sheetName val="Grafic"/>
+      <sheetName val="ScrapM"/>
+      <sheetName val="99PCB量産品"/>
+      <sheetName val="★比較ｸﾞﾗﾌﾃﾞｰﾀｰ１"/>
+      <sheetName val="班部番別"/>
+      <sheetName val="5pump"/>
+      <sheetName val="9809台数"/>
+      <sheetName val="レビュー計画表"/>
+      <sheetName val="駆動機"/>
+      <sheetName val="#REF"/>
+      <sheetName val="MPL 技連"/>
+      <sheetName val="342E BLOCK"/>
+      <sheetName val="1.現状_09(Ec)"/>
+      <sheetName val="1.中点誤差(現)"/>
+      <sheetName val="リスト"/>
+      <sheetName val="ブロック図"/>
+      <sheetName val="20"/>
+      <sheetName val="supplier info"/>
+      <sheetName val="ﾃﾞｰﾀﾍﾞｰｽ"/>
+      <sheetName val="日産設通"/>
+      <sheetName val="MessageList"/>
+      <sheetName val="ZR_M32R"/>
+      <sheetName val="Ne算出関数"/>
+      <sheetName val="DATA(MKS)"/>
+      <sheetName val="ＴＡ２"/>
+      <sheetName val="mainCPU"/>
+      <sheetName val="定義シート1"/>
+      <sheetName val="ﾊﾟｰﾂﾘｽﾄ元"/>
+      <sheetName val="モニタ回路"/>
+      <sheetName val="ﾓｰﾀ端子電圧"/>
+      <sheetName val="A"/>
+      <sheetName val="事務所引越見積書"/>
+      <sheetName val="原価センター"/>
+      <sheetName val="204比較"/>
+      <sheetName val="FR"/>
+      <sheetName val="損益歴史"/>
+      <sheetName val="φ１１４ALT"/>
+      <sheetName val="車体構成"/>
+      <sheetName val="ﾘｽﾄ①"/>
+      <sheetName val="SCH"/>
+      <sheetName val="02年UMEX販売計画元資料"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="협조전"/>
+      <sheetName val="全体"/>
+      <sheetName val="機種一覧"/>
+      <sheetName val="TM"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5912,7 +6066,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5949,7 +6103,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5990,7 +6144,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -13351,7 +13505,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -13384,7 +13538,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -13682,7 +13836,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -13805,7 +13959,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -13934,7 +14088,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -14024,38 +14178,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="002(6)"/>
-      <sheetName val="002"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="002(2)"/>
-      <sheetName val="002(3)"/>
-      <sheetName val="002(4)"/>
-      <sheetName val="002(5)"/>
-      <sheetName val="改定記録 "/>
-      <sheetName val="製品紹介表"/>
-      <sheetName val="TIRE読み替え表"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -14142,7 +14265,38 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="002(6)"/>
+      <sheetName val="002"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="002(2)"/>
+      <sheetName val="002(3)"/>
+      <sheetName val="002(4)"/>
+      <sheetName val="002(5)"/>
+      <sheetName val="改定記録 "/>
+      <sheetName val="製品紹介表"/>
+      <sheetName val="TIRE読み替え表"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -14167,7 +14321,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -14205,7 +14359,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -14229,7 +14383,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -14250,7 +14404,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -14279,7 +14433,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -14318,7 +14472,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -14353,7 +14507,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -14734,7 +14888,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink38.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -16401,56 +16555,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cal"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="3BD6"/>
-      <sheetName val="3823(1)"/>
-      <sheetName val="3834"/>
-      <sheetName val="3A18"/>
-      <sheetName val="3A89"/>
-      <sheetName val="3A16"/>
-      <sheetName val="3A14"/>
-      <sheetName val="3A13"/>
-      <sheetName val="3A0C"/>
-      <sheetName val="3A08"/>
-      <sheetName val="39C9"/>
-      <sheetName val="39C0"/>
-      <sheetName val="3912"/>
-      <sheetName val="3903"/>
-      <sheetName val="3881"/>
-      <sheetName val="3880"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink39.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -16583,7 +16688,38 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Module1"/>
+      <sheetName val="Module2"/>
+      <sheetName val="Module4"/>
+      <sheetName val="Dialog1"/>
+      <sheetName val="result"/>
+      <sheetName val="result2"/>
+      <sheetName val="data"/>
+      <sheetName val="table"/>
+      <sheetName val="遅れ時間"/>
+      <sheetName val="unit"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink40.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -16622,7 +16758,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink41.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -16706,7 +16842,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink42.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -16751,7 +16887,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink43.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -16786,7 +16922,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink44.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -16829,7 +16965,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink45.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -16850,7 +16986,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink46.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -16873,7 +17009,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink47.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -18398,7 +18534,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink48.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -18413,38 +18549,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Module1"/>
-      <sheetName val="Module2"/>
-      <sheetName val="Module4"/>
-      <sheetName val="Dialog1"/>
-      <sheetName val="result"/>
-      <sheetName val="result2"/>
-      <sheetName val="data"/>
-      <sheetName val="table"/>
-      <sheetName val="遅れ時間"/>
-      <sheetName val="unit"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink49.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -18499,7 +18604,58 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Module1"/>
+      <sheetName val="Module2"/>
+      <sheetName val="Module4"/>
+      <sheetName val="Dialog1"/>
+      <sheetName val="result"/>
+      <sheetName val="一時保管"/>
+      <sheetName val="result29"/>
+      <sheetName val="result28"/>
+      <sheetName val="result27"/>
+      <sheetName val="result26"/>
+      <sheetName val="result25"/>
+      <sheetName val="result24"/>
+      <sheetName val="result23"/>
+      <sheetName val="result22"/>
+      <sheetName val="result21"/>
+      <sheetName val="result20"/>
+      <sheetName val="result2"/>
+      <sheetName val="data"/>
+      <sheetName val="table"/>
+      <sheetName val="遅れ時間"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink50.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -18542,7 +18698,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink51.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -25915,7 +26071,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink52.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -30008,7 +30164,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink53.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -31655,7 +31811,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink54.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -31806,7 +31962,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink55.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -31827,57 +31983,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Module1"/>
-      <sheetName val="Module2"/>
-      <sheetName val="Module4"/>
-      <sheetName val="Dialog1"/>
-      <sheetName val="result"/>
-      <sheetName val="一時保管"/>
-      <sheetName val="result29"/>
-      <sheetName val="result28"/>
-      <sheetName val="result27"/>
-      <sheetName val="result26"/>
-      <sheetName val="result25"/>
-      <sheetName val="result24"/>
-      <sheetName val="result23"/>
-      <sheetName val="result22"/>
-      <sheetName val="result21"/>
-      <sheetName val="result20"/>
-      <sheetName val="result2"/>
-      <sheetName val="data"/>
-      <sheetName val="table"/>
-      <sheetName val="遅れ時間"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="76極"/>
       <sheetName val="162"/>
       <sheetName val="93極full"/>
@@ -31895,7 +32000,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -31918,7 +32023,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -31934,6 +32039,52 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="始動"/>
+      <sheetName val="LA4TIME"/>
+      <sheetName val="VCCWT"/>
+      <sheetName val="76極"/>
+      <sheetName val="#REF"/>
+      <sheetName val="表紙[P1]"/>
+      <sheetName val="確認領域星取り表"/>
+      <sheetName val="リーン側"/>
+      <sheetName val="リッチ側"/>
+      <sheetName val="添付データ目次[P3]"/>
+      <sheetName val="定数一覧"/>
+      <sheetName val="memo"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="計算表"/>
+      <sheetName val="ハンチング対策結果一覧 (加工)"/>
+      <sheetName val=""/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="subGraph"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -32201,11 +32352,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA48A5F4-D550-4296-BA18-4A4D62A53861}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7225771E-E202-4664-AAD2-4E67A910D48E}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:K29"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32230,7 +32381,7 @@
     <col min="19" max="19" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
     <col min="23" max="23" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15.21875" bestFit="1" customWidth="1"/>
@@ -32304,94 +32455,94 @@
         <v>5</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="AB1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
+      <c r="A2" s="3">
+        <v>3823</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3">
         <v>50</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J2" s="3">
         <v>3250</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L2" s="3">
         <v>6550</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N2" s="3">
         <v>6500</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P2" s="3">
         <v>6450</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R2" s="3">
         <v>6400</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T2" s="3">
         <v>-50</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" s="3" t="b">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -32402,471 +32553,471 @@
       <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
+      <c r="A3" s="3">
+        <v>3829</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H3" s="3">
         <v>50</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J3" s="3">
         <v>3250</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L3" s="3">
         <v>6550</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N3" s="3">
         <v>6500</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P3" s="3">
         <v>6450</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R3" s="3">
         <v>6400</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T3" s="3">
         <v>-50</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V3" s="3" t="b">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X3" s="3">
         <v>1</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3">
         <v>50</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3">
         <v>3250</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L4" s="3">
         <v>6550</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N4" s="3">
         <v>6500</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P4" s="3">
         <v>6450</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R4" s="3">
         <v>6400</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T4" s="3">
         <v>-50</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V4" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X4" s="3">
         <v>1</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H5" s="3">
         <v>50</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J5" s="3">
         <v>3250</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L5" s="3">
         <v>6550</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N5" s="3">
         <v>6500</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P5" s="3">
         <v>6450</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R5" s="3">
         <v>6400</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T5" s="3">
         <v>-50</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X5" s="3">
         <v>1</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H6" s="3">
         <v>50</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J6" s="3">
         <v>3250</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L6" s="3">
         <v>6550</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N6" s="3">
         <v>6500</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P6" s="3">
         <v>6450</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R6" s="3">
         <v>6400</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T6" s="3">
         <v>-50</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X6" s="3">
         <v>1</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>34</v>
+      <c r="A7" s="3">
+        <v>3834</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H7" s="3">
         <v>50</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J7" s="3">
         <v>3250</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L7" s="3">
         <v>6550</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N7" s="3">
         <v>6500</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P7" s="3">
         <v>6450</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R7" s="3">
         <v>6400</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T7" s="3">
         <v>-50</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V7" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="X7" s="3">
         <v>0</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
+      <c r="A8" s="3">
+        <v>3880</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H8" s="3">
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J8" s="3">
         <v>250</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L8" s="3">
         <v>500</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N8" s="3">
         <v>498</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P8" s="3">
         <v>496</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="R8" s="3">
         <v>494</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="T8" s="3">
         <v>-2</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V8" s="3" t="b">
         <v>0</v>
@@ -32880,66 +33031,66 @@
       <c r="AC8" s="3"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>44</v>
+      <c r="A9" s="3">
+        <v>3881</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H9" s="3">
         <v>0.50048828125</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J9" s="3">
         <v>50</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N9" s="3">
         <v>99.51171875</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="P9" s="3">
         <v>99.01123046875</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="R9" s="3">
         <v>98.5107421875</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T9" s="3">
         <v>-0.5</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V9" s="3" t="b">
         <v>0</v>
@@ -32953,633 +33104,633 @@
       <c r="AC9" s="3"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>51</v>
+      <c r="A10" s="3">
+        <v>3888</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H10" s="3">
         <v>2</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J10" s="3">
         <v>250</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L10" s="3">
         <v>500</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N10" s="3">
         <v>498</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P10" s="3">
         <v>496</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="R10" s="3">
         <v>494</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="T10" s="3">
         <v>-2</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V10" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="X10" s="3">
         <v>1</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>55</v>
+      <c r="A11" s="3">
+        <v>3889</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H11" s="3">
         <v>0.50048828125</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J11" s="3">
         <v>50</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L11" s="3">
         <v>100</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N11" s="3">
         <v>99.51171875</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="P11" s="3">
         <v>99.01123046875</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="R11" s="3">
         <v>98.5107421875</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T11" s="3">
         <v>-0.5</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V11" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="X11" s="3">
         <v>1</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H12" s="3">
         <v>2</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J12" s="3">
         <v>250</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L12" s="3">
         <v>500</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N12" s="3">
         <v>498</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P12" s="3">
         <v>496</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="R12" s="3">
         <v>494</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="T12" s="3">
         <v>-2</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V12" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X12" s="3">
         <v>1</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H13" s="3">
         <v>0.50048828125</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J13" s="3">
         <v>50</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L13" s="3">
         <v>100</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N13" s="3">
         <v>99.51171875</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="P13" s="3">
         <v>99.01123046875</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="R13" s="3">
         <v>98.5107421875</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T13" s="3">
         <v>-0.5</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V13" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X13" s="3">
         <v>1</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>61</v>
+      <c r="A14" s="3">
+        <v>3890</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H14" s="3">
         <v>100000</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J14" s="3">
         <v>1000</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L14" s="3">
         <v>500</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N14" s="3">
         <v>502.51256281407035</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="P14" s="3">
         <v>505.05050505050508</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="R14" s="3">
         <v>507.61421319796955</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V14" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>63</v>
+      <c r="A15" s="3">
+        <v>3891</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H15" s="3">
         <v>0.5</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J15" s="3">
         <v>50</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N15" s="3">
         <v>99</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="P15" s="3">
         <v>98</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="R15" s="3">
         <v>97</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V15" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>67</v>
+      <c r="A16" s="3">
+        <v>3892</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H16" s="3">
         <v>0.1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J16" s="3">
         <v>12.5</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L16" s="3">
         <v>25</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N16" s="3">
         <v>24.9</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P16" s="3">
         <v>24.8</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="R16" s="3">
         <v>24.7</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="T16" s="3">
         <v>0</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V16" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="X16" s="3">
         <v>0</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>69</v>
+      <c r="A17" s="3">
+        <v>3903</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F17" s="3">
         <v>-39.939999999999969</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H17" s="3">
         <v>-38.939999999999969</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J17" s="3">
         <v>20.060000000000002</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="L17" s="3">
         <v>79.959999999999695</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="N17" s="3">
         <v>79.060000000000059</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="P17" s="3">
         <v>78.060000000000059</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="R17" s="3">
         <v>77.060000000000059</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="T17" s="3">
         <v>3003.56</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="V17" s="3" t="b">
         <v>0</v>
@@ -33593,465 +33744,465 @@
       <c r="AC17" s="3"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>76</v>
+      <c r="A18" s="3">
+        <v>3909</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F18" s="3">
         <v>-40</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H18" s="3">
         <v>-39</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J18" s="3">
         <v>40</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="L18" s="3">
         <v>120</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="N18" s="3">
         <v>119</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="P18" s="3">
         <v>118</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="R18" s="3">
         <v>117</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V18" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X18" s="3">
         <v>1</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F19" s="3">
         <v>-40</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H19" s="3">
         <v>-39</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J19" s="3">
         <v>40</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="L19" s="3">
         <v>120</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="N19" s="3">
         <v>119</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="P19" s="3">
         <v>118</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="R19" s="3">
         <v>117</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="T19" s="3">
         <v>0</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V19" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X19" s="3">
         <v>1</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F20" s="3">
         <v>-40</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H20" s="3">
         <v>-39</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J20" s="3">
         <v>40</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="L20" s="3">
         <v>120</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="N20" s="3">
         <v>119</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="P20" s="3">
         <v>118</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="R20" s="3">
         <v>117</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V20" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X20" s="3">
         <v>1</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L21" s="3">
         <v>1</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V21" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X21" s="3">
         <v>1</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
-      <c r="AC21" s="3" t="s">
-        <v>89</v>
+      <c r="AC21" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>90</v>
+      <c r="A22" s="3">
+        <v>3912</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J22" s="3">
         <v>2</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L22" s="3">
         <v>5</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="N22" s="3">
         <v>4</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="P22" s="3">
         <v>3</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="R22" s="3">
         <v>2</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V22" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>95</v>
+      <c r="A23" s="3">
+        <v>3913</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J23" s="3">
         <v>7</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="L23" s="3">
         <v>15</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="N23" s="3">
         <v>14</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="P23" s="3">
         <v>13</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="R23" s="3">
         <v>12</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
@@ -34063,40 +34214,40 @@
         <v>1</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>102</v>
+      <c r="A24" s="3">
+        <v>3986</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -34114,7 +34265,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -34152,24 +34303,24 @@
       <c r="AC24" s="3"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>104</v>
+      <c r="A25" s="3">
+        <v>3987</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -34187,7 +34338,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N25" s="3">
         <v>0</v>
@@ -34225,24 +34376,24 @@
       <c r="AC25" s="3"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>104</v>
+      <c r="A26" s="3">
+        <v>3987</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -34260,7 +34411,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -34290,40 +34441,40 @@
         <v>1</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X26" s="3">
         <v>1</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
-      <c r="AC26" s="3" t="s">
-        <v>89</v>
+      <c r="AC26" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>107</v>
+      <c r="A27" s="3">
+        <v>3988</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -34341,7 +34492,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -34379,24 +34530,24 @@
       <c r="AC27" s="3"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>107</v>
+      <c r="A28" s="3">
+        <v>3988</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -34414,7 +34565,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N28" s="3">
         <v>0</v>
@@ -34444,34 +34595,34 @@
         <v>1</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X28" s="3">
         <v>1</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
-      <c r="AC28" s="3" t="s">
-        <v>89</v>
+      <c r="AC28" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -34534,65 +34685,65 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H30" s="3">
         <v>50</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J30" s="3">
         <v>6250</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L30" s="3">
         <v>12500</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N30" s="3">
         <v>12450</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P30" s="3">
         <v>12400</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="R30" s="3">
         <v>12350</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="T30" s="3">
         <v>-50</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V30" s="3" t="b">
         <v>0</v>
@@ -34607,65 +34758,65 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H31" s="3">
         <v>50</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J31" s="3">
         <v>6250</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L31" s="3">
         <v>12500</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N31" s="3">
         <v>12450</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P31" s="3">
         <v>12400</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="R31" s="3">
         <v>12350</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="T31" s="3">
         <v>-50</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V31" s="3" t="b">
         <v>0</v>
@@ -34680,527 +34831,527 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H32" s="3">
         <v>50</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J32" s="3">
         <v>6250</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L32" s="3">
         <v>12500</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N32" s="3">
         <v>12450</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P32" s="3">
         <v>12400</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="R32" s="3">
         <v>12350</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="T32" s="3">
         <v>-50</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V32" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="X32" s="3">
         <v>1</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H33" s="3">
         <v>50</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J33" s="3">
         <v>6250</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L33" s="3">
         <v>12500</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N33" s="3">
         <v>12450</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P33" s="3">
         <v>12400</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="R33" s="3">
         <v>12350</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="T33" s="3">
         <v>-50</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V33" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X33" s="3">
         <v>1</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="B34" s="3">
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J34" s="3">
         <v>4</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="L34" s="3">
         <v>9</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="N34" s="3">
         <v>8</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="P34" s="3">
         <v>7</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="R34" s="3">
         <v>6</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="T34" s="3">
         <v>0</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V34" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="X34" s="3">
         <v>0</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H35" s="3">
         <v>0.5</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J35" s="3">
         <v>62.5</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L35" s="3">
         <v>125</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N35" s="3">
         <v>124.5</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P35" s="3">
         <v>124</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="R35" s="3">
         <v>123.5</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="T35" s="3">
         <v>-0.5</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V35" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Z35" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AA35" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB35" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AC35" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B36" s="3">
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H36" s="3">
         <v>0.5</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J36" s="3">
         <v>62.5</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L36" s="3">
         <v>125</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N36" s="3">
         <v>124.5</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P36" s="3">
         <v>124</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="R36" s="3">
         <v>123.5</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="T36" s="3">
         <v>-0.5</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V36" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y36" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Z36" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AA36" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AC36" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B37" s="3">
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H37" s="3">
         <v>0.5</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J37" s="3">
         <v>62.5</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L37" s="3">
         <v>125</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N37" s="3">
         <v>124.5</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P37" s="3">
         <v>124</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="R37" s="3">
         <v>123.5</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="T37" s="3">
         <v>-0.5</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V37" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Z37" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AA37" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AB37" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AC37" s="3" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="B38" s="3">
         <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -35218,7 +35369,7 @@
         <v>1</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N38" s="3">
         <v>0</v>
@@ -35257,65 +35408,65 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H39" s="3">
         <v>1</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J39" s="3">
         <v>127</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="L39" s="3">
         <v>255</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="N39" s="3">
         <v>254</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="P39" s="3">
         <v>253</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="R39" s="3">
         <v>252</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="T39" s="3">
         <v>0</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V39" s="3" t="b">
         <v>0</v>
@@ -35330,140 +35481,140 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="B40" s="3">
         <v>2</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H40" s="3">
         <v>1</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J40" s="3">
         <v>7</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="L40" s="3">
         <v>15</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="N40" s="3">
         <v>14</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="P40" s="3">
         <v>13</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="R40" s="3">
         <v>12</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="T40" s="3">
         <v>0</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V40" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X40" s="3">
         <v>1</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B41" s="3">
         <v>3</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H41" s="3">
         <v>0.1</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J41" s="3">
         <v>12.5</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L41" s="3">
         <v>25</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N41" s="3">
         <v>24.9</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P41" s="3">
         <v>24.8</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="R41" s="3">
         <v>24.7</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -35484,17 +35635,17 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B42" s="3">
         <v>4</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -35557,17 +35708,17 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B43" s="3">
         <v>5</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -35630,17 +35781,17 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B44" s="3">
         <v>6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -35703,17 +35854,17 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B45" s="3">
         <v>7</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -35776,17 +35927,17 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B46" s="3">
         <v>8</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -35849,65 +36000,65 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H47" s="3">
         <v>100</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J47" s="3">
         <v>409500</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="L47" s="3">
         <v>819100</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="N47" s="3">
         <v>819000</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="P47" s="3">
         <v>818900</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="R47" s="3">
         <v>818800</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="T47" s="3">
         <v>-1</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V47" s="3" t="b">
         <v>0</v>
@@ -35922,65 +36073,65 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H48" s="3">
         <v>0.25</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="L48" s="3">
         <v>1000</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="N48" s="3">
         <v>999.75</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="P48" s="3">
         <v>999.5</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="R48" s="3">
         <v>999.25</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="T48" s="3">
         <v>16383.75</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="V48" s="3" t="b">
         <v>0</v>
@@ -35995,65 +36146,65 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H49" s="3">
         <v>0.25</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J49" s="3">
         <v>500</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="L49" s="3">
         <v>1000</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="N49" s="3">
         <v>999.75</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="P49" s="3">
         <v>999.5</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="R49" s="3">
         <v>999.25</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="T49" s="3">
         <v>16383.75</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="V49" s="3" t="b">
         <v>0</v>
@@ -36068,65 +36219,65 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="F50" s="3">
         <v>-255</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H50" s="3">
         <v>-254</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J50" s="3">
         <v>-127.5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="L50" s="3">
         <v>0</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="N50" s="3">
         <v>-1</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="P50" s="3">
         <v>-2</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="R50" s="3">
         <v>-3</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="T50" s="3">
         <v>65535</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="V50" s="3" t="b">
         <v>0</v>
@@ -36141,23 +36292,23 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
@@ -36175,7 +36326,7 @@
         <v>1</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N51" s="3">
         <v>0</v>
@@ -36214,65 +36365,65 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H52" s="3">
         <v>10</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J52" s="3">
         <v>5000</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="L52" s="3">
         <v>10000</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="N52" s="3">
         <v>9990</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="P52" s="3">
         <v>9980</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="R52" s="3">
         <v>9970</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="T52" s="3">
         <v>16383.75</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="V52" s="3" t="b">
         <v>0</v>
@@ -36287,146 +36438,146 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B53" s="3">
         <v>3</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H53" s="3">
         <v>10</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J53" s="3">
         <v>5000</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="L53" s="3">
         <v>10000</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="N53" s="3">
         <v>9990</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="P53" s="3">
         <v>9980</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="R53" s="3">
         <v>9970</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="T53" s="3">
         <v>16383.75</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="V53" s="3" t="b">
         <v>1</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X53" s="3">
         <v>1</v>
       </c>
       <c r="Y53" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
       <c r="AC53" s="3" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B54" s="3">
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="F54" s="3">
         <v>-1600</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H54" s="3">
         <v>-1599.9</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J54" s="3">
         <v>6.3</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="L54" s="3">
         <v>1612.8</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="N54" s="3">
         <v>1612.7</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="P54" s="3">
         <v>1612.6</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="R54" s="3">
         <v>1612.5</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="T54" s="3">
         <v>3276.9</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="V54" s="3" t="b">
         <v>0</v>
@@ -36441,23 +36592,23 @@
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
@@ -36475,7 +36626,7 @@
         <v>1</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N55" s="3">
         <v>0</v>
@@ -36499,7 +36650,7 @@
         <v>255</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="V55" s="3" t="b">
         <v>0</v>
@@ -36514,23 +36665,23 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
@@ -36548,7 +36699,7 @@
         <v>1</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N56" s="3">
         <v>0</v>
@@ -36587,23 +36738,23 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B57" s="3">
         <v>2</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -36621,7 +36772,7 @@
         <v>1</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -36651,40 +36802,40 @@
         <v>1</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X57" s="3">
         <v>1</v>
       </c>
       <c r="Y57" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
       <c r="AC57" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B58" s="3">
         <v>1</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -36702,7 +36853,7 @@
         <v>1</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
